--- a/訓練資料集(上衣).xlsx
+++ b/訓練資料集(上衣).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Embedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B557B76E-3092-45D1-AEBF-24F291A159C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B251489-6FD5-4FC2-AD69-98A63124E59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="482">
   <si>
     <t>URL</t>
   </si>
@@ -1589,12 +1589,53 @@
   <si>
     <t>https://tpimage.91app.com/adidas/IC5639_OK/1-Main/All/IC5639_02.jpg</t>
   </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GS1348_OK/1-Main/All/GS1348_01.jpg</t>
+  </si>
+  <si>
+    <t>https://tpimage.91app.com/adidas/GS1348_OK/1-Main/All/GS1348_02.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>情境半身模特</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>側</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>面</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>情境半身模特側面</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1690,6 +1731,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1991,8 +2038,8 @@
   <dimension ref="A1:E1343"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A416" sqref="A416:D417"/>
+      <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K413" sqref="K413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2109,7 +2156,7 @@
       </c>
       <c r="E6" s="6" cm="1">
         <f t="array" ref="E6">IF(C6="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C6)*(工作表2!B:B=D6), 0)),""))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -2127,7 +2174,7 @@
       </c>
       <c r="E7" s="6" cm="1">
         <f t="array" ref="E7">IF(C7="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C7)*(工作表2!B:B=D7), 0)),""))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
@@ -2145,7 +2192,7 @@
       </c>
       <c r="E8" s="6" cm="1">
         <f t="array" ref="E8">IF(C8="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C8)*(工作表2!B:B=D8), 0)),""))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
@@ -2163,7 +2210,7 @@
       </c>
       <c r="E9" s="6" cm="1">
         <f t="array" ref="E9">IF(C9="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C9)*(工作表2!B:B=D9), 0)),""))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
@@ -2181,7 +2228,7 @@
       </c>
       <c r="E10" s="6" cm="1">
         <f t="array" ref="E10">IF(C10="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C10)*(工作表2!B:B=D10), 0)),""))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
@@ -2199,7 +2246,7 @@
       </c>
       <c r="E11" s="6" cm="1">
         <f t="array" ref="E11">IF(C11="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C11)*(工作表2!B:B=D11), 0)),""))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
@@ -2217,7 +2264,7 @@
       </c>
       <c r="E12" s="6" cm="1">
         <f t="array" ref="E12">IF(C12="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C12)*(工作表2!B:B=D12), 0)),""))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
@@ -2235,7 +2282,7 @@
       </c>
       <c r="E13" s="6" cm="1">
         <f t="array" ref="E13">IF(C13="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C13)*(工作表2!B:B=D13), 0)),""))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
@@ -2253,7 +2300,7 @@
       </c>
       <c r="E14" s="6" cm="1">
         <f t="array" ref="E14">IF(C14="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C14)*(工作表2!B:B=D14), 0)),""))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
@@ -2271,7 +2318,7 @@
       </c>
       <c r="E15" s="6" cm="1">
         <f t="array" ref="E15">IF(C15="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C15)*(工作表2!B:B=D15), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
@@ -2289,7 +2336,7 @@
       </c>
       <c r="E16" s="6" cm="1">
         <f t="array" ref="E16">IF(C16="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C16)*(工作表2!B:B=D16), 0)),""))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
@@ -2307,7 +2354,7 @@
       </c>
       <c r="E17" s="6" cm="1">
         <f t="array" ref="E17">IF(C17="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C17)*(工作表2!B:B=D17), 0)),""))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
@@ -2325,7 +2372,7 @@
       </c>
       <c r="E18" s="6" cm="1">
         <f t="array" ref="E18">IF(C18="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C18)*(工作表2!B:B=D18), 0)),""))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
@@ -2343,7 +2390,7 @@
       </c>
       <c r="E19" s="6" cm="1">
         <f t="array" ref="E19">IF(C19="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C19)*(工作表2!B:B=D19), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
@@ -2361,7 +2408,7 @@
       </c>
       <c r="E20" s="6" cm="1">
         <f t="array" ref="E20">IF(C20="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C20)*(工作表2!B:B=D20), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
@@ -2379,7 +2426,7 @@
       </c>
       <c r="E21" s="6" cm="1">
         <f t="array" ref="E21">IF(C21="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C21)*(工作表2!B:B=D21), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
@@ -2397,7 +2444,7 @@
       </c>
       <c r="E22" s="6" cm="1">
         <f t="array" ref="E22">IF(C22="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C22)*(工作表2!B:B=D22), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
@@ -2415,7 +2462,7 @@
       </c>
       <c r="E23" s="6" cm="1">
         <f t="array" ref="E23">IF(C23="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C23)*(工作表2!B:B=D23), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
@@ -2433,7 +2480,7 @@
       </c>
       <c r="E24" s="6" cm="1">
         <f t="array" ref="E24">IF(C24="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C24)*(工作表2!B:B=D24), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
@@ -2451,7 +2498,7 @@
       </c>
       <c r="E25" s="6" cm="1">
         <f t="array" ref="E25">IF(C25="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C25)*(工作表2!B:B=D25), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
@@ -2469,7 +2516,7 @@
       </c>
       <c r="E26" s="6" cm="1">
         <f t="array" ref="E26">IF(C26="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C26)*(工作表2!B:B=D26), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
@@ -2487,7 +2534,7 @@
       </c>
       <c r="E27" s="6" cm="1">
         <f t="array" ref="E27">IF(C27="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C27)*(工作表2!B:B=D27), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
@@ -2505,7 +2552,7 @@
       </c>
       <c r="E28" s="6" cm="1">
         <f t="array" ref="E28">IF(C28="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C28)*(工作表2!B:B=D28), 0)),""))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
@@ -2523,7 +2570,7 @@
       </c>
       <c r="E29" s="6" cm="1">
         <f t="array" ref="E29">IF(C29="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C29)*(工作表2!B:B=D29), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
@@ -2541,7 +2588,7 @@
       </c>
       <c r="E30" s="6" cm="1">
         <f t="array" ref="E30">IF(C30="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C30)*(工作表2!B:B=D30), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
@@ -2559,7 +2606,7 @@
       </c>
       <c r="E31" s="6" cm="1">
         <f t="array" ref="E31">IF(C31="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C31)*(工作表2!B:B=D31), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
@@ -2577,7 +2624,7 @@
       </c>
       <c r="E32" s="6" cm="1">
         <f t="array" ref="E32">IF(C32="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C32)*(工作表2!B:B=D32), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
@@ -2595,7 +2642,7 @@
       </c>
       <c r="E33" s="6" cm="1">
         <f t="array" ref="E33">IF(C33="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C33)*(工作表2!B:B=D33), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
@@ -2613,7 +2660,7 @@
       </c>
       <c r="E34" s="6" cm="1">
         <f t="array" ref="E34">IF(C34="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C34)*(工作表2!B:B=D34), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
@@ -2631,7 +2678,7 @@
       </c>
       <c r="E35" s="6" cm="1">
         <f t="array" ref="E35">IF(C35="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C35)*(工作表2!B:B=D35), 0)),""))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
@@ -2649,7 +2696,7 @@
       </c>
       <c r="E36" s="6" cm="1">
         <f t="array" ref="E36">IF(C36="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C36)*(工作表2!B:B=D36), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
@@ -2667,7 +2714,7 @@
       </c>
       <c r="E37" s="6" cm="1">
         <f t="array" ref="E37">IF(C37="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C37)*(工作表2!B:B=D37), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
@@ -2685,7 +2732,7 @@
       </c>
       <c r="E38" s="6" cm="1">
         <f t="array" ref="E38">IF(C38="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C38)*(工作表2!B:B=D38), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1">
@@ -2703,7 +2750,7 @@
       </c>
       <c r="E39" s="6" cm="1">
         <f t="array" ref="E39">IF(C39="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C39)*(工作表2!B:B=D39), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
@@ -2721,7 +2768,7 @@
       </c>
       <c r="E40" s="6" cm="1">
         <f t="array" ref="E40">IF(C40="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C40)*(工作表2!B:B=D40), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
@@ -2739,7 +2786,7 @@
       </c>
       <c r="E41" s="6" cm="1">
         <f t="array" ref="E41">IF(C41="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C41)*(工作表2!B:B=D41), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
@@ -2757,7 +2804,7 @@
       </c>
       <c r="E42" s="6" cm="1">
         <f t="array" ref="E42">IF(C42="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C42)*(工作表2!B:B=D42), 0)),""))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
@@ -2775,7 +2822,7 @@
       </c>
       <c r="E43" s="6" cm="1">
         <f t="array" ref="E43">IF(C43="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C43)*(工作表2!B:B=D43), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
@@ -2793,7 +2840,7 @@
       </c>
       <c r="E44" s="6" cm="1">
         <f t="array" ref="E44">IF(C44="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C44)*(工作表2!B:B=D44), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
@@ -2811,7 +2858,7 @@
       </c>
       <c r="E45" s="6" cm="1">
         <f t="array" ref="E45">IF(C45="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C45)*(工作表2!B:B=D45), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
@@ -2829,7 +2876,7 @@
       </c>
       <c r="E46" s="6" cm="1">
         <f t="array" ref="E46">IF(C46="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C46)*(工作表2!B:B=D46), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
@@ -2847,7 +2894,7 @@
       </c>
       <c r="E47" s="6" cm="1">
         <f t="array" ref="E47">IF(C47="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C47)*(工作表2!B:B=D47), 0)),""))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
@@ -2865,7 +2912,7 @@
       </c>
       <c r="E48" s="6" cm="1">
         <f t="array" ref="E48">IF(C48="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C48)*(工作表2!B:B=D48), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
@@ -2883,7 +2930,7 @@
       </c>
       <c r="E49" s="6" cm="1">
         <f t="array" ref="E49">IF(C49="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C49)*(工作表2!B:B=D49), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
@@ -2901,7 +2948,7 @@
       </c>
       <c r="E50" s="6" cm="1">
         <f t="array" ref="E50">IF(C50="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C50)*(工作表2!B:B=D50), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
@@ -2919,7 +2966,7 @@
       </c>
       <c r="E51" s="6" cm="1">
         <f t="array" ref="E51">IF(C51="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C51)*(工作表2!B:B=D51), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
@@ -2937,7 +2984,7 @@
       </c>
       <c r="E52" s="6" cm="1">
         <f t="array" ref="E52">IF(C52="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C52)*(工作表2!B:B=D52), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
@@ -2955,7 +3002,7 @@
       </c>
       <c r="E53" s="6" cm="1">
         <f t="array" ref="E53">IF(C53="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C53)*(工作表2!B:B=D53), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
@@ -2973,7 +3020,7 @@
       </c>
       <c r="E54" s="6" cm="1">
         <f t="array" ref="E54">IF(C54="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C54)*(工作表2!B:B=D54), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
@@ -2991,7 +3038,7 @@
       </c>
       <c r="E55" s="6" cm="1">
         <f t="array" ref="E55">IF(C55="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C55)*(工作表2!B:B=D55), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
@@ -3009,7 +3056,7 @@
       </c>
       <c r="E56" s="6" cm="1">
         <f t="array" ref="E56">IF(C56="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C56)*(工作表2!B:B=D56), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1">
@@ -3027,7 +3074,7 @@
       </c>
       <c r="E57" s="6" cm="1">
         <f t="array" ref="E57">IF(C57="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C57)*(工作表2!B:B=D57), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1">
@@ -3045,7 +3092,7 @@
       </c>
       <c r="E58" s="6" cm="1">
         <f t="array" ref="E58">IF(C58="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C58)*(工作表2!B:B=D58), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
@@ -3063,7 +3110,7 @@
       </c>
       <c r="E59" s="6" cm="1">
         <f t="array" ref="E59">IF(C59="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C59)*(工作表2!B:B=D59), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1">
@@ -3081,7 +3128,7 @@
       </c>
       <c r="E60" s="6" cm="1">
         <f t="array" ref="E60">IF(C60="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C60)*(工作表2!B:B=D60), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
@@ -3099,7 +3146,7 @@
       </c>
       <c r="E61" s="6" cm="1">
         <f t="array" ref="E61">IF(C61="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C61)*(工作表2!B:B=D61), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
@@ -3117,7 +3164,7 @@
       </c>
       <c r="E62" s="6" cm="1">
         <f t="array" ref="E62">IF(C62="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C62)*(工作表2!B:B=D62), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
@@ -3135,7 +3182,7 @@
       </c>
       <c r="E63" s="6" cm="1">
         <f t="array" ref="E63">IF(C63="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C63)*(工作表2!B:B=D63), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1">
@@ -3153,7 +3200,7 @@
       </c>
       <c r="E64" s="6" cm="1">
         <f t="array" ref="E64">IF(C64="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C64)*(工作表2!B:B=D64), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1">
@@ -3171,7 +3218,7 @@
       </c>
       <c r="E65" s="6" cm="1">
         <f t="array" ref="E65">IF(C65="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C65)*(工作表2!B:B=D65), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1">
@@ -3189,7 +3236,7 @@
       </c>
       <c r="E66" s="6" cm="1">
         <f t="array" ref="E66">IF(C66="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C66)*(工作表2!B:B=D66), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1">
@@ -3207,7 +3254,7 @@
       </c>
       <c r="E67" s="6" cm="1">
         <f t="array" ref="E67">IF(C67="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C67)*(工作表2!B:B=D67), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1">
@@ -3225,7 +3272,7 @@
       </c>
       <c r="E68" s="6" cm="1">
         <f t="array" ref="E68">IF(C68="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C68)*(工作表2!B:B=D68), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1">
@@ -3243,7 +3290,7 @@
       </c>
       <c r="E69" s="6" cm="1">
         <f t="array" ref="E69">IF(C69="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C69)*(工作表2!B:B=D69), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1">
@@ -3261,7 +3308,7 @@
       </c>
       <c r="E70" s="6" cm="1">
         <f t="array" ref="E70">IF(C70="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C70)*(工作表2!B:B=D70), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1">
@@ -3279,7 +3326,7 @@
       </c>
       <c r="E71" s="6" cm="1">
         <f t="array" ref="E71">IF(C71="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C71)*(工作表2!B:B=D71), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1">
@@ -3297,7 +3344,7 @@
       </c>
       <c r="E72" s="6" cm="1">
         <f t="array" ref="E72">IF(C72="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C72)*(工作表2!B:B=D72), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1">
@@ -3315,7 +3362,7 @@
       </c>
       <c r="E73" s="6" cm="1">
         <f t="array" ref="E73">IF(C73="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C73)*(工作表2!B:B=D73), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1">
@@ -3333,7 +3380,7 @@
       </c>
       <c r="E74" s="6" cm="1">
         <f t="array" ref="E74">IF(C74="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C74)*(工作表2!B:B=D74), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1">
@@ -3351,7 +3398,7 @@
       </c>
       <c r="E75" s="6" cm="1">
         <f t="array" ref="E75">IF(C75="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C75)*(工作表2!B:B=D75), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
@@ -3369,7 +3416,7 @@
       </c>
       <c r="E76" s="6" cm="1">
         <f t="array" ref="E76">IF(C76="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C76)*(工作表2!B:B=D76), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">
@@ -3387,7 +3434,7 @@
       </c>
       <c r="E77" s="6" cm="1">
         <f t="array" ref="E77">IF(C77="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C77)*(工作表2!B:B=D77), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1">
@@ -3405,7 +3452,7 @@
       </c>
       <c r="E78" s="6" cm="1">
         <f t="array" ref="E78">IF(C78="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C78)*(工作表2!B:B=D78), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1">
@@ -3423,7 +3470,7 @@
       </c>
       <c r="E79" s="6" cm="1">
         <f t="array" ref="E79">IF(C79="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C79)*(工作表2!B:B=D79), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1">
@@ -3441,7 +3488,7 @@
       </c>
       <c r="E80" s="6" cm="1">
         <f t="array" ref="E80">IF(C80="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C80)*(工作表2!B:B=D80), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1">
@@ -3459,7 +3506,7 @@
       </c>
       <c r="E81" s="6" cm="1">
         <f t="array" ref="E81">IF(C81="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C81)*(工作表2!B:B=D81), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1">
@@ -3477,7 +3524,7 @@
       </c>
       <c r="E82" s="6" cm="1">
         <f t="array" ref="E82">IF(C82="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C82)*(工作表2!B:B=D82), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1">
@@ -3495,7 +3542,7 @@
       </c>
       <c r="E83" s="6" cm="1">
         <f t="array" ref="E83">IF(C83="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C83)*(工作表2!B:B=D83), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1">
@@ -3513,7 +3560,7 @@
       </c>
       <c r="E84" s="6" cm="1">
         <f t="array" ref="E84">IF(C84="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C84)*(工作表2!B:B=D84), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1">
@@ -3531,7 +3578,7 @@
       </c>
       <c r="E85" s="6" cm="1">
         <f t="array" ref="E85">IF(C85="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C85)*(工作表2!B:B=D85), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1">
@@ -3549,7 +3596,7 @@
       </c>
       <c r="E86" s="6" cm="1">
         <f t="array" ref="E86">IF(C86="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C86)*(工作表2!B:B=D86), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1">
@@ -3567,7 +3614,7 @@
       </c>
       <c r="E87" s="6" cm="1">
         <f t="array" ref="E87">IF(C87="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C87)*(工作表2!B:B=D87), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1">
@@ -3585,7 +3632,7 @@
       </c>
       <c r="E88" s="6" cm="1">
         <f t="array" ref="E88">IF(C88="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C88)*(工作表2!B:B=D88), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1">
@@ -3603,7 +3650,7 @@
       </c>
       <c r="E89" s="6" cm="1">
         <f t="array" ref="E89">IF(C89="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C89)*(工作表2!B:B=D89), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1">
@@ -3621,7 +3668,7 @@
       </c>
       <c r="E90" s="6" cm="1">
         <f t="array" ref="E90">IF(C90="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C90)*(工作表2!B:B=D90), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1">
@@ -3639,7 +3686,7 @@
       </c>
       <c r="E91" s="6" cm="1">
         <f t="array" ref="E91">IF(C91="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C91)*(工作表2!B:B=D91), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1">
@@ -3657,7 +3704,7 @@
       </c>
       <c r="E92" s="6" cm="1">
         <f t="array" ref="E92">IF(C92="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C92)*(工作表2!B:B=D92), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1">
@@ -3675,7 +3722,7 @@
       </c>
       <c r="E93" s="6" cm="1">
         <f t="array" ref="E93">IF(C93="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C93)*(工作表2!B:B=D93), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1">
@@ -3693,7 +3740,7 @@
       </c>
       <c r="E94" s="6" cm="1">
         <f t="array" ref="E94">IF(C94="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C94)*(工作表2!B:B=D94), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1">
@@ -3711,7 +3758,7 @@
       </c>
       <c r="E95" s="6" cm="1">
         <f t="array" ref="E95">IF(C95="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C95)*(工作表2!B:B=D95), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1">
@@ -3729,7 +3776,7 @@
       </c>
       <c r="E96" s="6" cm="1">
         <f t="array" ref="E96">IF(C96="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C96)*(工作表2!B:B=D96), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1">
@@ -3747,7 +3794,7 @@
       </c>
       <c r="E97" s="6" cm="1">
         <f t="array" ref="E97">IF(C97="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C97)*(工作表2!B:B=D97), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1">
@@ -3765,7 +3812,7 @@
       </c>
       <c r="E98" s="6" cm="1">
         <f t="array" ref="E98">IF(C98="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C98)*(工作表2!B:B=D98), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1">
@@ -3783,7 +3830,7 @@
       </c>
       <c r="E99" s="6" cm="1">
         <f t="array" ref="E99">IF(C99="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C99)*(工作表2!B:B=D99), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1">
@@ -3801,7 +3848,7 @@
       </c>
       <c r="E100" s="6" cm="1">
         <f t="array" ref="E100">IF(C100="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C100)*(工作表2!B:B=D100), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1">
@@ -3819,7 +3866,7 @@
       </c>
       <c r="E101" s="6" cm="1">
         <f t="array" ref="E101">IF(C101="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C101)*(工作表2!B:B=D101), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1">
@@ -3837,7 +3884,7 @@
       </c>
       <c r="E102" s="6" cm="1">
         <f t="array" ref="E102">IF(C102="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C102)*(工作表2!B:B=D102), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1">
@@ -3855,7 +3902,7 @@
       </c>
       <c r="E103" s="6" cm="1">
         <f t="array" ref="E103">IF(C103="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C103)*(工作表2!B:B=D103), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1">
@@ -3873,7 +3920,7 @@
       </c>
       <c r="E104" s="6" cm="1">
         <f t="array" ref="E104">IF(C104="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C104)*(工作表2!B:B=D104), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1">
@@ -3891,7 +3938,7 @@
       </c>
       <c r="E105" s="6" cm="1">
         <f t="array" ref="E105">IF(C105="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C105)*(工作表2!B:B=D105), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1">
@@ -3909,7 +3956,7 @@
       </c>
       <c r="E106" s="6" cm="1">
         <f t="array" ref="E106">IF(C106="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C106)*(工作表2!B:B=D106), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1">
@@ -3927,7 +3974,7 @@
       </c>
       <c r="E107" s="6" cm="1">
         <f t="array" ref="E107">IF(C107="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C107)*(工作表2!B:B=D107), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1">
@@ -3945,7 +3992,7 @@
       </c>
       <c r="E108" s="6" cm="1">
         <f t="array" ref="E108">IF(C108="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C108)*(工作表2!B:B=D108), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1">
@@ -3963,7 +4010,7 @@
       </c>
       <c r="E109" s="6" cm="1">
         <f t="array" ref="E109">IF(C109="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C109)*(工作表2!B:B=D109), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1">
@@ -3981,7 +4028,7 @@
       </c>
       <c r="E110" s="6" cm="1">
         <f t="array" ref="E110">IF(C110="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C110)*(工作表2!B:B=D110), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1">
@@ -3999,7 +4046,7 @@
       </c>
       <c r="E111" s="6" cm="1">
         <f t="array" ref="E111">IF(C111="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C111)*(工作表2!B:B=D111), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1">
@@ -4017,7 +4064,7 @@
       </c>
       <c r="E112" s="6" cm="1">
         <f t="array" ref="E112">IF(C112="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C112)*(工作表2!B:B=D112), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1">
@@ -4035,7 +4082,7 @@
       </c>
       <c r="E113" s="6" cm="1">
         <f t="array" ref="E113">IF(C113="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C113)*(工作表2!B:B=D113), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1">
@@ -4053,7 +4100,7 @@
       </c>
       <c r="E114" s="6" cm="1">
         <f t="array" ref="E114">IF(C114="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C114)*(工作表2!B:B=D114), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1">
@@ -4071,7 +4118,7 @@
       </c>
       <c r="E115" s="6" cm="1">
         <f t="array" ref="E115">IF(C115="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C115)*(工作表2!B:B=D115), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1">
@@ -4089,7 +4136,7 @@
       </c>
       <c r="E116" s="6" cm="1">
         <f t="array" ref="E116">IF(C116="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C116)*(工作表2!B:B=D116), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1">
@@ -4107,7 +4154,7 @@
       </c>
       <c r="E117" s="6" cm="1">
         <f t="array" ref="E117">IF(C117="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C117)*(工作表2!B:B=D117), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1">
@@ -4125,7 +4172,7 @@
       </c>
       <c r="E118" s="6" cm="1">
         <f t="array" ref="E118">IF(C118="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C118)*(工作表2!B:B=D118), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1">
@@ -4143,7 +4190,7 @@
       </c>
       <c r="E119" s="6" cm="1">
         <f t="array" ref="E119">IF(C119="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C119)*(工作表2!B:B=D119), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1">
@@ -4161,7 +4208,7 @@
       </c>
       <c r="E120" s="6" cm="1">
         <f t="array" ref="E120">IF(C120="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C120)*(工作表2!B:B=D120), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1">
@@ -4179,7 +4226,7 @@
       </c>
       <c r="E121" s="6" cm="1">
         <f t="array" ref="E121">IF(C121="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C121)*(工作表2!B:B=D121), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1">
@@ -4197,7 +4244,7 @@
       </c>
       <c r="E122" s="6" cm="1">
         <f t="array" ref="E122">IF(C122="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C122)*(工作表2!B:B=D122), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1">
@@ -4215,7 +4262,7 @@
       </c>
       <c r="E123" s="6" cm="1">
         <f t="array" ref="E123">IF(C123="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C123)*(工作表2!B:B=D123), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1">
@@ -4233,7 +4280,7 @@
       </c>
       <c r="E124" s="6" cm="1">
         <f t="array" ref="E124">IF(C124="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C124)*(工作表2!B:B=D124), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1">
@@ -4251,7 +4298,7 @@
       </c>
       <c r="E125" s="6" cm="1">
         <f t="array" ref="E125">IF(C125="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C125)*(工作表2!B:B=D125), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1">
@@ -4269,7 +4316,7 @@
       </c>
       <c r="E126" s="6" cm="1">
         <f t="array" ref="E126">IF(C126="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C126)*(工作表2!B:B=D126), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1">
@@ -4287,7 +4334,7 @@
       </c>
       <c r="E127" s="6" cm="1">
         <f t="array" ref="E127">IF(C127="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C127)*(工作表2!B:B=D127), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1">
@@ -4305,7 +4352,7 @@
       </c>
       <c r="E128" s="6" cm="1">
         <f t="array" ref="E128">IF(C128="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C128)*(工作表2!B:B=D128), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1">
@@ -4323,7 +4370,7 @@
       </c>
       <c r="E129" s="6" cm="1">
         <f t="array" ref="E129">IF(C129="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C129)*(工作表2!B:B=D129), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1">
@@ -4341,7 +4388,7 @@
       </c>
       <c r="E130" s="6" cm="1">
         <f t="array" ref="E130">IF(C130="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C130)*(工作表2!B:B=D130), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1">
@@ -4359,7 +4406,7 @@
       </c>
       <c r="E131" s="6" cm="1">
         <f t="array" ref="E131">IF(C131="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C131)*(工作表2!B:B=D131), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1">
@@ -4377,7 +4424,7 @@
       </c>
       <c r="E132" s="6" cm="1">
         <f t="array" ref="E132">IF(C132="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C132)*(工作表2!B:B=D132), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.75" customHeight="1">
@@ -4395,7 +4442,7 @@
       </c>
       <c r="E133" s="6" cm="1">
         <f t="array" ref="E133">IF(C133="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C133)*(工作表2!B:B=D133), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1">
@@ -4413,7 +4460,7 @@
       </c>
       <c r="E134" s="6" cm="1">
         <f t="array" ref="E134">IF(C134="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C134)*(工作表2!B:B=D134), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1">
@@ -4431,7 +4478,7 @@
       </c>
       <c r="E135" s="6" cm="1">
         <f t="array" ref="E135">IF(C135="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C135)*(工作表2!B:B=D135), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1">
@@ -4449,7 +4496,7 @@
       </c>
       <c r="E136" s="6" cm="1">
         <f t="array" ref="E136">IF(C136="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C136)*(工作表2!B:B=D136), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1">
@@ -4467,7 +4514,7 @@
       </c>
       <c r="E137" s="6" cm="1">
         <f t="array" ref="E137">IF(C137="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C137)*(工作表2!B:B=D137), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.75" customHeight="1">
@@ -4485,7 +4532,7 @@
       </c>
       <c r="E138" s="6" cm="1">
         <f t="array" ref="E138">IF(C138="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C138)*(工作表2!B:B=D138), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15.75" customHeight="1">
@@ -4503,7 +4550,7 @@
       </c>
       <c r="E139" s="6" cm="1">
         <f t="array" ref="E139">IF(C139="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C139)*(工作表2!B:B=D139), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" customHeight="1">
@@ -4521,7 +4568,7 @@
       </c>
       <c r="E140" s="6" cm="1">
         <f t="array" ref="E140">IF(C140="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C140)*(工作表2!B:B=D140), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15.75" customHeight="1">
@@ -4539,7 +4586,7 @@
       </c>
       <c r="E141" s="6" cm="1">
         <f t="array" ref="E141">IF(C141="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C141)*(工作表2!B:B=D141), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15.75" customHeight="1">
@@ -4557,7 +4604,7 @@
       </c>
       <c r="E142" s="6" cm="1">
         <f t="array" ref="E142">IF(C142="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C142)*(工作表2!B:B=D142), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15.75" customHeight="1">
@@ -4575,7 +4622,7 @@
       </c>
       <c r="E143" s="6" cm="1">
         <f t="array" ref="E143">IF(C143="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C143)*(工作表2!B:B=D143), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15.75" customHeight="1">
@@ -4593,7 +4640,7 @@
       </c>
       <c r="E144" s="6" cm="1">
         <f t="array" ref="E144">IF(C144="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C144)*(工作表2!B:B=D144), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1">
@@ -4611,7 +4658,7 @@
       </c>
       <c r="E145" s="6" cm="1">
         <f t="array" ref="E145">IF(C145="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C145)*(工作表2!B:B=D145), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1">
@@ -4629,7 +4676,7 @@
       </c>
       <c r="E146" s="6" cm="1">
         <f t="array" ref="E146">IF(C146="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C146)*(工作表2!B:B=D146), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.75" customHeight="1">
@@ -4647,7 +4694,7 @@
       </c>
       <c r="E147" s="6" cm="1">
         <f t="array" ref="E147">IF(C147="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C147)*(工作表2!B:B=D147), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.75" customHeight="1">
@@ -4665,7 +4712,7 @@
       </c>
       <c r="E148" s="6" cm="1">
         <f t="array" ref="E148">IF(C148="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C148)*(工作表2!B:B=D148), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1">
@@ -4683,7 +4730,7 @@
       </c>
       <c r="E149" s="6" cm="1">
         <f t="array" ref="E149">IF(C149="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C149)*(工作表2!B:B=D149), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.75" customHeight="1">
@@ -4701,7 +4748,7 @@
       </c>
       <c r="E150" s="6" cm="1">
         <f t="array" ref="E150">IF(C150="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C150)*(工作表2!B:B=D150), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1">
@@ -4719,7 +4766,7 @@
       </c>
       <c r="E151" s="6" cm="1">
         <f t="array" ref="E151">IF(C151="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C151)*(工作表2!B:B=D151), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1">
@@ -4737,7 +4784,7 @@
       </c>
       <c r="E152" s="6" cm="1">
         <f t="array" ref="E152">IF(C152="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C152)*(工作表2!B:B=D152), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15.75" customHeight="1">
@@ -4755,7 +4802,7 @@
       </c>
       <c r="E153" s="6" cm="1">
         <f t="array" ref="E153">IF(C153="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C153)*(工作表2!B:B=D153), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1">
@@ -4773,7 +4820,7 @@
       </c>
       <c r="E154" s="6" cm="1">
         <f t="array" ref="E154">IF(C154="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C154)*(工作表2!B:B=D154), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1">
@@ -4791,7 +4838,7 @@
       </c>
       <c r="E155" s="6" cm="1">
         <f t="array" ref="E155">IF(C155="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C155)*(工作表2!B:B=D155), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1">
@@ -4809,7 +4856,7 @@
       </c>
       <c r="E156" s="6" cm="1">
         <f t="array" ref="E156">IF(C156="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C156)*(工作表2!B:B=D156), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1">
@@ -4827,7 +4874,7 @@
       </c>
       <c r="E157" s="6" cm="1">
         <f t="array" ref="E157">IF(C157="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C157)*(工作表2!B:B=D157), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1">
@@ -4845,7 +4892,7 @@
       </c>
       <c r="E158" s="6" cm="1">
         <f t="array" ref="E158">IF(C158="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C158)*(工作表2!B:B=D158), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1">
@@ -4863,7 +4910,7 @@
       </c>
       <c r="E159" s="6" cm="1">
         <f t="array" ref="E159">IF(C159="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C159)*(工作表2!B:B=D159), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1">
@@ -4881,7 +4928,7 @@
       </c>
       <c r="E160" s="6" cm="1">
         <f t="array" ref="E160">IF(C160="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C160)*(工作表2!B:B=D160), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1">
@@ -4899,7 +4946,7 @@
       </c>
       <c r="E161" s="6" cm="1">
         <f t="array" ref="E161">IF(C161="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C161)*(工作表2!B:B=D161), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1">
@@ -4917,7 +4964,7 @@
       </c>
       <c r="E162" s="6" cm="1">
         <f t="array" ref="E162">IF(C162="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C162)*(工作表2!B:B=D162), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1">
@@ -4935,7 +4982,7 @@
       </c>
       <c r="E163" s="6" cm="1">
         <f t="array" ref="E163">IF(C163="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C163)*(工作表2!B:B=D163), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1">
@@ -4953,7 +5000,7 @@
       </c>
       <c r="E164" s="6" cm="1">
         <f t="array" ref="E164">IF(C164="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C164)*(工作表2!B:B=D164), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1">
@@ -4971,7 +5018,7 @@
       </c>
       <c r="E165" s="6" cm="1">
         <f t="array" ref="E165">IF(C165="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C165)*(工作表2!B:B=D165), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1">
@@ -4989,7 +5036,7 @@
       </c>
       <c r="E166" s="6" cm="1">
         <f t="array" ref="E166">IF(C166="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C166)*(工作表2!B:B=D166), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1">
@@ -5007,7 +5054,7 @@
       </c>
       <c r="E167" s="6" cm="1">
         <f t="array" ref="E167">IF(C167="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C167)*(工作表2!B:B=D167), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1">
@@ -5025,7 +5072,7 @@
       </c>
       <c r="E168" s="6" cm="1">
         <f t="array" ref="E168">IF(C168="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C168)*(工作表2!B:B=D168), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1">
@@ -5043,7 +5090,7 @@
       </c>
       <c r="E169" s="6" cm="1">
         <f t="array" ref="E169">IF(C169="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C169)*(工作表2!B:B=D169), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1">
@@ -5061,7 +5108,7 @@
       </c>
       <c r="E170" s="6" cm="1">
         <f t="array" ref="E170">IF(C170="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C170)*(工作表2!B:B=D170), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1">
@@ -5079,7 +5126,7 @@
       </c>
       <c r="E171" s="6" cm="1">
         <f t="array" ref="E171">IF(C171="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C171)*(工作表2!B:B=D171), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1">
@@ -5097,7 +5144,7 @@
       </c>
       <c r="E172" s="6" cm="1">
         <f t="array" ref="E172">IF(C172="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C172)*(工作表2!B:B=D172), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1">
@@ -5115,7 +5162,7 @@
       </c>
       <c r="E173" s="6" cm="1">
         <f t="array" ref="E173">IF(C173="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C173)*(工作表2!B:B=D173), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1">
@@ -5133,7 +5180,7 @@
       </c>
       <c r="E174" s="6" cm="1">
         <f t="array" ref="E174">IF(C174="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C174)*(工作表2!B:B=D174), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" customHeight="1">
@@ -5151,7 +5198,7 @@
       </c>
       <c r="E175" s="6" cm="1">
         <f t="array" ref="E175">IF(C175="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C175)*(工作表2!B:B=D175), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1">
@@ -5169,7 +5216,7 @@
       </c>
       <c r="E176" s="6" cm="1">
         <f t="array" ref="E176">IF(C176="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C176)*(工作表2!B:B=D176), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1">
@@ -5187,7 +5234,7 @@
       </c>
       <c r="E177" s="6" cm="1">
         <f t="array" ref="E177">IF(C177="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C177)*(工作表2!B:B=D177), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1">
@@ -5205,7 +5252,7 @@
       </c>
       <c r="E178" s="6" cm="1">
         <f t="array" ref="E178">IF(C178="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C178)*(工作表2!B:B=D178), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1">
@@ -5223,7 +5270,7 @@
       </c>
       <c r="E179" s="6" cm="1">
         <f t="array" ref="E179">IF(C179="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C179)*(工作表2!B:B=D179), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1">
@@ -5241,7 +5288,7 @@
       </c>
       <c r="E180" s="6" cm="1">
         <f t="array" ref="E180">IF(C180="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C180)*(工作表2!B:B=D180), 0)),""))</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15.75" customHeight="1">
@@ -5259,7 +5306,7 @@
       </c>
       <c r="E181" s="6" cm="1">
         <f t="array" ref="E181">IF(C181="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C181)*(工作表2!B:B=D181), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1">
@@ -5277,7 +5324,7 @@
       </c>
       <c r="E182" s="6" cm="1">
         <f t="array" ref="E182">IF(C182="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C182)*(工作表2!B:B=D182), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1">
@@ -5295,7 +5342,7 @@
       </c>
       <c r="E183" s="6" cm="1">
         <f t="array" ref="E183">IF(C183="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C183)*(工作表2!B:B=D183), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1">
@@ -5313,7 +5360,7 @@
       </c>
       <c r="E184" s="6" cm="1">
         <f t="array" ref="E184">IF(C184="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C184)*(工作表2!B:B=D184), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1">
@@ -5331,7 +5378,7 @@
       </c>
       <c r="E185" s="6" cm="1">
         <f t="array" ref="E185">IF(C185="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C185)*(工作表2!B:B=D185), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1">
@@ -5349,7 +5396,7 @@
       </c>
       <c r="E186" s="6" cm="1">
         <f t="array" ref="E186">IF(C186="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C186)*(工作表2!B:B=D186), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1">
@@ -5367,7 +5414,7 @@
       </c>
       <c r="E187" s="6" cm="1">
         <f t="array" ref="E187">IF(C187="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C187)*(工作表2!B:B=D187), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15.75" customHeight="1">
@@ -5385,7 +5432,7 @@
       </c>
       <c r="E188" s="6" cm="1">
         <f t="array" ref="E188">IF(C188="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C188)*(工作表2!B:B=D188), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15.75" customHeight="1">
@@ -5403,7 +5450,7 @@
       </c>
       <c r="E189" s="6" cm="1">
         <f t="array" ref="E189">IF(C189="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C189)*(工作表2!B:B=D189), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1">
@@ -5421,7 +5468,7 @@
       </c>
       <c r="E190" s="6" cm="1">
         <f t="array" ref="E190">IF(C190="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C190)*(工作表2!B:B=D190), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1">
@@ -5439,7 +5486,7 @@
       </c>
       <c r="E191" s="6" cm="1">
         <f t="array" ref="E191">IF(C191="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C191)*(工作表2!B:B=D191), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1">
@@ -5457,7 +5504,7 @@
       </c>
       <c r="E192" s="6" cm="1">
         <f t="array" ref="E192">IF(C192="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C192)*(工作表2!B:B=D192), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1">
@@ -5475,7 +5522,7 @@
       </c>
       <c r="E193" s="6" cm="1">
         <f t="array" ref="E193">IF(C193="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C193)*(工作表2!B:B=D193), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1">
@@ -5493,7 +5540,7 @@
       </c>
       <c r="E194" s="6" cm="1">
         <f t="array" ref="E194">IF(C194="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C194)*(工作表2!B:B=D194), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15.75" customHeight="1">
@@ -5511,7 +5558,7 @@
       </c>
       <c r="E195" s="6" cm="1">
         <f t="array" ref="E195">IF(C195="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C195)*(工作表2!B:B=D195), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15.75" customHeight="1">
@@ -5529,7 +5576,7 @@
       </c>
       <c r="E196" s="6" cm="1">
         <f t="array" ref="E196">IF(C196="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C196)*(工作表2!B:B=D196), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.75" customHeight="1">
@@ -5547,7 +5594,7 @@
       </c>
       <c r="E197" s="6" cm="1">
         <f t="array" ref="E197">IF(C197="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C197)*(工作表2!B:B=D197), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15.75" customHeight="1">
@@ -5565,7 +5612,7 @@
       </c>
       <c r="E198" s="6" cm="1">
         <f t="array" ref="E198">IF(C198="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C198)*(工作表2!B:B=D198), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.75" customHeight="1">
@@ -5583,7 +5630,7 @@
       </c>
       <c r="E199" s="6" cm="1">
         <f t="array" ref="E199">IF(C199="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C199)*(工作表2!B:B=D199), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.75" customHeight="1">
@@ -5601,7 +5648,7 @@
       </c>
       <c r="E200" s="6" cm="1">
         <f t="array" ref="E200">IF(C200="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C200)*(工作表2!B:B=D200), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1">
@@ -5619,7 +5666,7 @@
       </c>
       <c r="E201" s="6" cm="1">
         <f t="array" ref="E201">IF(C201="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C201)*(工作表2!B:B=D201), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15.75" customHeight="1">
@@ -5637,7 +5684,7 @@
       </c>
       <c r="E202" s="6" cm="1">
         <f t="array" ref="E202">IF(C202="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C202)*(工作表2!B:B=D202), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1">
@@ -5655,7 +5702,7 @@
       </c>
       <c r="E203" s="6" cm="1">
         <f t="array" ref="E203">IF(C203="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C203)*(工作表2!B:B=D203), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15.75" customHeight="1">
@@ -5673,7 +5720,7 @@
       </c>
       <c r="E204" s="6" cm="1">
         <f t="array" ref="E204">IF(C204="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C204)*(工作表2!B:B=D204), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15.75" customHeight="1">
@@ -5691,7 +5738,7 @@
       </c>
       <c r="E205" s="6" cm="1">
         <f t="array" ref="E205">IF(C205="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C205)*(工作表2!B:B=D205), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="15.75" customHeight="1">
@@ -5709,7 +5756,7 @@
       </c>
       <c r="E206" s="6" cm="1">
         <f t="array" ref="E206">IF(C206="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C206)*(工作表2!B:B=D206), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15.75" customHeight="1">
@@ -5727,7 +5774,7 @@
       </c>
       <c r="E207" s="6" cm="1">
         <f t="array" ref="E207">IF(C207="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C207)*(工作表2!B:B=D207), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15.75" customHeight="1">
@@ -5745,7 +5792,7 @@
       </c>
       <c r="E208" s="6" cm="1">
         <f t="array" ref="E208">IF(C208="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C208)*(工作表2!B:B=D208), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15.75" customHeight="1">
@@ -5763,7 +5810,7 @@
       </c>
       <c r="E209" s="6" cm="1">
         <f t="array" ref="E209">IF(C209="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C209)*(工作表2!B:B=D209), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75" customHeight="1">
@@ -5781,7 +5828,7 @@
       </c>
       <c r="E210" s="6" cm="1">
         <f t="array" ref="E210">IF(C210="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C210)*(工作表2!B:B=D210), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15.75" customHeight="1">
@@ -5799,7 +5846,7 @@
       </c>
       <c r="E211" s="6" cm="1">
         <f t="array" ref="E211">IF(C211="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C211)*(工作表2!B:B=D211), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1">
@@ -5817,7 +5864,7 @@
       </c>
       <c r="E212" s="6" cm="1">
         <f t="array" ref="E212">IF(C212="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C212)*(工作表2!B:B=D212), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15.75" customHeight="1">
@@ -5835,7 +5882,7 @@
       </c>
       <c r="E213" s="6" cm="1">
         <f t="array" ref="E213">IF(C213="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C213)*(工作表2!B:B=D213), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15.75" customHeight="1">
@@ -5853,7 +5900,7 @@
       </c>
       <c r="E214" s="6" cm="1">
         <f t="array" ref="E214">IF(C214="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C214)*(工作表2!B:B=D214), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="15.75" customHeight="1">
@@ -5871,7 +5918,7 @@
       </c>
       <c r="E215" s="6" cm="1">
         <f t="array" ref="E215">IF(C215="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C215)*(工作表2!B:B=D215), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="15.75" customHeight="1">
@@ -5889,7 +5936,7 @@
       </c>
       <c r="E216" s="6" cm="1">
         <f t="array" ref="E216">IF(C216="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C216)*(工作表2!B:B=D216), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15.75" customHeight="1">
@@ -5907,7 +5954,7 @@
       </c>
       <c r="E217" s="6" cm="1">
         <f t="array" ref="E217">IF(C217="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C217)*(工作表2!B:B=D217), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="15.75" customHeight="1">
@@ -5925,7 +5972,7 @@
       </c>
       <c r="E218" s="6" cm="1">
         <f t="array" ref="E218">IF(C218="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C218)*(工作表2!B:B=D218), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15.75" customHeight="1">
@@ -5943,7 +5990,7 @@
       </c>
       <c r="E219" s="6" cm="1">
         <f t="array" ref="E219">IF(C219="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C219)*(工作表2!B:B=D219), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.75" customHeight="1">
@@ -5961,7 +6008,7 @@
       </c>
       <c r="E220" s="6" cm="1">
         <f t="array" ref="E220">IF(C220="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C220)*(工作表2!B:B=D220), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15.75" customHeight="1">
@@ -5979,7 +6026,7 @@
       </c>
       <c r="E221" s="6" cm="1">
         <f t="array" ref="E221">IF(C221="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C221)*(工作表2!B:B=D221), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" customHeight="1">
@@ -5997,7 +6044,7 @@
       </c>
       <c r="E222" s="6" cm="1">
         <f t="array" ref="E222">IF(C222="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C222)*(工作表2!B:B=D222), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
@@ -6015,7 +6062,7 @@
       </c>
       <c r="E223" s="6" cm="1">
         <f t="array" ref="E223">IF(C223="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C223)*(工作表2!B:B=D223), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
@@ -6033,7 +6080,7 @@
       </c>
       <c r="E224" s="6" cm="1">
         <f t="array" ref="E224">IF(C224="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C224)*(工作表2!B:B=D224), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15.75" customHeight="1">
@@ -6051,7 +6098,7 @@
       </c>
       <c r="E225" s="6" cm="1">
         <f t="array" ref="E225">IF(C225="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C225)*(工作表2!B:B=D225), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15.75" customHeight="1">
@@ -6069,7 +6116,7 @@
       </c>
       <c r="E226" s="6" cm="1">
         <f t="array" ref="E226">IF(C226="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C226)*(工作表2!B:B=D226), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15.75" customHeight="1">
@@ -6087,7 +6134,7 @@
       </c>
       <c r="E227" s="6" cm="1">
         <f t="array" ref="E227">IF(C227="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C227)*(工作表2!B:B=D227), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15.75" customHeight="1">
@@ -6105,7 +6152,7 @@
       </c>
       <c r="E228" s="6" cm="1">
         <f t="array" ref="E228">IF(C228="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C228)*(工作表2!B:B=D228), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15.75" customHeight="1">
@@ -6123,7 +6170,7 @@
       </c>
       <c r="E229" s="6" cm="1">
         <f t="array" ref="E229">IF(C229="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C229)*(工作表2!B:B=D229), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1">
@@ -6141,7 +6188,7 @@
       </c>
       <c r="E230" s="6" cm="1">
         <f t="array" ref="E230">IF(C230="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C230)*(工作表2!B:B=D230), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1">
@@ -6159,7 +6206,7 @@
       </c>
       <c r="E231" s="6" cm="1">
         <f t="array" ref="E231">IF(C231="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C231)*(工作表2!B:B=D231), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1">
@@ -6177,7 +6224,7 @@
       </c>
       <c r="E232" s="6" cm="1">
         <f t="array" ref="E232">IF(C232="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C232)*(工作表2!B:B=D232), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15.75" customHeight="1">
@@ -6195,7 +6242,7 @@
       </c>
       <c r="E233" s="6" cm="1">
         <f t="array" ref="E233">IF(C233="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C233)*(工作表2!B:B=D233), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15.75" customHeight="1">
@@ -6213,7 +6260,7 @@
       </c>
       <c r="E234" s="6" cm="1">
         <f t="array" ref="E234">IF(C234="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C234)*(工作表2!B:B=D234), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15.75" customHeight="1">
@@ -6231,7 +6278,7 @@
       </c>
       <c r="E235" s="6" cm="1">
         <f t="array" ref="E235">IF(C235="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C235)*(工作表2!B:B=D235), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="15.75" customHeight="1">
@@ -6249,7 +6296,7 @@
       </c>
       <c r="E236" s="6" cm="1">
         <f t="array" ref="E236">IF(C236="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C236)*(工作表2!B:B=D236), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="15.75" customHeight="1">
@@ -6267,7 +6314,7 @@
       </c>
       <c r="E237" s="6" cm="1">
         <f t="array" ref="E237">IF(C237="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C237)*(工作表2!B:B=D237), 0)),""))</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="15.75" customHeight="1">
@@ -6303,7 +6350,7 @@
       </c>
       <c r="E239" s="6" cm="1">
         <f t="array" ref="E239">IF(C239="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C239)*(工作表2!B:B=D239), 0)),""))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15.75" customHeight="1">
@@ -6321,7 +6368,7 @@
       </c>
       <c r="E240" s="6" cm="1">
         <f t="array" ref="E240">IF(C240="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C240)*(工作表2!B:B=D240), 0)),""))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="15.75" customHeight="1">
@@ -6339,7 +6386,7 @@
       </c>
       <c r="E241" s="6" cm="1">
         <f t="array" ref="E241">IF(C241="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C241)*(工作表2!B:B=D241), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="15.75" customHeight="1">
@@ -6357,7 +6404,7 @@
       </c>
       <c r="E242" s="6" cm="1">
         <f t="array" ref="E242">IF(C242="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C242)*(工作表2!B:B=D242), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="15.75" customHeight="1">
@@ -6375,7 +6422,7 @@
       </c>
       <c r="E243" s="6" cm="1">
         <f t="array" ref="E243">IF(C243="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C243)*(工作表2!B:B=D243), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="15.75" customHeight="1">
@@ -6393,7 +6440,7 @@
       </c>
       <c r="E244" s="6" cm="1">
         <f t="array" ref="E244">IF(C244="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C244)*(工作表2!B:B=D244), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15.75" customHeight="1">
@@ -6411,7 +6458,7 @@
       </c>
       <c r="E245" s="6" cm="1">
         <f t="array" ref="E245">IF(C245="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C245)*(工作表2!B:B=D245), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="15.75" customHeight="1">
@@ -6429,7 +6476,7 @@
       </c>
       <c r="E246" s="6" cm="1">
         <f t="array" ref="E246">IF(C246="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C246)*(工作表2!B:B=D246), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15.75" customHeight="1">
@@ -6447,7 +6494,7 @@
       </c>
       <c r="E247" s="6" cm="1">
         <f t="array" ref="E247">IF(C247="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C247)*(工作表2!B:B=D247), 0)),""))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="15.75" customHeight="1">
@@ -6465,7 +6512,7 @@
       </c>
       <c r="E248" s="6" cm="1">
         <f t="array" ref="E248">IF(C248="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C248)*(工作表2!B:B=D248), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="15.75" customHeight="1">
@@ -6483,7 +6530,7 @@
       </c>
       <c r="E249" s="6" cm="1">
         <f t="array" ref="E249">IF(C249="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C249)*(工作表2!B:B=D249), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15.75" customHeight="1">
@@ -6501,7 +6548,7 @@
       </c>
       <c r="E250" s="6" cm="1">
         <f t="array" ref="E250">IF(C250="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C250)*(工作表2!B:B=D250), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="15.75" customHeight="1">
@@ -6519,7 +6566,7 @@
       </c>
       <c r="E251" s="6" cm="1">
         <f t="array" ref="E251">IF(C251="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C251)*(工作表2!B:B=D251), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="15.75" customHeight="1">
@@ -6537,7 +6584,7 @@
       </c>
       <c r="E252" s="6" cm="1">
         <f t="array" ref="E252">IF(C252="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C252)*(工作表2!B:B=D252), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15.75" customHeight="1">
@@ -6555,7 +6602,7 @@
       </c>
       <c r="E253" s="6" cm="1">
         <f t="array" ref="E253">IF(C253="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C253)*(工作表2!B:B=D253), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15.75" customHeight="1">
@@ -6573,7 +6620,7 @@
       </c>
       <c r="E254" s="6" cm="1">
         <f t="array" ref="E254">IF(C254="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C254)*(工作表2!B:B=D254), 0)),""))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="15.75" customHeight="1">
@@ -6591,7 +6638,7 @@
       </c>
       <c r="E255" s="6" cm="1">
         <f t="array" ref="E255">IF(C255="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C255)*(工作表2!B:B=D255), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15.75" customHeight="1">
@@ -6609,7 +6656,7 @@
       </c>
       <c r="E256" s="6" cm="1">
         <f t="array" ref="E256">IF(C256="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C256)*(工作表2!B:B=D256), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15.75" customHeight="1">
@@ -6627,7 +6674,7 @@
       </c>
       <c r="E257" s="6" cm="1">
         <f t="array" ref="E257">IF(C257="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C257)*(工作表2!B:B=D257), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="15.75" customHeight="1">
@@ -6645,7 +6692,7 @@
       </c>
       <c r="E258" s="6" cm="1">
         <f t="array" ref="E258">IF(C258="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C258)*(工作表2!B:B=D258), 0)),""))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="15.75" customHeight="1">
@@ -6663,7 +6710,7 @@
       </c>
       <c r="E259" s="6" cm="1">
         <f t="array" ref="E259">IF(C259="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C259)*(工作表2!B:B=D259), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="15.75" customHeight="1">
@@ -6681,7 +6728,7 @@
       </c>
       <c r="E260" s="6" cm="1">
         <f t="array" ref="E260">IF(C260="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C260)*(工作表2!B:B=D260), 0)),""))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="15.75" customHeight="1">
@@ -6699,7 +6746,7 @@
       </c>
       <c r="E261" s="6" cm="1">
         <f t="array" ref="E261">IF(C261="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C261)*(工作表2!B:B=D261), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15.75" customHeight="1">
@@ -6717,7 +6764,7 @@
       </c>
       <c r="E262" s="6" cm="1">
         <f t="array" ref="E262">IF(C262="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C262)*(工作表2!B:B=D262), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15.75" customHeight="1">
@@ -6735,7 +6782,7 @@
       </c>
       <c r="E263" s="6" cm="1">
         <f t="array" ref="E263">IF(C263="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C263)*(工作表2!B:B=D263), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="15.75" customHeight="1">
@@ -6753,7 +6800,7 @@
       </c>
       <c r="E264" s="6" cm="1">
         <f t="array" ref="E264">IF(C264="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C264)*(工作表2!B:B=D264), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="15.75" customHeight="1">
@@ -6771,7 +6818,7 @@
       </c>
       <c r="E265" s="6" cm="1">
         <f t="array" ref="E265">IF(C265="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C265)*(工作表2!B:B=D265), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15.75" customHeight="1">
@@ -6789,7 +6836,7 @@
       </c>
       <c r="E266" s="6" cm="1">
         <f t="array" ref="E266">IF(C266="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C266)*(工作表2!B:B=D266), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="15.75" customHeight="1">
@@ -6807,7 +6854,7 @@
       </c>
       <c r="E267" s="6" cm="1">
         <f t="array" ref="E267">IF(C267="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C267)*(工作表2!B:B=D267), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15.75" customHeight="1">
@@ -6825,7 +6872,7 @@
       </c>
       <c r="E268" s="6" cm="1">
         <f t="array" ref="E268">IF(C268="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C268)*(工作表2!B:B=D268), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="15.75" customHeight="1">
@@ -6843,7 +6890,7 @@
       </c>
       <c r="E269" s="6" cm="1">
         <f t="array" ref="E269">IF(C269="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C269)*(工作表2!B:B=D269), 0)),""))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="15.75" customHeight="1">
@@ -6861,7 +6908,7 @@
       </c>
       <c r="E270" s="6" cm="1">
         <f t="array" ref="E270">IF(C270="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C270)*(工作表2!B:B=D270), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="15.75" customHeight="1">
@@ -6879,7 +6926,7 @@
       </c>
       <c r="E271" s="6" cm="1">
         <f t="array" ref="E271">IF(C271="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C271)*(工作表2!B:B=D271), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15.75" customHeight="1">
@@ -6897,7 +6944,7 @@
       </c>
       <c r="E272" s="6" cm="1">
         <f t="array" ref="E272">IF(C272="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C272)*(工作表2!B:B=D272), 0)),""))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="15.75" customHeight="1">
@@ -6915,7 +6962,7 @@
       </c>
       <c r="E273" s="6" cm="1">
         <f t="array" ref="E273">IF(C273="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C273)*(工作表2!B:B=D273), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="15.75" customHeight="1">
@@ -6933,7 +6980,7 @@
       </c>
       <c r="E274" s="6" cm="1">
         <f t="array" ref="E274">IF(C274="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C274)*(工作表2!B:B=D274), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="15.75" customHeight="1">
@@ -6951,7 +6998,7 @@
       </c>
       <c r="E275" s="6" cm="1">
         <f t="array" ref="E275">IF(C275="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C275)*(工作表2!B:B=D275), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="15.75" customHeight="1">
@@ -6969,7 +7016,7 @@
       </c>
       <c r="E276" s="6" cm="1">
         <f t="array" ref="E276">IF(C276="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C276)*(工作表2!B:B=D276), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" customHeight="1">
@@ -6987,7 +7034,7 @@
       </c>
       <c r="E277" s="6" cm="1">
         <f t="array" ref="E277">IF(C277="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C277)*(工作表2!B:B=D277), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="15.75" customHeight="1">
@@ -7005,7 +7052,7 @@
       </c>
       <c r="E278" s="6" cm="1">
         <f t="array" ref="E278">IF(C278="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C278)*(工作表2!B:B=D278), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="15.75" customHeight="1">
@@ -7023,7 +7070,7 @@
       </c>
       <c r="E279" s="6" cm="1">
         <f t="array" ref="E279">IF(C279="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C279)*(工作表2!B:B=D279), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="15.75" customHeight="1">
@@ -7041,7 +7088,7 @@
       </c>
       <c r="E280" s="6" cm="1">
         <f t="array" ref="E280">IF(C280="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C280)*(工作表2!B:B=D280), 0)),""))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="15.75" customHeight="1">
@@ -7059,7 +7106,7 @@
       </c>
       <c r="E281" s="6" cm="1">
         <f t="array" ref="E281">IF(C281="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C281)*(工作表2!B:B=D281), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15.75" customHeight="1">
@@ -7077,7 +7124,7 @@
       </c>
       <c r="E282" s="6" cm="1">
         <f t="array" ref="E282">IF(C282="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C282)*(工作表2!B:B=D282), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15.75" customHeight="1">
@@ -7095,7 +7142,7 @@
       </c>
       <c r="E283" s="6" cm="1">
         <f t="array" ref="E283">IF(C283="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C283)*(工作表2!B:B=D283), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="15.75" customHeight="1">
@@ -7113,7 +7160,7 @@
       </c>
       <c r="E284" s="6" cm="1">
         <f t="array" ref="E284">IF(C284="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C284)*(工作表2!B:B=D284), 0)),""))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="15.75" customHeight="1">
@@ -7131,7 +7178,7 @@
       </c>
       <c r="E285" s="6" cm="1">
         <f t="array" ref="E285">IF(C285="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C285)*(工作表2!B:B=D285), 0)),""))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="15.75" customHeight="1">
@@ -7149,7 +7196,7 @@
       </c>
       <c r="E286" s="6" cm="1">
         <f t="array" ref="E286">IF(C286="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C286)*(工作表2!B:B=D286), 0)),""))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="15.75" customHeight="1">
@@ -7185,7 +7232,7 @@
       </c>
       <c r="E288" s="6" cm="1">
         <f t="array" ref="E288">IF(C288="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C288)*(工作表2!B:B=D288), 0)),""))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="15.75" customHeight="1">
@@ -7203,7 +7250,7 @@
       </c>
       <c r="E289" s="6" cm="1">
         <f t="array" ref="E289">IF(C289="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C289)*(工作表2!B:B=D289), 0)),""))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15.75" customHeight="1">
@@ -7221,7 +7268,7 @@
       </c>
       <c r="E290" s="6" cm="1">
         <f t="array" ref="E290">IF(C290="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C290)*(工作表2!B:B=D290), 0)),""))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15.75" customHeight="1">
@@ -7239,7 +7286,7 @@
       </c>
       <c r="E291" s="6" cm="1">
         <f t="array" ref="E291">IF(C291="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C291)*(工作表2!B:B=D291), 0)),""))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="15.75" customHeight="1">
@@ -7257,7 +7304,7 @@
       </c>
       <c r="E292" s="6" cm="1">
         <f t="array" ref="E292">IF(C292="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C292)*(工作表2!B:B=D292), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="15.75" customHeight="1">
@@ -7275,7 +7322,7 @@
       </c>
       <c r="E293" s="6" cm="1">
         <f t="array" ref="E293">IF(C293="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C293)*(工作表2!B:B=D293), 0)),""))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="15.75" customHeight="1">
@@ -7293,7 +7340,7 @@
       </c>
       <c r="E294" s="6" cm="1">
         <f t="array" ref="E294">IF(C294="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C294)*(工作表2!B:B=D294), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.75" customHeight="1">
@@ -7311,7 +7358,7 @@
       </c>
       <c r="E295" s="6" cm="1">
         <f t="array" ref="E295">IF(C295="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C295)*(工作表2!B:B=D295), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="15.75" customHeight="1">
@@ -7329,7 +7376,7 @@
       </c>
       <c r="E296" s="6" cm="1">
         <f t="array" ref="E296">IF(C296="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C296)*(工作表2!B:B=D296), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="15.75" customHeight="1">
@@ -7347,7 +7394,7 @@
       </c>
       <c r="E297" s="6" cm="1">
         <f t="array" ref="E297">IF(C297="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C297)*(工作表2!B:B=D297), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15.75" customHeight="1">
@@ -7365,7 +7412,7 @@
       </c>
       <c r="E298" s="6" cm="1">
         <f t="array" ref="E298">IF(C298="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C298)*(工作表2!B:B=D298), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15.75" customHeight="1">
@@ -7383,7 +7430,7 @@
       </c>
       <c r="E299" s="6" cm="1">
         <f t="array" ref="E299">IF(C299="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C299)*(工作表2!B:B=D299), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15.75" customHeight="1">
@@ -7401,7 +7448,7 @@
       </c>
       <c r="E300" s="6" cm="1">
         <f t="array" ref="E300">IF(C300="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C300)*(工作表2!B:B=D300), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15.75" customHeight="1">
@@ -7419,7 +7466,7 @@
       </c>
       <c r="E301" s="6" cm="1">
         <f t="array" ref="E301">IF(C301="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C301)*(工作表2!B:B=D301), 0)),""))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15.75" customHeight="1">
@@ -7437,7 +7484,7 @@
       </c>
       <c r="E302" s="6" cm="1">
         <f t="array" ref="E302">IF(C302="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C302)*(工作表2!B:B=D302), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15.75" customHeight="1">
@@ -7455,7 +7502,7 @@
       </c>
       <c r="E303" s="6" cm="1">
         <f t="array" ref="E303">IF(C303="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C303)*(工作表2!B:B=D303), 0)),""))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15.75" customHeight="1">
@@ -7473,7 +7520,7 @@
       </c>
       <c r="E304" s="6" cm="1">
         <f t="array" ref="E304">IF(C304="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C304)*(工作表2!B:B=D304), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15.75" customHeight="1">
@@ -7491,7 +7538,7 @@
       </c>
       <c r="E305" s="6" cm="1">
         <f t="array" ref="E305">IF(C305="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C305)*(工作表2!B:B=D305), 0)),""))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15.75" customHeight="1">
@@ -7509,7 +7556,7 @@
       </c>
       <c r="E306" s="6" cm="1">
         <f t="array" ref="E306">IF(C306="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C306)*(工作表2!B:B=D306), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="15.75" customHeight="1">
@@ -7527,7 +7574,7 @@
       </c>
       <c r="E307" s="6" cm="1">
         <f t="array" ref="E307">IF(C307="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C307)*(工作表2!B:B=D307), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15.75" customHeight="1">
@@ -7545,7 +7592,7 @@
       </c>
       <c r="E308" s="6" cm="1">
         <f t="array" ref="E308">IF(C308="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C308)*(工作表2!B:B=D308), 0)),""))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="15.75" customHeight="1">
@@ -7563,7 +7610,7 @@
       </c>
       <c r="E309" s="6" cm="1">
         <f t="array" ref="E309">IF(C309="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C309)*(工作表2!B:B=D309), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="15.75" customHeight="1">
@@ -7581,7 +7628,7 @@
       </c>
       <c r="E310" s="6" cm="1">
         <f t="array" ref="E310">IF(C310="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C310)*(工作表2!B:B=D310), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="15.75" customHeight="1">
@@ -7599,7 +7646,7 @@
       </c>
       <c r="E311" s="6" cm="1">
         <f t="array" ref="E311">IF(C311="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C311)*(工作表2!B:B=D311), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="15.75" customHeight="1">
@@ -7617,7 +7664,7 @@
       </c>
       <c r="E312" s="6" cm="1">
         <f t="array" ref="E312">IF(C312="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C312)*(工作表2!B:B=D312), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="15.75" customHeight="1">
@@ -7635,7 +7682,7 @@
       </c>
       <c r="E313" s="6" cm="1">
         <f t="array" ref="E313">IF(C313="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C313)*(工作表2!B:B=D313), 0)),""))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="15.75" customHeight="1">
@@ -7653,7 +7700,7 @@
       </c>
       <c r="E314" s="6" cm="1">
         <f t="array" ref="E314">IF(C314="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C314)*(工作表2!B:B=D314), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15.75" customHeight="1">
@@ -7671,7 +7718,7 @@
       </c>
       <c r="E315" s="6" cm="1">
         <f t="array" ref="E315">IF(C315="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C315)*(工作表2!B:B=D315), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15.75" customHeight="1">
@@ -7689,7 +7736,7 @@
       </c>
       <c r="E316" s="6" cm="1">
         <f t="array" ref="E316">IF(C316="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C316)*(工作表2!B:B=D316), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="15.75" customHeight="1">
@@ -7707,7 +7754,7 @@
       </c>
       <c r="E317" s="6" cm="1">
         <f t="array" ref="E317">IF(C317="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C317)*(工作表2!B:B=D317), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="15.75" customHeight="1">
@@ -7725,7 +7772,7 @@
       </c>
       <c r="E318" s="6" cm="1">
         <f t="array" ref="E318">IF(C318="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C318)*(工作表2!B:B=D318), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="15.75" customHeight="1">
@@ -7743,7 +7790,7 @@
       </c>
       <c r="E319" s="6" cm="1">
         <f t="array" ref="E319">IF(C319="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C319)*(工作表2!B:B=D319), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="15.75" customHeight="1">
@@ -7761,7 +7808,7 @@
       </c>
       <c r="E320" s="6" cm="1">
         <f t="array" ref="E320">IF(C320="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C320)*(工作表2!B:B=D320), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="15.75" customHeight="1">
@@ -7779,7 +7826,7 @@
       </c>
       <c r="E321" s="6" cm="1">
         <f t="array" ref="E321">IF(C321="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C321)*(工作表2!B:B=D321), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="15.75" customHeight="1">
@@ -7797,7 +7844,7 @@
       </c>
       <c r="E322" s="6" cm="1">
         <f t="array" ref="E322">IF(C322="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C322)*(工作表2!B:B=D322), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15.75" customHeight="1">
@@ -7815,7 +7862,7 @@
       </c>
       <c r="E323" s="6" cm="1">
         <f t="array" ref="E323">IF(C323="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C323)*(工作表2!B:B=D323), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15.75" customHeight="1">
@@ -7833,7 +7880,7 @@
       </c>
       <c r="E324" s="6" cm="1">
         <f t="array" ref="E324">IF(C324="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C324)*(工作表2!B:B=D324), 0)),""))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="15.75" customHeight="1">
@@ -7851,7 +7898,7 @@
       </c>
       <c r="E325" s="6" cm="1">
         <f t="array" ref="E325">IF(C325="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C325)*(工作表2!B:B=D325), 0)),""))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15.75" customHeight="1">
@@ -7869,7 +7916,7 @@
       </c>
       <c r="E326" s="6" cm="1">
         <f t="array" ref="E326">IF(C326="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C326)*(工作表2!B:B=D326), 0)),""))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15.75" customHeight="1">
@@ -7887,7 +7934,7 @@
       </c>
       <c r="E327" s="6" cm="1">
         <f t="array" ref="E327">IF(C327="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C327)*(工作表2!B:B=D327), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.75" customHeight="1">
@@ -7905,7 +7952,7 @@
       </c>
       <c r="E328" s="6" cm="1">
         <f t="array" ref="E328">IF(C328="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C328)*(工作表2!B:B=D328), 0)),""))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="15.75" customHeight="1">
@@ -7923,7 +7970,7 @@
       </c>
       <c r="E329" s="6" cm="1">
         <f t="array" ref="E329">IF(C329="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C329)*(工作表2!B:B=D329), 0)),""))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="15.75" customHeight="1">
@@ -7941,7 +7988,7 @@
       </c>
       <c r="E330" s="6" cm="1">
         <f t="array" ref="E330">IF(C330="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C330)*(工作表2!B:B=D330), 0)),""))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="15.75" customHeight="1">
@@ -7959,7 +8006,7 @@
       </c>
       <c r="E331" s="6" cm="1">
         <f t="array" ref="E331">IF(C331="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C331)*(工作表2!B:B=D331), 0)),""))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" customHeight="1">
@@ -7977,7 +8024,7 @@
       </c>
       <c r="E332" s="6" cm="1">
         <f t="array" ref="E332">IF(C332="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C332)*(工作表2!B:B=D332), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="15.75" customHeight="1">
@@ -7995,7 +8042,7 @@
       </c>
       <c r="E333" s="6" cm="1">
         <f t="array" ref="E333">IF(C333="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C333)*(工作表2!B:B=D333), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="15.75" customHeight="1">
@@ -8013,7 +8060,7 @@
       </c>
       <c r="E334" s="6" cm="1">
         <f t="array" ref="E334">IF(C334="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C334)*(工作表2!B:B=D334), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="15.75" customHeight="1">
@@ -8031,7 +8078,7 @@
       </c>
       <c r="E335" s="6" cm="1">
         <f t="array" ref="E335">IF(C335="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C335)*(工作表2!B:B=D335), 0)),""))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="15.75" customHeight="1">
@@ -8049,7 +8096,7 @@
       </c>
       <c r="E336" s="6" cm="1">
         <f t="array" ref="E336">IF(C336="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C336)*(工作表2!B:B=D336), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="15.75" customHeight="1">
@@ -8067,7 +8114,7 @@
       </c>
       <c r="E337" s="6" cm="1">
         <f t="array" ref="E337">IF(C337="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C337)*(工作表2!B:B=D337), 0)),""))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="15.75" customHeight="1">
@@ -8085,7 +8132,7 @@
       </c>
       <c r="E338" s="6" cm="1">
         <f t="array" ref="E338">IF(C338="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C338)*(工作表2!B:B=D338), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="15.75" customHeight="1">
@@ -8103,7 +8150,7 @@
       </c>
       <c r="E339" s="6" cm="1">
         <f t="array" ref="E339">IF(C339="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C339)*(工作表2!B:B=D339), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="15.75" customHeight="1">
@@ -8121,7 +8168,7 @@
       </c>
       <c r="E340" s="6" cm="1">
         <f t="array" ref="E340">IF(C340="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C340)*(工作表2!B:B=D340), 0)),""))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="15.75" customHeight="1">
@@ -8139,7 +8186,7 @@
       </c>
       <c r="E341" s="6" cm="1">
         <f t="array" ref="E341">IF(C341="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C341)*(工作表2!B:B=D341), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="15.75" customHeight="1">
@@ -8157,7 +8204,7 @@
       </c>
       <c r="E342" s="6" cm="1">
         <f t="array" ref="E342">IF(C342="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C342)*(工作表2!B:B=D342), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="15.75" customHeight="1">
@@ -8175,7 +8222,7 @@
       </c>
       <c r="E343" s="6" cm="1">
         <f t="array" ref="E343">IF(C343="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C343)*(工作表2!B:B=D343), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="15.75" customHeight="1">
@@ -8193,7 +8240,7 @@
       </c>
       <c r="E344" s="6" cm="1">
         <f t="array" ref="E344">IF(C344="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C344)*(工作表2!B:B=D344), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="15.75" customHeight="1">
@@ -8211,7 +8258,7 @@
       </c>
       <c r="E345" s="6" cm="1">
         <f t="array" ref="E345">IF(C345="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C345)*(工作表2!B:B=D345), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="15.75" customHeight="1">
@@ -8229,7 +8276,7 @@
       </c>
       <c r="E346" s="6" cm="1">
         <f t="array" ref="E346">IF(C346="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C346)*(工作表2!B:B=D346), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="15.75" customHeight="1">
@@ -8247,7 +8294,7 @@
       </c>
       <c r="E347" s="6" cm="1">
         <f t="array" ref="E347">IF(C347="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C347)*(工作表2!B:B=D347), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="15.75" customHeight="1">
@@ -8265,7 +8312,7 @@
       </c>
       <c r="E348" s="6" cm="1">
         <f t="array" ref="E348">IF(C348="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C348)*(工作表2!B:B=D348), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="15.75" customHeight="1">
@@ -8283,7 +8330,7 @@
       </c>
       <c r="E349" s="6" cm="1">
         <f t="array" ref="E349">IF(C349="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C349)*(工作表2!B:B=D349), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="15.75" customHeight="1">
@@ -8301,7 +8348,7 @@
       </c>
       <c r="E350" s="6" cm="1">
         <f t="array" ref="E350">IF(C350="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C350)*(工作表2!B:B=D350), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="15.75" customHeight="1">
@@ -8319,7 +8366,7 @@
       </c>
       <c r="E351" s="6" cm="1">
         <f t="array" ref="E351">IF(C351="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C351)*(工作表2!B:B=D351), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="15.75" customHeight="1">
@@ -8337,7 +8384,7 @@
       </c>
       <c r="E352" s="6" cm="1">
         <f t="array" ref="E352">IF(C352="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C352)*(工作表2!B:B=D352), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="15.75" customHeight="1">
@@ -8355,7 +8402,7 @@
       </c>
       <c r="E353" s="6" cm="1">
         <f t="array" ref="E353">IF(C353="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C353)*(工作表2!B:B=D353), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="15.75" customHeight="1">
@@ -8373,7 +8420,7 @@
       </c>
       <c r="E354" s="6" cm="1">
         <f t="array" ref="E354">IF(C354="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C354)*(工作表2!B:B=D354), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="15.75" customHeight="1">
@@ -8391,7 +8438,7 @@
       </c>
       <c r="E355" s="6" cm="1">
         <f t="array" ref="E355">IF(C355="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C355)*(工作表2!B:B=D355), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="15.75" customHeight="1">
@@ -8409,7 +8456,7 @@
       </c>
       <c r="E356" s="6" cm="1">
         <f t="array" ref="E356">IF(C356="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C356)*(工作表2!B:B=D356), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="15.75" customHeight="1">
@@ -8427,7 +8474,7 @@
       </c>
       <c r="E357" s="6" cm="1">
         <f t="array" ref="E357">IF(C357="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C357)*(工作表2!B:B=D357), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="15.75" customHeight="1">
@@ -8445,7 +8492,7 @@
       </c>
       <c r="E358" s="6" cm="1">
         <f t="array" ref="E358">IF(C358="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C358)*(工作表2!B:B=D358), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="15.75" customHeight="1">
@@ -8463,7 +8510,7 @@
       </c>
       <c r="E359" s="6" cm="1">
         <f t="array" ref="E359">IF(C359="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C359)*(工作表2!B:B=D359), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="15.75" customHeight="1">
@@ -8481,7 +8528,7 @@
       </c>
       <c r="E360" s="6" cm="1">
         <f t="array" ref="E360">IF(C360="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C360)*(工作表2!B:B=D360), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="15.75" customHeight="1">
@@ -8499,7 +8546,7 @@
       </c>
       <c r="E361" s="6" cm="1">
         <f t="array" ref="E361">IF(C361="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C361)*(工作表2!B:B=D361), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="15.75" customHeight="1">
@@ -8517,7 +8564,7 @@
       </c>
       <c r="E362" s="6" cm="1">
         <f t="array" ref="E362">IF(C362="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C362)*(工作表2!B:B=D362), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="15.75" customHeight="1">
@@ -8535,7 +8582,7 @@
       </c>
       <c r="E363" s="6" cm="1">
         <f t="array" ref="E363">IF(C363="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C363)*(工作表2!B:B=D363), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="15.75" customHeight="1">
@@ -8553,7 +8600,7 @@
       </c>
       <c r="E364" s="6" cm="1">
         <f t="array" ref="E364">IF(C364="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C364)*(工作表2!B:B=D364), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="15.75" customHeight="1">
@@ -8571,7 +8618,7 @@
       </c>
       <c r="E365" s="6" cm="1">
         <f t="array" ref="E365">IF(C365="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C365)*(工作表2!B:B=D365), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="15.75" customHeight="1">
@@ -8589,7 +8636,7 @@
       </c>
       <c r="E366" s="6" cm="1">
         <f t="array" ref="E366">IF(C366="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C366)*(工作表2!B:B=D366), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="15.75" customHeight="1">
@@ -8607,7 +8654,7 @@
       </c>
       <c r="E367" s="6" cm="1">
         <f t="array" ref="E367">IF(C367="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C367)*(工作表2!B:B=D367), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="15.75" customHeight="1">
@@ -8625,7 +8672,7 @@
       </c>
       <c r="E368" s="6" cm="1">
         <f t="array" ref="E368">IF(C368="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C368)*(工作表2!B:B=D368), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="15.75" customHeight="1">
@@ -8643,7 +8690,7 @@
       </c>
       <c r="E369" s="6" cm="1">
         <f t="array" ref="E369">IF(C369="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C369)*(工作表2!B:B=D369), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="15.75" customHeight="1">
@@ -8661,7 +8708,7 @@
       </c>
       <c r="E370" s="6" cm="1">
         <f t="array" ref="E370">IF(C370="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C370)*(工作表2!B:B=D370), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="15.75" customHeight="1">
@@ -8679,7 +8726,7 @@
       </c>
       <c r="E371" s="6" cm="1">
         <f t="array" ref="E371">IF(C371="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C371)*(工作表2!B:B=D371), 0)),""))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="15.75" customHeight="1">
@@ -8697,7 +8744,7 @@
       </c>
       <c r="E372" s="6" cm="1">
         <f t="array" ref="E372">IF(C372="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C372)*(工作表2!B:B=D372), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="15.75" customHeight="1">
@@ -8715,7 +8762,7 @@
       </c>
       <c r="E373" s="6" cm="1">
         <f t="array" ref="E373">IF(C373="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C373)*(工作表2!B:B=D373), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="15.75" customHeight="1">
@@ -8733,7 +8780,7 @@
       </c>
       <c r="E374" s="6" cm="1">
         <f t="array" ref="E374">IF(C374="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C374)*(工作表2!B:B=D374), 0)),""))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="15.75" customHeight="1">
@@ -8769,7 +8816,7 @@
       </c>
       <c r="E376" s="6" cm="1">
         <f t="array" ref="E376">IF(C376="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C376)*(工作表2!B:B=D376), 0)),""))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="15.75" customHeight="1">
@@ -8787,7 +8834,7 @@
       </c>
       <c r="E377" s="6" cm="1">
         <f t="array" ref="E377">IF(C377="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C377)*(工作表2!B:B=D377), 0)),""))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="15.75" customHeight="1">
@@ -8805,7 +8852,7 @@
       </c>
       <c r="E378" s="6" cm="1">
         <f t="array" ref="E378">IF(C378="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C378)*(工作表2!B:B=D378), 0)),""))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="15.75" customHeight="1">
@@ -8823,7 +8870,7 @@
       </c>
       <c r="E379" s="6" cm="1">
         <f t="array" ref="E379">IF(C379="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C379)*(工作表2!B:B=D379), 0)),""))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="15.75" customHeight="1">
@@ -8841,7 +8888,7 @@
       </c>
       <c r="E380" s="6" cm="1">
         <f t="array" ref="E380">IF(C380="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C380)*(工作表2!B:B=D380), 0)),""))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="15.75" customHeight="1">
@@ -8859,7 +8906,7 @@
       </c>
       <c r="E381" s="6" cm="1">
         <f t="array" ref="E381">IF(C381="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C381)*(工作表2!B:B=D381), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="15.75" customHeight="1">
@@ -8877,7 +8924,7 @@
       </c>
       <c r="E382" s="6" cm="1">
         <f t="array" ref="E382">IF(C382="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C382)*(工作表2!B:B=D382), 0)),""))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="15.75" customHeight="1">
@@ -8895,7 +8942,7 @@
       </c>
       <c r="E383" s="6" cm="1">
         <f t="array" ref="E383">IF(C383="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C383)*(工作表2!B:B=D383), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="15.75" customHeight="1">
@@ -8913,7 +8960,7 @@
       </c>
       <c r="E384" s="6" cm="1">
         <f t="array" ref="E384">IF(C384="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C384)*(工作表2!B:B=D384), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="15.75" customHeight="1">
@@ -8931,7 +8978,7 @@
       </c>
       <c r="E385" s="6" cm="1">
         <f t="array" ref="E385">IF(C385="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C385)*(工作表2!B:B=D385), 0)),""))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="15.75" customHeight="1">
@@ -8949,7 +8996,7 @@
       </c>
       <c r="E386" s="6" cm="1">
         <f t="array" ref="E386">IF(C386="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C386)*(工作表2!B:B=D386), 0)),""))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" customHeight="1">
@@ -8967,7 +9014,7 @@
       </c>
       <c r="E387" s="6" cm="1">
         <f t="array" ref="E387">IF(C387="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C387)*(工作表2!B:B=D387), 0)),""))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="15.75" customHeight="1">
@@ -8985,7 +9032,7 @@
       </c>
       <c r="E388" s="6" cm="1">
         <f t="array" ref="E388">IF(C388="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C388)*(工作表2!B:B=D388), 0)),""))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="15.75" customHeight="1">
@@ -9003,7 +9050,7 @@
       </c>
       <c r="E389" s="6" cm="1">
         <f t="array" ref="E389">IF(C389="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C389)*(工作表2!B:B=D389), 0)),""))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="15.75" customHeight="1">
@@ -9021,7 +9068,7 @@
       </c>
       <c r="E390" s="6" cm="1">
         <f t="array" ref="E390">IF(C390="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C390)*(工作表2!B:B=D390), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="15.75" customHeight="1">
@@ -9039,7 +9086,7 @@
       </c>
       <c r="E391" s="6" cm="1">
         <f t="array" ref="E391">IF(C391="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C391)*(工作表2!B:B=D391), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="15.75" customHeight="1">
@@ -9057,7 +9104,7 @@
       </c>
       <c r="E392" s="6" cm="1">
         <f t="array" ref="E392">IF(C392="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C392)*(工作表2!B:B=D392), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="15.75" customHeight="1">
@@ -9075,7 +9122,7 @@
       </c>
       <c r="E393" s="6" cm="1">
         <f t="array" ref="E393">IF(C393="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C393)*(工作表2!B:B=D393), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="15.75" customHeight="1">
@@ -9093,7 +9140,7 @@
       </c>
       <c r="E394" s="6" cm="1">
         <f t="array" ref="E394">IF(C394="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C394)*(工作表2!B:B=D394), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="15.75" customHeight="1">
@@ -9111,7 +9158,7 @@
       </c>
       <c r="E395" s="6" cm="1">
         <f t="array" ref="E395">IF(C395="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C395)*(工作表2!B:B=D395), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="15.75" customHeight="1">
@@ -9129,7 +9176,7 @@
       </c>
       <c r="E396" s="6" cm="1">
         <f t="array" ref="E396">IF(C396="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C396)*(工作表2!B:B=D396), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="15.75" customHeight="1">
@@ -9147,7 +9194,7 @@
       </c>
       <c r="E397" s="6" cm="1">
         <f t="array" ref="E397">IF(C397="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C397)*(工作表2!B:B=D397), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="15.75" customHeight="1">
@@ -9165,7 +9212,7 @@
       </c>
       <c r="E398" s="6" cm="1">
         <f t="array" ref="E398">IF(C398="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C398)*(工作表2!B:B=D398), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="15.75" customHeight="1">
@@ -9183,7 +9230,7 @@
       </c>
       <c r="E399" s="6" cm="1">
         <f t="array" ref="E399">IF(C399="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C399)*(工作表2!B:B=D399), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="15.75" customHeight="1">
@@ -9201,7 +9248,7 @@
       </c>
       <c r="E400" s="6" cm="1">
         <f t="array" ref="E400">IF(C400="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C400)*(工作表2!B:B=D400), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="15.75" customHeight="1">
@@ -9237,7 +9284,7 @@
       </c>
       <c r="E402" s="6" cm="1">
         <f t="array" ref="E402">IF(C402="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C402)*(工作表2!B:B=D402), 0)),""))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="15.75" customHeight="1">
@@ -9255,7 +9302,7 @@
       </c>
       <c r="E403" s="6" cm="1">
         <f t="array" ref="E403">IF(C403="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C403)*(工作表2!B:B=D403), 0)),""))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:5" ht="15.75" customHeight="1">
@@ -9273,7 +9320,7 @@
       </c>
       <c r="E404" s="6" cm="1">
         <f t="array" ref="E404">IF(C404="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C404)*(工作表2!B:B=D404), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="15.75" customHeight="1">
@@ -9291,7 +9338,7 @@
       </c>
       <c r="E405" s="6" cm="1">
         <f t="array" ref="E405">IF(C405="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C405)*(工作表2!B:B=D405), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="15.75" customHeight="1">
@@ -9309,7 +9356,7 @@
       </c>
       <c r="E406" s="6" cm="1">
         <f t="array" ref="E406">IF(C406="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C406)*(工作表2!B:B=D406), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="15.75" customHeight="1">
@@ -9327,7 +9374,7 @@
       </c>
       <c r="E407" s="6" cm="1">
         <f t="array" ref="E407">IF(C407="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C407)*(工作表2!B:B=D407), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="408" spans="1:5" ht="15.75" customHeight="1">
@@ -9345,7 +9392,7 @@
       </c>
       <c r="E408" s="6" cm="1">
         <f t="array" ref="E408">IF(C408="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C408)*(工作表2!B:B=D408), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="15.75" customHeight="1">
@@ -9363,7 +9410,7 @@
       </c>
       <c r="E409" s="6" cm="1">
         <f t="array" ref="E409">IF(C409="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C409)*(工作表2!B:B=D409), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="15.75" customHeight="1">
@@ -9381,7 +9428,7 @@
       </c>
       <c r="E410" s="6" cm="1">
         <f t="array" ref="E410">IF(C410="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C410)*(工作表2!B:B=D410), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="15.75" customHeight="1">
@@ -9399,7 +9446,7 @@
       </c>
       <c r="E411" s="6" cm="1">
         <f t="array" ref="E411">IF(C411="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C411)*(工作表2!B:B=D411), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="15.75" customHeight="1">
@@ -9417,7 +9464,7 @@
       </c>
       <c r="E412" s="6" cm="1">
         <f t="array" ref="E412">IF(C412="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C412)*(工作表2!B:B=D412), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="413" spans="1:5" ht="15.75" customHeight="1">
@@ -9435,7 +9482,7 @@
       </c>
       <c r="E413" s="6" cm="1">
         <f t="array" ref="E413">IF(C413="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C413)*(工作表2!B:B=D413), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="414" spans="1:5" ht="15.75" customHeight="1">
@@ -9453,7 +9500,7 @@
       </c>
       <c r="E414" s="6" cm="1">
         <f t="array" ref="E414">IF(C414="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C414)*(工作表2!B:B=D414), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="415" spans="1:5" ht="15.75" customHeight="1">
@@ -9471,7 +9518,7 @@
       </c>
       <c r="E415" s="6" cm="1">
         <f t="array" ref="E415">IF(C415="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C415)*(工作表2!B:B=D415), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="416" spans="1:5" ht="15.75" customHeight="1">
@@ -9489,7 +9536,7 @@
       </c>
       <c r="E416" s="6" cm="1">
         <f t="array" ref="E416">IF(C416="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C416)*(工作表2!B:B=D416), 0)),""))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="15.75" customHeight="1">
@@ -9507,19 +9554,43 @@
       </c>
       <c r="E417" s="6" cm="1">
         <f t="array" ref="E417">IF(C417="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C417)*(工作表2!B:B=D417), 0)),""))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E418" s="6" t="str" cm="1">
+      <c r="A418" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E418" s="6" cm="1">
         <f t="array" ref="E418">IF(C418="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C418)*(工作表2!B:B=D418), 0)),""))</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E419" s="6" t="str" cm="1">
+      <c r="A419" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E419" s="6" cm="1">
         <f t="array" ref="E419">IF(C419="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C419)*(工作表2!B:B=D419), 0)),""))</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="15.75" customHeight="1">
@@ -15086,10 +15157,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8C8A2-9E36-4713-9962-51737FEB24B2}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView topLeftCell="A67" zoomScale="135" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+      <selection activeCell="C75" sqref="C75:C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -15937,8 +16008,8 @@
       <c r="A77" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>296</v>
+      <c r="B77" s="17" t="s">
+        <v>480</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -15948,8 +16019,8 @@
       <c r="A78" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B78" t="s">
-        <v>38</v>
+      <c r="B78" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -15960,7 +16031,7 @@
         <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C79">
         <v>7</v>
@@ -15971,7 +16042,7 @@
         <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -15981,8 +16052,8 @@
       <c r="A81" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>100</v>
+      <c r="B81" t="s">
+        <v>40</v>
       </c>
       <c r="C81">
         <v>9</v>
@@ -15992,8 +16063,8 @@
       <c r="A82" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B82" t="s">
-        <v>13</v>
+      <c r="B82" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C82">
         <v>10</v>
@@ -16003,8 +16074,8 @@
       <c r="A83" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="17" t="s">
-        <v>386</v>
+      <c r="B83" t="s">
+        <v>13</v>
       </c>
       <c r="C83">
         <v>11</v>
@@ -16014,8 +16085,8 @@
       <c r="A84" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B84" t="s">
-        <v>41</v>
+      <c r="B84" s="17" t="s">
+        <v>386</v>
       </c>
       <c r="C84">
         <v>12</v>
@@ -16026,7 +16097,7 @@
         <v>48</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C85">
         <v>13</v>
@@ -16036,8 +16107,8 @@
       <c r="A86" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B86" s="17" t="s">
-        <v>387</v>
+      <c r="B86" t="s">
+        <v>42</v>
       </c>
       <c r="C86">
         <v>14</v>
@@ -16047,8 +16118,8 @@
       <c r="A87" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B87" t="s">
-        <v>43</v>
+      <c r="B87" s="17" t="s">
+        <v>387</v>
       </c>
       <c r="C87">
         <v>15</v>
@@ -16059,7 +16130,7 @@
         <v>48</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C88">
         <v>16</v>
@@ -16069,8 +16140,8 @@
       <c r="A89" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B89" s="12" t="s">
-        <v>389</v>
+      <c r="B89" t="s">
+        <v>44</v>
       </c>
       <c r="C89">
         <v>17</v>
@@ -16080,30 +16151,30 @@
       <c r="A90" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B90" t="s">
-        <v>45</v>
+      <c r="B90" s="12" t="s">
+        <v>389</v>
       </c>
       <c r="C90">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="3" customFormat="1" ht="13">
+    <row r="91" spans="1:3" ht="13">
       <c r="A91" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>80</v>
+      <c r="B91" t="s">
+        <v>45</v>
       </c>
       <c r="C91">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="13">
+    <row r="92" spans="1:3" s="3" customFormat="1" ht="13">
       <c r="A92" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>46</v>
+      <c r="B92" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C92">
         <v>20</v>
@@ -16113,8 +16184,8 @@
       <c r="A93" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>75</v>
+      <c r="B93" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C93">
         <v>21</v>
@@ -16125,7 +16196,7 @@
         <v>48</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C94">
         <v>22</v>
@@ -16136,7 +16207,7 @@
         <v>48</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C95">
         <v>23</v>
@@ -16146,8 +16217,8 @@
       <c r="A96" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B96" s="16" t="s">
-        <v>229</v>
+      <c r="B96" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="C96">
         <v>24</v>
@@ -16158,10 +16229,21 @@
         <v>48</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C97">
         <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="13">
+      <c r="A98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C98">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/訓練資料集(上衣).xlsx
+++ b/訓練資料集(上衣).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Embedding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B251489-6FD5-4FC2-AD69-98A63124E59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48240A89-AA7B-4815-A52E-E00098E3D8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="485">
   <si>
     <t>URL</t>
   </si>
@@ -755,14 +755,6 @@
     <t>https://tpimage.91app.com/adidas/JY3022_OK/1-Main/All/JY3022_06.jpg</t>
   </si>
   <si>
-    <t>夜光正面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜光細節</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://tpimage.91app.com/adidas/IV5412_OK/1-Main/All/IV5412_01.jpg</t>
   </si>
   <si>
@@ -1231,52 +1223,6 @@
   </si>
   <si>
     <t>https://tpimage.91app.com/adidas/IX6565_OK/1-Main/All/IX6565_05.jpg</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>男女模特半身背面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>大圖</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>男女模特全身背面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>大圖</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模特背面大圖</t>
@@ -1596,46 +1542,40 @@
     <t>https://tpimage.91app.com/adidas/GS1348_OK/1-Main/All/GS1348_02.jpg</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>情境半身模特</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>側</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>面</t>
-    </r>
+    <t>情境半身模特側面</t>
+  </si>
+  <si>
+    <t>情境半模特背面</t>
+  </si>
+  <si>
+    <t>白背平拍正面</t>
+  </si>
+  <si>
+    <t>白背平拍背面</t>
+  </si>
+  <si>
+    <t>包包</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>情境半身模特側面</t>
+    <t>正面</t>
+  </si>
+  <si>
+    <t>背面</t>
+  </si>
+  <si>
+    <t>內部照</t>
+  </si>
+  <si>
+    <t>細節</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1721,20 +1661,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
     </font>
@@ -1775,7 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1814,8 +1740,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2037,7 +1962,7 @@
   </sheetPr>
   <dimension ref="A1:E1343"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A392" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K413" sqref="K413"/>
     </sheetView>
@@ -2152,11 +2077,11 @@
         <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E6" s="6" cm="1">
+        <v>294</v>
+      </c>
+      <c r="E6" s="6" t="str" cm="1">
         <f t="array" ref="E6">IF(C6="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C6)*(工作表2!B:B=D6), 0)),""))</f>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -2174,7 +2099,7 @@
       </c>
       <c r="E7" s="6" cm="1">
         <f t="array" ref="E7">IF(C7="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C7)*(工作表2!B:B=D7), 0)),""))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
@@ -2192,7 +2117,7 @@
       </c>
       <c r="E8" s="6" cm="1">
         <f t="array" ref="E8">IF(C8="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C8)*(工作表2!B:B=D8), 0)),""))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
@@ -2210,7 +2135,7 @@
       </c>
       <c r="E9" s="6" cm="1">
         <f t="array" ref="E9">IF(C9="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C9)*(工作表2!B:B=D9), 0)),""))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
@@ -2246,7 +2171,7 @@
       </c>
       <c r="E11" s="6" cm="1">
         <f t="array" ref="E11">IF(C11="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C11)*(工作表2!B:B=D11), 0)),""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
@@ -2264,7 +2189,7 @@
       </c>
       <c r="E12" s="6" cm="1">
         <f t="array" ref="E12">IF(C12="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C12)*(工作表2!B:B=D12), 0)),""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
@@ -2282,7 +2207,7 @@
       </c>
       <c r="E13" s="6" cm="1">
         <f t="array" ref="E13">IF(C13="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C13)*(工作表2!B:B=D13), 0)),""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
@@ -2300,7 +2225,7 @@
       </c>
       <c r="E14" s="6" cm="1">
         <f t="array" ref="E14">IF(C14="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C14)*(工作表2!B:B=D14), 0)),""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
@@ -2318,7 +2243,7 @@
       </c>
       <c r="E15" s="6" cm="1">
         <f t="array" ref="E15">IF(C15="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C15)*(工作表2!B:B=D15), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
@@ -2336,7 +2261,7 @@
       </c>
       <c r="E16" s="6" cm="1">
         <f t="array" ref="E16">IF(C16="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C16)*(工作表2!B:B=D16), 0)),""))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
@@ -2354,7 +2279,7 @@
       </c>
       <c r="E17" s="6" cm="1">
         <f t="array" ref="E17">IF(C17="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C17)*(工作表2!B:B=D17), 0)),""))</f>
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
@@ -2372,7 +2297,7 @@
       </c>
       <c r="E18" s="6" cm="1">
         <f t="array" ref="E18">IF(C18="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C18)*(工作表2!B:B=D18), 0)),""))</f>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
@@ -2390,7 +2315,7 @@
       </c>
       <c r="E19" s="6" cm="1">
         <f t="array" ref="E19">IF(C19="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C19)*(工作表2!B:B=D19), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
@@ -2408,7 +2333,7 @@
       </c>
       <c r="E20" s="6" cm="1">
         <f t="array" ref="E20">IF(C20="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C20)*(工作表2!B:B=D20), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
@@ -2426,7 +2351,7 @@
       </c>
       <c r="E21" s="6" cm="1">
         <f t="array" ref="E21">IF(C21="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C21)*(工作表2!B:B=D21), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
@@ -2442,9 +2367,9 @@
       <c r="D22" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="6" cm="1">
+      <c r="E22" s="6" t="str" cm="1">
         <f t="array" ref="E22">IF(C22="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C22)*(工作表2!B:B=D22), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
@@ -2460,9 +2385,9 @@
       <c r="D23" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="6" cm="1">
+      <c r="E23" s="6" t="str" cm="1">
         <f t="array" ref="E23">IF(C23="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C23)*(工作表2!B:B=D23), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
@@ -2480,7 +2405,7 @@
       </c>
       <c r="E24" s="6" cm="1">
         <f t="array" ref="E24">IF(C24="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C24)*(工作表2!B:B=D24), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
@@ -2498,7 +2423,7 @@
       </c>
       <c r="E25" s="6" cm="1">
         <f t="array" ref="E25">IF(C25="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C25)*(工作表2!B:B=D25), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
@@ -2516,7 +2441,7 @@
       </c>
       <c r="E26" s="6" cm="1">
         <f t="array" ref="E26">IF(C26="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C26)*(工作表2!B:B=D26), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
@@ -2532,9 +2457,9 @@
       <c r="D27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="6" cm="1">
+      <c r="E27" s="6" t="str" cm="1">
         <f t="array" ref="E27">IF(C27="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C27)*(工作表2!B:B=D27), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
@@ -2552,7 +2477,7 @@
       </c>
       <c r="E28" s="6" cm="1">
         <f t="array" ref="E28">IF(C28="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C28)*(工作表2!B:B=D28), 0)),""))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
@@ -2570,7 +2495,7 @@
       </c>
       <c r="E29" s="6" cm="1">
         <f t="array" ref="E29">IF(C29="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C29)*(工作表2!B:B=D29), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
@@ -2586,9 +2511,9 @@
       <c r="D30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="6" cm="1">
+      <c r="E30" s="6" t="str" cm="1">
         <f t="array" ref="E30">IF(C30="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C30)*(工作表2!B:B=D30), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
@@ -2606,7 +2531,7 @@
       </c>
       <c r="E31" s="6" cm="1">
         <f t="array" ref="E31">IF(C31="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C31)*(工作表2!B:B=D31), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
@@ -2624,7 +2549,7 @@
       </c>
       <c r="E32" s="6" cm="1">
         <f t="array" ref="E32">IF(C32="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C32)*(工作表2!B:B=D32), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
@@ -2642,7 +2567,7 @@
       </c>
       <c r="E33" s="6" cm="1">
         <f t="array" ref="E33">IF(C33="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C33)*(工作表2!B:B=D33), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1">
@@ -2658,9 +2583,9 @@
       <c r="D34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="6" cm="1">
+      <c r="E34" s="6" t="str" cm="1">
         <f t="array" ref="E34">IF(C34="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C34)*(工作表2!B:B=D34), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
@@ -2678,7 +2603,7 @@
       </c>
       <c r="E35" s="6" cm="1">
         <f t="array" ref="E35">IF(C35="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C35)*(工作表2!B:B=D35), 0)),""))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
@@ -2696,7 +2621,7 @@
       </c>
       <c r="E36" s="6" cm="1">
         <f t="array" ref="E36">IF(C36="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C36)*(工作表2!B:B=D36), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
@@ -2712,9 +2637,9 @@
       <c r="D37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="6" cm="1">
+      <c r="E37" s="6" t="str" cm="1">
         <f t="array" ref="E37">IF(C37="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C37)*(工作表2!B:B=D37), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
@@ -2732,7 +2657,7 @@
       </c>
       <c r="E38" s="6" cm="1">
         <f t="array" ref="E38">IF(C38="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C38)*(工作表2!B:B=D38), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1">
@@ -2750,7 +2675,7 @@
       </c>
       <c r="E39" s="6" cm="1">
         <f t="array" ref="E39">IF(C39="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C39)*(工作表2!B:B=D39), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
@@ -2768,7 +2693,7 @@
       </c>
       <c r="E40" s="6" cm="1">
         <f t="array" ref="E40">IF(C40="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C40)*(工作表2!B:B=D40), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
@@ -2784,9 +2709,9 @@
       <c r="D41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="6" cm="1">
+      <c r="E41" s="6" t="str" cm="1">
         <f t="array" ref="E41">IF(C41="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C41)*(工作表2!B:B=D41), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
@@ -2804,7 +2729,7 @@
       </c>
       <c r="E42" s="6" cm="1">
         <f t="array" ref="E42">IF(C42="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C42)*(工作表2!B:B=D42), 0)),""))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
@@ -2822,7 +2747,7 @@
       </c>
       <c r="E43" s="6" cm="1">
         <f t="array" ref="E43">IF(C43="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C43)*(工作表2!B:B=D43), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
@@ -2838,9 +2763,9 @@
       <c r="D44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="6" cm="1">
+      <c r="E44" s="6" t="str" cm="1">
         <f t="array" ref="E44">IF(C44="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C44)*(工作表2!B:B=D44), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
@@ -2858,7 +2783,7 @@
       </c>
       <c r="E45" s="6" cm="1">
         <f t="array" ref="E45">IF(C45="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C45)*(工作表2!B:B=D45), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
@@ -2876,7 +2801,7 @@
       </c>
       <c r="E46" s="6" cm="1">
         <f t="array" ref="E46">IF(C46="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C46)*(工作表2!B:B=D46), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
@@ -2892,9 +2817,9 @@
       <c r="D47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="6" cm="1">
+      <c r="E47" s="6" t="str" cm="1">
         <f t="array" ref="E47">IF(C47="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C47)*(工作表2!B:B=D47), 0)),""))</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
@@ -2910,9 +2835,9 @@
       <c r="D48" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="6" cm="1">
+      <c r="E48" s="6" t="str" cm="1">
         <f t="array" ref="E48">IF(C48="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C48)*(工作表2!B:B=D48), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
@@ -2928,9 +2853,9 @@
       <c r="D49" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="6" cm="1">
+      <c r="E49" s="6" t="str" cm="1">
         <f t="array" ref="E49">IF(C49="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C49)*(工作表2!B:B=D49), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
@@ -2948,7 +2873,7 @@
       </c>
       <c r="E50" s="6" cm="1">
         <f t="array" ref="E50">IF(C50="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C50)*(工作表2!B:B=D50), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
@@ -2964,9 +2889,9 @@
       <c r="D51" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E51" s="6" cm="1">
+      <c r="E51" s="6" t="str" cm="1">
         <f t="array" ref="E51">IF(C51="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C51)*(工作表2!B:B=D51), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
@@ -2984,7 +2909,7 @@
       </c>
       <c r="E52" s="6" cm="1">
         <f t="array" ref="E52">IF(C52="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C52)*(工作表2!B:B=D52), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
@@ -3000,9 +2925,9 @@
       <c r="D53" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="6" cm="1">
+      <c r="E53" s="6" t="str" cm="1">
         <f t="array" ref="E53">IF(C53="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C53)*(工作表2!B:B=D53), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
@@ -3020,7 +2945,7 @@
       </c>
       <c r="E54" s="6" cm="1">
         <f t="array" ref="E54">IF(C54="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C54)*(工作表2!B:B=D54), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
@@ -3038,7 +2963,7 @@
       </c>
       <c r="E55" s="6" cm="1">
         <f t="array" ref="E55">IF(C55="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C55)*(工作表2!B:B=D55), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
@@ -3056,7 +2981,7 @@
       </c>
       <c r="E56" s="6" cm="1">
         <f t="array" ref="E56">IF(C56="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C56)*(工作表2!B:B=D56), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1">
@@ -3072,9 +2997,9 @@
       <c r="D57" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E57" s="6" cm="1">
+      <c r="E57" s="6" t="str" cm="1">
         <f t="array" ref="E57">IF(C57="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C57)*(工作表2!B:B=D57), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1">
@@ -3092,7 +3017,7 @@
       </c>
       <c r="E58" s="6" cm="1">
         <f t="array" ref="E58">IF(C58="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C58)*(工作表2!B:B=D58), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
@@ -3108,9 +3033,9 @@
       <c r="D59" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="6" cm="1">
+      <c r="E59" s="6" t="str" cm="1">
         <f t="array" ref="E59">IF(C59="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C59)*(工作表2!B:B=D59), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1">
@@ -3128,7 +3053,7 @@
       </c>
       <c r="E60" s="6" cm="1">
         <f t="array" ref="E60">IF(C60="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C60)*(工作表2!B:B=D60), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
@@ -3146,7 +3071,7 @@
       </c>
       <c r="E61" s="6" cm="1">
         <f t="array" ref="E61">IF(C61="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C61)*(工作表2!B:B=D61), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
@@ -3164,7 +3089,7 @@
       </c>
       <c r="E62" s="6" cm="1">
         <f t="array" ref="E62">IF(C62="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C62)*(工作表2!B:B=D62), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
@@ -3180,9 +3105,9 @@
       <c r="D63" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="6" cm="1">
+      <c r="E63" s="6" t="str" cm="1">
         <f t="array" ref="E63">IF(C63="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C63)*(工作表2!B:B=D63), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1">
@@ -3200,7 +3125,7 @@
       </c>
       <c r="E64" s="6" cm="1">
         <f t="array" ref="E64">IF(C64="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C64)*(工作表2!B:B=D64), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1">
@@ -3216,9 +3141,9 @@
       <c r="D65" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="6" cm="1">
+      <c r="E65" s="6" t="str" cm="1">
         <f t="array" ref="E65">IF(C65="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C65)*(工作表2!B:B=D65), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1">
@@ -3236,7 +3161,7 @@
       </c>
       <c r="E66" s="6" cm="1">
         <f t="array" ref="E66">IF(C66="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C66)*(工作表2!B:B=D66), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1">
@@ -3254,7 +3179,7 @@
       </c>
       <c r="E67" s="6" cm="1">
         <f t="array" ref="E67">IF(C67="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C67)*(工作表2!B:B=D67), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1">
@@ -3270,9 +3195,9 @@
       <c r="D68" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E68" s="6" cm="1">
+      <c r="E68" s="6" t="str" cm="1">
         <f t="array" ref="E68">IF(C68="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C68)*(工作表2!B:B=D68), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1">
@@ -3290,7 +3215,7 @@
       </c>
       <c r="E69" s="6" cm="1">
         <f t="array" ref="E69">IF(C69="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C69)*(工作表2!B:B=D69), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1">
@@ -3306,9 +3231,9 @@
       <c r="D70" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E70" s="6" cm="1">
+      <c r="E70" s="6" t="str" cm="1">
         <f t="array" ref="E70">IF(C70="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C70)*(工作表2!B:B=D70), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1">
@@ -3326,7 +3251,7 @@
       </c>
       <c r="E71" s="6" cm="1">
         <f t="array" ref="E71">IF(C71="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C71)*(工作表2!B:B=D71), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1">
@@ -3344,7 +3269,7 @@
       </c>
       <c r="E72" s="6" cm="1">
         <f t="array" ref="E72">IF(C72="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C72)*(工作表2!B:B=D72), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1">
@@ -3362,7 +3287,7 @@
       </c>
       <c r="E73" s="6" cm="1">
         <f t="array" ref="E73">IF(C73="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C73)*(工作表2!B:B=D73), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1">
@@ -3378,9 +3303,9 @@
       <c r="D74" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E74" s="6" cm="1">
+      <c r="E74" s="6" t="str" cm="1">
         <f t="array" ref="E74">IF(C74="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C74)*(工作表2!B:B=D74), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1">
@@ -3398,7 +3323,7 @@
       </c>
       <c r="E75" s="6" cm="1">
         <f t="array" ref="E75">IF(C75="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C75)*(工作表2!B:B=D75), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1">
@@ -3414,9 +3339,9 @@
       <c r="D76" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E76" s="6" cm="1">
+      <c r="E76" s="6" t="str" cm="1">
         <f t="array" ref="E76">IF(C76="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C76)*(工作表2!B:B=D76), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1">
@@ -3434,7 +3359,7 @@
       </c>
       <c r="E77" s="6" cm="1">
         <f t="array" ref="E77">IF(C77="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C77)*(工作表2!B:B=D77), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1">
@@ -3452,7 +3377,7 @@
       </c>
       <c r="E78" s="6" cm="1">
         <f t="array" ref="E78">IF(C78="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C78)*(工作表2!B:B=D78), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1">
@@ -3470,7 +3395,7 @@
       </c>
       <c r="E79" s="6" cm="1">
         <f t="array" ref="E79">IF(C79="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C79)*(工作表2!B:B=D79), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1">
@@ -3486,9 +3411,9 @@
       <c r="D80" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E80" s="6" cm="1">
+      <c r="E80" s="6" t="str" cm="1">
         <f t="array" ref="E80">IF(C80="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C80)*(工作表2!B:B=D80), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1">
@@ -3506,7 +3431,7 @@
       </c>
       <c r="E81" s="6" cm="1">
         <f t="array" ref="E81">IF(C81="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C81)*(工作表2!B:B=D81), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1">
@@ -3522,9 +3447,9 @@
       <c r="D82" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E82" s="6" cm="1">
+      <c r="E82" s="6" t="str" cm="1">
         <f t="array" ref="E82">IF(C82="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C82)*(工作表2!B:B=D82), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1">
@@ -3542,7 +3467,7 @@
       </c>
       <c r="E83" s="6" cm="1">
         <f t="array" ref="E83">IF(C83="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C83)*(工作表2!B:B=D83), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1">
@@ -3560,7 +3485,7 @@
       </c>
       <c r="E84" s="6" cm="1">
         <f t="array" ref="E84">IF(C84="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C84)*(工作表2!B:B=D84), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1">
@@ -3578,7 +3503,7 @@
       </c>
       <c r="E85" s="6" cm="1">
         <f t="array" ref="E85">IF(C85="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C85)*(工作表2!B:B=D85), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1">
@@ -3596,7 +3521,7 @@
       </c>
       <c r="E86" s="6" cm="1">
         <f t="array" ref="E86">IF(C86="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C86)*(工作表2!B:B=D86), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1">
@@ -3612,9 +3537,9 @@
       <c r="D87" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E87" s="6" cm="1">
+      <c r="E87" s="6" t="str" cm="1">
         <f t="array" ref="E87">IF(C87="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C87)*(工作表2!B:B=D87), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1">
@@ -3632,7 +3557,7 @@
       </c>
       <c r="E88" s="6" cm="1">
         <f t="array" ref="E88">IF(C88="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C88)*(工作表2!B:B=D88), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1">
@@ -3650,7 +3575,7 @@
       </c>
       <c r="E89" s="6" cm="1">
         <f t="array" ref="E89">IF(C89="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C89)*(工作表2!B:B=D89), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1">
@@ -3668,7 +3593,7 @@
       </c>
       <c r="E90" s="6" cm="1">
         <f t="array" ref="E90">IF(C90="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C90)*(工作表2!B:B=D90), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1">
@@ -3684,9 +3609,9 @@
       <c r="D91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E91" s="6" cm="1">
+      <c r="E91" s="6" t="str" cm="1">
         <f t="array" ref="E91">IF(C91="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C91)*(工作表2!B:B=D91), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1">
@@ -3704,7 +3629,7 @@
       </c>
       <c r="E92" s="6" cm="1">
         <f t="array" ref="E92">IF(C92="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C92)*(工作表2!B:B=D92), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1">
@@ -3720,9 +3645,9 @@
       <c r="D93" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E93" s="6" cm="1">
+      <c r="E93" s="6" t="str" cm="1">
         <f t="array" ref="E93">IF(C93="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C93)*(工作表2!B:B=D93), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1">
@@ -3740,7 +3665,7 @@
       </c>
       <c r="E94" s="6" cm="1">
         <f t="array" ref="E94">IF(C94="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C94)*(工作表2!B:B=D94), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1">
@@ -3758,7 +3683,7 @@
       </c>
       <c r="E95" s="6" cm="1">
         <f t="array" ref="E95">IF(C95="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C95)*(工作表2!B:B=D95), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1">
@@ -3776,7 +3701,7 @@
       </c>
       <c r="E96" s="6" cm="1">
         <f t="array" ref="E96">IF(C96="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C96)*(工作表2!B:B=D96), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1">
@@ -3792,9 +3717,9 @@
       <c r="D97" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E97" s="6" cm="1">
+      <c r="E97" s="6" t="str" cm="1">
         <f t="array" ref="E97">IF(C97="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C97)*(工作表2!B:B=D97), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1">
@@ -3812,7 +3737,7 @@
       </c>
       <c r="E98" s="6" cm="1">
         <f t="array" ref="E98">IF(C98="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C98)*(工作表2!B:B=D98), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1">
@@ -3828,9 +3753,9 @@
       <c r="D99" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E99" s="6" cm="1">
+      <c r="E99" s="6" t="str" cm="1">
         <f t="array" ref="E99">IF(C99="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C99)*(工作表2!B:B=D99), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1">
@@ -3848,7 +3773,7 @@
       </c>
       <c r="E100" s="6" cm="1">
         <f t="array" ref="E100">IF(C100="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C100)*(工作表2!B:B=D100), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1">
@@ -3866,7 +3791,7 @@
       </c>
       <c r="E101" s="6" cm="1">
         <f t="array" ref="E101">IF(C101="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C101)*(工作表2!B:B=D101), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1">
@@ -3884,7 +3809,7 @@
       </c>
       <c r="E102" s="6" cm="1">
         <f t="array" ref="E102">IF(C102="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C102)*(工作表2!B:B=D102), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1">
@@ -3900,9 +3825,9 @@
       <c r="D103" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E103" s="6" cm="1">
+      <c r="E103" s="6" t="str" cm="1">
         <f t="array" ref="E103">IF(C103="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C103)*(工作表2!B:B=D103), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1">
@@ -3920,7 +3845,7 @@
       </c>
       <c r="E104" s="6" cm="1">
         <f t="array" ref="E104">IF(C104="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C104)*(工作表2!B:B=D104), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1">
@@ -3936,9 +3861,9 @@
       <c r="D105" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E105" s="6" cm="1">
+      <c r="E105" s="6" t="str" cm="1">
         <f t="array" ref="E105">IF(C105="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C105)*(工作表2!B:B=D105), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1">
@@ -3956,7 +3881,7 @@
       </c>
       <c r="E106" s="6" cm="1">
         <f t="array" ref="E106">IF(C106="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C106)*(工作表2!B:B=D106), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1">
@@ -3974,7 +3899,7 @@
       </c>
       <c r="E107" s="6" cm="1">
         <f t="array" ref="E107">IF(C107="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C107)*(工作表2!B:B=D107), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1">
@@ -3992,7 +3917,7 @@
       </c>
       <c r="E108" s="6" cm="1">
         <f t="array" ref="E108">IF(C108="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C108)*(工作表2!B:B=D108), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1">
@@ -4008,9 +3933,9 @@
       <c r="D109" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E109" s="6" cm="1">
+      <c r="E109" s="6" t="str" cm="1">
         <f t="array" ref="E109">IF(C109="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C109)*(工作表2!B:B=D109), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1">
@@ -4028,7 +3953,7 @@
       </c>
       <c r="E110" s="6" cm="1">
         <f t="array" ref="E110">IF(C110="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C110)*(工作表2!B:B=D110), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1">
@@ -4044,9 +3969,9 @@
       <c r="D111" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E111" s="6" cm="1">
+      <c r="E111" s="6" t="str" cm="1">
         <f t="array" ref="E111">IF(C111="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C111)*(工作表2!B:B=D111), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1">
@@ -4064,7 +3989,7 @@
       </c>
       <c r="E112" s="6" cm="1">
         <f t="array" ref="E112">IF(C112="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C112)*(工作表2!B:B=D112), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1">
@@ -4082,7 +4007,7 @@
       </c>
       <c r="E113" s="6" cm="1">
         <f t="array" ref="E113">IF(C113="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C113)*(工作表2!B:B=D113), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1">
@@ -4100,7 +4025,7 @@
       </c>
       <c r="E114" s="6" cm="1">
         <f t="array" ref="E114">IF(C114="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C114)*(工作表2!B:B=D114), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1">
@@ -4116,9 +4041,9 @@
       <c r="D115" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E115" s="6" cm="1">
+      <c r="E115" s="6" t="str" cm="1">
         <f t="array" ref="E115">IF(C115="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C115)*(工作表2!B:B=D115), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1">
@@ -4136,7 +4061,7 @@
       </c>
       <c r="E116" s="6" cm="1">
         <f t="array" ref="E116">IF(C116="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C116)*(工作表2!B:B=D116), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1">
@@ -4152,9 +4077,9 @@
       <c r="D117" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E117" s="6" cm="1">
+      <c r="E117" s="6" t="str" cm="1">
         <f t="array" ref="E117">IF(C117="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C117)*(工作表2!B:B=D117), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1">
@@ -4172,7 +4097,7 @@
       </c>
       <c r="E118" s="6" cm="1">
         <f t="array" ref="E118">IF(C118="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C118)*(工作表2!B:B=D118), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1">
@@ -4190,7 +4115,7 @@
       </c>
       <c r="E119" s="6" cm="1">
         <f t="array" ref="E119">IF(C119="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C119)*(工作表2!B:B=D119), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1">
@@ -4208,7 +4133,7 @@
       </c>
       <c r="E120" s="6" cm="1">
         <f t="array" ref="E120">IF(C120="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C120)*(工作表2!B:B=D120), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1">
@@ -4224,9 +4149,9 @@
       <c r="D121" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E121" s="6" cm="1">
+      <c r="E121" s="6" t="str" cm="1">
         <f t="array" ref="E121">IF(C121="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C121)*(工作表2!B:B=D121), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1">
@@ -4244,7 +4169,7 @@
       </c>
       <c r="E122" s="6" cm="1">
         <f t="array" ref="E122">IF(C122="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C122)*(工作表2!B:B=D122), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1">
@@ -4260,9 +4185,9 @@
       <c r="D123" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E123" s="6" cm="1">
+      <c r="E123" s="6" t="str" cm="1">
         <f t="array" ref="E123">IF(C123="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C123)*(工作表2!B:B=D123), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1">
@@ -4280,7 +4205,7 @@
       </c>
       <c r="E124" s="6" cm="1">
         <f t="array" ref="E124">IF(C124="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C124)*(工作表2!B:B=D124), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1">
@@ -4298,7 +4223,7 @@
       </c>
       <c r="E125" s="6" cm="1">
         <f t="array" ref="E125">IF(C125="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C125)*(工作表2!B:B=D125), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1">
@@ -4316,7 +4241,7 @@
       </c>
       <c r="E126" s="6" cm="1">
         <f t="array" ref="E126">IF(C126="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C126)*(工作表2!B:B=D126), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1">
@@ -4332,9 +4257,9 @@
       <c r="D127" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E127" s="6" cm="1">
+      <c r="E127" s="6" t="str" cm="1">
         <f t="array" ref="E127">IF(C127="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C127)*(工作表2!B:B=D127), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1">
@@ -4352,7 +4277,7 @@
       </c>
       <c r="E128" s="6" cm="1">
         <f t="array" ref="E128">IF(C128="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C128)*(工作表2!B:B=D128), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1">
@@ -4368,9 +4293,9 @@
       <c r="D129" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E129" s="6" cm="1">
+      <c r="E129" s="6" t="str" cm="1">
         <f t="array" ref="E129">IF(C129="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C129)*(工作表2!B:B=D129), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1">
@@ -4388,7 +4313,7 @@
       </c>
       <c r="E130" s="6" cm="1">
         <f t="array" ref="E130">IF(C130="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C130)*(工作表2!B:B=D130), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1">
@@ -4406,7 +4331,7 @@
       </c>
       <c r="E131" s="6" cm="1">
         <f t="array" ref="E131">IF(C131="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C131)*(工作表2!B:B=D131), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1">
@@ -4424,7 +4349,7 @@
       </c>
       <c r="E132" s="6" cm="1">
         <f t="array" ref="E132">IF(C132="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C132)*(工作表2!B:B=D132), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.75" customHeight="1">
@@ -4440,9 +4365,9 @@
       <c r="D133" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E133" s="6" cm="1">
+      <c r="E133" s="6" t="str" cm="1">
         <f t="array" ref="E133">IF(C133="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C133)*(工作表2!B:B=D133), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1">
@@ -4460,7 +4385,7 @@
       </c>
       <c r="E134" s="6" cm="1">
         <f t="array" ref="E134">IF(C134="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C134)*(工作表2!B:B=D134), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1">
@@ -4476,9 +4401,9 @@
       <c r="D135" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E135" s="6" cm="1">
+      <c r="E135" s="6" t="str" cm="1">
         <f t="array" ref="E135">IF(C135="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C135)*(工作表2!B:B=D135), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1">
@@ -4496,7 +4421,7 @@
       </c>
       <c r="E136" s="6" cm="1">
         <f t="array" ref="E136">IF(C136="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C136)*(工作表2!B:B=D136), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1">
@@ -4514,7 +4439,7 @@
       </c>
       <c r="E137" s="6" cm="1">
         <f t="array" ref="E137">IF(C137="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C137)*(工作表2!B:B=D137), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.75" customHeight="1">
@@ -4530,9 +4455,9 @@
       <c r="D138" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E138" s="6" cm="1">
+      <c r="E138" s="6" t="str" cm="1">
         <f t="array" ref="E138">IF(C138="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C138)*(工作表2!B:B=D138), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15.75" customHeight="1">
@@ -4550,7 +4475,7 @@
       </c>
       <c r="E139" s="6" cm="1">
         <f t="array" ref="E139">IF(C139="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C139)*(工作表2!B:B=D139), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" customHeight="1">
@@ -4566,9 +4491,9 @@
       <c r="D140" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E140" s="6" cm="1">
+      <c r="E140" s="6" t="str" cm="1">
         <f t="array" ref="E140">IF(C140="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C140)*(工作表2!B:B=D140), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15.75" customHeight="1">
@@ -4586,7 +4511,7 @@
       </c>
       <c r="E141" s="6" cm="1">
         <f t="array" ref="E141">IF(C141="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C141)*(工作表2!B:B=D141), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15.75" customHeight="1">
@@ -4604,7 +4529,7 @@
       </c>
       <c r="E142" s="6" cm="1">
         <f t="array" ref="E142">IF(C142="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C142)*(工作表2!B:B=D142), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15.75" customHeight="1">
@@ -4622,7 +4547,7 @@
       </c>
       <c r="E143" s="6" cm="1">
         <f t="array" ref="E143">IF(C143="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C143)*(工作表2!B:B=D143), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15.75" customHeight="1">
@@ -4638,9 +4563,9 @@
       <c r="D144" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E144" s="6" cm="1">
+      <c r="E144" s="6" t="str" cm="1">
         <f t="array" ref="E144">IF(C144="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C144)*(工作表2!B:B=D144), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1">
@@ -4658,7 +4583,7 @@
       </c>
       <c r="E145" s="6" cm="1">
         <f t="array" ref="E145">IF(C145="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C145)*(工作表2!B:B=D145), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1">
@@ -4674,9 +4599,9 @@
       <c r="D146" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E146" s="6" cm="1">
+      <c r="E146" s="6" t="str" cm="1">
         <f t="array" ref="E146">IF(C146="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C146)*(工作表2!B:B=D146), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.75" customHeight="1">
@@ -4694,7 +4619,7 @@
       </c>
       <c r="E147" s="6" cm="1">
         <f t="array" ref="E147">IF(C147="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C147)*(工作表2!B:B=D147), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.75" customHeight="1">
@@ -4712,7 +4637,7 @@
       </c>
       <c r="E148" s="6" cm="1">
         <f t="array" ref="E148">IF(C148="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C148)*(工作表2!B:B=D148), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1">
@@ -4730,7 +4655,7 @@
       </c>
       <c r="E149" s="6" cm="1">
         <f t="array" ref="E149">IF(C149="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C149)*(工作表2!B:B=D149), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.75" customHeight="1">
@@ -4746,9 +4671,9 @@
       <c r="D150" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E150" s="6" cm="1">
+      <c r="E150" s="6" t="str" cm="1">
         <f t="array" ref="E150">IF(C150="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C150)*(工作表2!B:B=D150), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1">
@@ -4766,7 +4691,7 @@
       </c>
       <c r="E151" s="6" cm="1">
         <f t="array" ref="E151">IF(C151="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C151)*(工作表2!B:B=D151), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1">
@@ -4782,9 +4707,9 @@
       <c r="D152" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E152" s="6" cm="1">
+      <c r="E152" s="6" t="str" cm="1">
         <f t="array" ref="E152">IF(C152="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C152)*(工作表2!B:B=D152), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15.75" customHeight="1">
@@ -4802,7 +4727,7 @@
       </c>
       <c r="E153" s="6" cm="1">
         <f t="array" ref="E153">IF(C153="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C153)*(工作表2!B:B=D153), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1">
@@ -4820,7 +4745,7 @@
       </c>
       <c r="E154" s="6" cm="1">
         <f t="array" ref="E154">IF(C154="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C154)*(工作表2!B:B=D154), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1">
@@ -4838,7 +4763,7 @@
       </c>
       <c r="E155" s="6" cm="1">
         <f t="array" ref="E155">IF(C155="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C155)*(工作表2!B:B=D155), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1">
@@ -4854,9 +4779,9 @@
       <c r="D156" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E156" s="6" cm="1">
+      <c r="E156" s="6" t="str" cm="1">
         <f t="array" ref="E156">IF(C156="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C156)*(工作表2!B:B=D156), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1">
@@ -4874,7 +4799,7 @@
       </c>
       <c r="E157" s="6" cm="1">
         <f t="array" ref="E157">IF(C157="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C157)*(工作表2!B:B=D157), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1">
@@ -4890,9 +4815,9 @@
       <c r="D158" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E158" s="6" cm="1">
+      <c r="E158" s="6" t="str" cm="1">
         <f t="array" ref="E158">IF(C158="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C158)*(工作表2!B:B=D158), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1">
@@ -4910,7 +4835,7 @@
       </c>
       <c r="E159" s="6" cm="1">
         <f t="array" ref="E159">IF(C159="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C159)*(工作表2!B:B=D159), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1">
@@ -4928,7 +4853,7 @@
       </c>
       <c r="E160" s="6" cm="1">
         <f t="array" ref="E160">IF(C160="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C160)*(工作表2!B:B=D160), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1">
@@ -4946,7 +4871,7 @@
       </c>
       <c r="E161" s="6" cm="1">
         <f t="array" ref="E161">IF(C161="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C161)*(工作表2!B:B=D161), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1">
@@ -4962,9 +4887,9 @@
       <c r="D162" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E162" s="6" cm="1">
+      <c r="E162" s="6" t="str" cm="1">
         <f t="array" ref="E162">IF(C162="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C162)*(工作表2!B:B=D162), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1">
@@ -4982,7 +4907,7 @@
       </c>
       <c r="E163" s="6" cm="1">
         <f t="array" ref="E163">IF(C163="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C163)*(工作表2!B:B=D163), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1">
@@ -4998,9 +4923,9 @@
       <c r="D164" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E164" s="6" cm="1">
+      <c r="E164" s="6" t="str" cm="1">
         <f t="array" ref="E164">IF(C164="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C164)*(工作表2!B:B=D164), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1">
@@ -5018,7 +4943,7 @@
       </c>
       <c r="E165" s="6" cm="1">
         <f t="array" ref="E165">IF(C165="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C165)*(工作表2!B:B=D165), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1">
@@ -5036,7 +4961,7 @@
       </c>
       <c r="E166" s="6" cm="1">
         <f t="array" ref="E166">IF(C166="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C166)*(工作表2!B:B=D166), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1">
@@ -5052,9 +4977,9 @@
       <c r="D167" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E167" s="6" cm="1">
+      <c r="E167" s="6" t="str" cm="1">
         <f t="array" ref="E167">IF(C167="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C167)*(工作表2!B:B=D167), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1">
@@ -5070,9 +4995,9 @@
       <c r="D168" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E168" s="6" cm="1">
+      <c r="E168" s="6" t="str" cm="1">
         <f t="array" ref="E168">IF(C168="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C168)*(工作表2!B:B=D168), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1">
@@ -5090,7 +5015,7 @@
       </c>
       <c r="E169" s="6" cm="1">
         <f t="array" ref="E169">IF(C169="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C169)*(工作表2!B:B=D169), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1">
@@ -5106,9 +5031,9 @@
       <c r="D170" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E170" s="6" cm="1">
+      <c r="E170" s="6" t="str" cm="1">
         <f t="array" ref="E170">IF(C170="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C170)*(工作表2!B:B=D170), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1">
@@ -5126,7 +5051,7 @@
       </c>
       <c r="E171" s="6" cm="1">
         <f t="array" ref="E171">IF(C171="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C171)*(工作表2!B:B=D171), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1">
@@ -5142,9 +5067,9 @@
       <c r="D172" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E172" s="6" cm="1">
+      <c r="E172" s="6" t="str" cm="1">
         <f t="array" ref="E172">IF(C172="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C172)*(工作表2!B:B=D172), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1">
@@ -5162,7 +5087,7 @@
       </c>
       <c r="E173" s="6" cm="1">
         <f t="array" ref="E173">IF(C173="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C173)*(工作表2!B:B=D173), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1">
@@ -5180,12 +5105,12 @@
       </c>
       <c r="E174" s="6" cm="1">
         <f t="array" ref="E174">IF(C174="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C174)*(工作表2!B:B=D174), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" customHeight="1">
       <c r="A175" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>26</v>
@@ -5198,12 +5123,12 @@
       </c>
       <c r="E175" s="6" cm="1">
         <f t="array" ref="E175">IF(C175="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C175)*(工作表2!B:B=D175), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1">
       <c r="A176" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>26</v>
@@ -5214,14 +5139,14 @@
       <c r="D176" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E176" s="6" cm="1">
+      <c r="E176" s="6" t="str" cm="1">
         <f t="array" ref="E176">IF(C176="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C176)*(工作表2!B:B=D176), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1">
       <c r="A177" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>26</v>
@@ -5234,12 +5159,12 @@
       </c>
       <c r="E177" s="6" cm="1">
         <f t="array" ref="E177">IF(C177="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C177)*(工作表2!B:B=D177), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1">
       <c r="A178" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>26</v>
@@ -5250,14 +5175,14 @@
       <c r="D178" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E178" s="6" cm="1">
+      <c r="E178" s="6" t="str" cm="1">
         <f t="array" ref="E178">IF(C178="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C178)*(工作表2!B:B=D178), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1">
       <c r="A179" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>26</v>
@@ -5270,12 +5195,12 @@
       </c>
       <c r="E179" s="6" cm="1">
         <f t="array" ref="E179">IF(C179="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C179)*(工作表2!B:B=D179), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1">
       <c r="A180" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>26</v>
@@ -5286,14 +5211,14 @@
       <c r="D180" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E180" s="6" cm="1">
+      <c r="E180" s="6" t="str" cm="1">
         <f t="array" ref="E180">IF(C180="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C180)*(工作表2!B:B=D180), 0)),""))</f>
-        <v>26</v>
+        <v/>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15.75" customHeight="1">
       <c r="A181" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>26</v>
@@ -5306,12 +5231,12 @@
       </c>
       <c r="E181" s="6" cm="1">
         <f t="array" ref="E181">IF(C181="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C181)*(工作表2!B:B=D181), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1">
       <c r="A182" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>26</v>
@@ -5322,14 +5247,14 @@
       <c r="D182" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E182" s="6" cm="1">
+      <c r="E182" s="6" t="str" cm="1">
         <f t="array" ref="E182">IF(C182="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C182)*(工作表2!B:B=D182), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1">
       <c r="A183" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>26</v>
@@ -5342,12 +5267,12 @@
       </c>
       <c r="E183" s="6" cm="1">
         <f t="array" ref="E183">IF(C183="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C183)*(工作表2!B:B=D183), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1">
       <c r="A184" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>26</v>
@@ -5358,14 +5283,14 @@
       <c r="D184" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E184" s="6" cm="1">
+      <c r="E184" s="6" t="str" cm="1">
         <f t="array" ref="E184">IF(C184="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C184)*(工作表2!B:B=D184), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1">
       <c r="A185" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>26</v>
@@ -5378,12 +5303,12 @@
       </c>
       <c r="E185" s="6" cm="1">
         <f t="array" ref="E185">IF(C185="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C185)*(工作表2!B:B=D185), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1">
       <c r="A186" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>26</v>
@@ -5396,12 +5321,12 @@
       </c>
       <c r="E186" s="6" cm="1">
         <f t="array" ref="E186">IF(C186="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C186)*(工作表2!B:B=D186), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1">
       <c r="A187" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>26</v>
@@ -5414,12 +5339,12 @@
       </c>
       <c r="E187" s="6" cm="1">
         <f t="array" ref="E187">IF(C187="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C187)*(工作表2!B:B=D187), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15.75" customHeight="1">
       <c r="A188" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>26</v>
@@ -5430,14 +5355,14 @@
       <c r="D188" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E188" s="6" cm="1">
+      <c r="E188" s="6" t="str" cm="1">
         <f t="array" ref="E188">IF(C188="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C188)*(工作表2!B:B=D188), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15.75" customHeight="1">
       <c r="A189" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>26</v>
@@ -5450,12 +5375,12 @@
       </c>
       <c r="E189" s="6" cm="1">
         <f t="array" ref="E189">IF(C189="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C189)*(工作表2!B:B=D189), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1">
       <c r="A190" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>26</v>
@@ -5466,14 +5391,14 @@
       <c r="D190" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E190" s="6" cm="1">
+      <c r="E190" s="6" t="str" cm="1">
         <f t="array" ref="E190">IF(C190="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C190)*(工作表2!B:B=D190), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1">
       <c r="A191" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>26</v>
@@ -5486,12 +5411,12 @@
       </c>
       <c r="E191" s="6" cm="1">
         <f t="array" ref="E191">IF(C191="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C191)*(工作表2!B:B=D191), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1">
       <c r="A192" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>26</v>
@@ -5504,12 +5429,12 @@
       </c>
       <c r="E192" s="6" cm="1">
         <f t="array" ref="E192">IF(C192="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C192)*(工作表2!B:B=D192), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1">
       <c r="A193" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>26</v>
@@ -5522,12 +5447,12 @@
       </c>
       <c r="E193" s="6" cm="1">
         <f t="array" ref="E193">IF(C193="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C193)*(工作表2!B:B=D193), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1">
       <c r="A194" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>26</v>
@@ -5538,14 +5463,14 @@
       <c r="D194" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E194" s="6" cm="1">
+      <c r="E194" s="6" t="str" cm="1">
         <f t="array" ref="E194">IF(C194="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C194)*(工作表2!B:B=D194), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15.75" customHeight="1">
       <c r="A195" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>26</v>
@@ -5558,12 +5483,12 @@
       </c>
       <c r="E195" s="6" cm="1">
         <f t="array" ref="E195">IF(C195="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C195)*(工作表2!B:B=D195), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15.75" customHeight="1">
       <c r="A196" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>26</v>
@@ -5574,14 +5499,14 @@
       <c r="D196" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E196" s="6" cm="1">
+      <c r="E196" s="6" t="str" cm="1">
         <f t="array" ref="E196">IF(C196="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C196)*(工作表2!B:B=D196), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.75" customHeight="1">
       <c r="A197" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>26</v>
@@ -5594,12 +5519,12 @@
       </c>
       <c r="E197" s="6" cm="1">
         <f t="array" ref="E197">IF(C197="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C197)*(工作表2!B:B=D197), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15.75" customHeight="1">
       <c r="A198" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>26</v>
@@ -5612,12 +5537,12 @@
       </c>
       <c r="E198" s="6" cm="1">
         <f t="array" ref="E198">IF(C198="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C198)*(工作表2!B:B=D198), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.75" customHeight="1">
       <c r="A199" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>26</v>
@@ -5630,12 +5555,12 @@
       </c>
       <c r="E199" s="6" cm="1">
         <f t="array" ref="E199">IF(C199="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C199)*(工作表2!B:B=D199), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.75" customHeight="1">
       <c r="A200" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>26</v>
@@ -5646,14 +5571,14 @@
       <c r="D200" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E200" s="6" cm="1">
+      <c r="E200" s="6" t="str" cm="1">
         <f t="array" ref="E200">IF(C200="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C200)*(工作表2!B:B=D200), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1">
       <c r="A201" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>26</v>
@@ -5666,12 +5591,12 @@
       </c>
       <c r="E201" s="6" cm="1">
         <f t="array" ref="E201">IF(C201="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C201)*(工作表2!B:B=D201), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15.75" customHeight="1">
       <c r="A202" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>26</v>
@@ -5682,14 +5607,14 @@
       <c r="D202" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E202" s="6" cm="1">
+      <c r="E202" s="6" t="str" cm="1">
         <f t="array" ref="E202">IF(C202="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C202)*(工作表2!B:B=D202), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1">
       <c r="A203" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>26</v>
@@ -5702,12 +5627,12 @@
       </c>
       <c r="E203" s="6" cm="1">
         <f t="array" ref="E203">IF(C203="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C203)*(工作表2!B:B=D203), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15.75" customHeight="1">
       <c r="A204" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>26</v>
@@ -5720,12 +5645,12 @@
       </c>
       <c r="E204" s="6" cm="1">
         <f t="array" ref="E204">IF(C204="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C204)*(工作表2!B:B=D204), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15.75" customHeight="1">
       <c r="A205" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>26</v>
@@ -5738,12 +5663,12 @@
       </c>
       <c r="E205" s="6" cm="1">
         <f t="array" ref="E205">IF(C205="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C205)*(工作表2!B:B=D205), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="15.75" customHeight="1">
       <c r="A206" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>26</v>
@@ -5754,14 +5679,14 @@
       <c r="D206" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E206" s="6" cm="1">
+      <c r="E206" s="6" t="str" cm="1">
         <f t="array" ref="E206">IF(C206="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C206)*(工作表2!B:B=D206), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15.75" customHeight="1">
       <c r="A207" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>26</v>
@@ -5774,12 +5699,12 @@
       </c>
       <c r="E207" s="6" cm="1">
         <f t="array" ref="E207">IF(C207="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C207)*(工作表2!B:B=D207), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15.75" customHeight="1">
       <c r="A208" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>26</v>
@@ -5790,14 +5715,14 @@
       <c r="D208" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E208" s="6" cm="1">
+      <c r="E208" s="6" t="str" cm="1">
         <f t="array" ref="E208">IF(C208="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C208)*(工作表2!B:B=D208), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15.75" customHeight="1">
       <c r="A209" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>26</v>
@@ -5810,12 +5735,12 @@
       </c>
       <c r="E209" s="6" cm="1">
         <f t="array" ref="E209">IF(C209="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C209)*(工作表2!B:B=D209), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75" customHeight="1">
       <c r="A210" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>26</v>
@@ -5828,12 +5753,12 @@
       </c>
       <c r="E210" s="6" cm="1">
         <f t="array" ref="E210">IF(C210="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C210)*(工作表2!B:B=D210), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15.75" customHeight="1">
       <c r="A211" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>26</v>
@@ -5846,12 +5771,12 @@
       </c>
       <c r="E211" s="6" cm="1">
         <f t="array" ref="E211">IF(C211="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C211)*(工作表2!B:B=D211), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1">
       <c r="A212" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>26</v>
@@ -5862,14 +5787,14 @@
       <c r="D212" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E212" s="6" cm="1">
+      <c r="E212" s="6" t="str" cm="1">
         <f t="array" ref="E212">IF(C212="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C212)*(工作表2!B:B=D212), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15.75" customHeight="1">
       <c r="A213" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>26</v>
@@ -5882,12 +5807,12 @@
       </c>
       <c r="E213" s="6" cm="1">
         <f t="array" ref="E213">IF(C213="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C213)*(工作表2!B:B=D213), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15.75" customHeight="1">
       <c r="A214" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>26</v>
@@ -5898,14 +5823,14 @@
       <c r="D214" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E214" s="6" cm="1">
+      <c r="E214" s="6" t="str" cm="1">
         <f t="array" ref="E214">IF(C214="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C214)*(工作表2!B:B=D214), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="215" spans="1:5" ht="15.75" customHeight="1">
       <c r="A215" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B215" s="5" t="s">
         <v>26</v>
@@ -5918,12 +5843,12 @@
       </c>
       <c r="E215" s="6" cm="1">
         <f t="array" ref="E215">IF(C215="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C215)*(工作表2!B:B=D215), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="15.75" customHeight="1">
       <c r="A216" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>26</v>
@@ -5936,12 +5861,12 @@
       </c>
       <c r="E216" s="6" cm="1">
         <f t="array" ref="E216">IF(C216="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C216)*(工作表2!B:B=D216), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15.75" customHeight="1">
       <c r="A217" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>26</v>
@@ -5954,12 +5879,12 @@
       </c>
       <c r="E217" s="6" cm="1">
         <f t="array" ref="E217">IF(C217="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C217)*(工作表2!B:B=D217), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="15.75" customHeight="1">
       <c r="A218" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>26</v>
@@ -5970,14 +5895,14 @@
       <c r="D218" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E218" s="6" cm="1">
+      <c r="E218" s="6" t="str" cm="1">
         <f t="array" ref="E218">IF(C218="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C218)*(工作表2!B:B=D218), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="219" spans="1:5" ht="15.75" customHeight="1">
       <c r="A219" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>26</v>
@@ -5990,12 +5915,12 @@
       </c>
       <c r="E219" s="6" cm="1">
         <f t="array" ref="E219">IF(C219="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C219)*(工作表2!B:B=D219), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="15.75" customHeight="1">
       <c r="A220" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>26</v>
@@ -6006,14 +5931,14 @@
       <c r="D220" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E220" s="6" cm="1">
+      <c r="E220" s="6" t="str" cm="1">
         <f t="array" ref="E220">IF(C220="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C220)*(工作表2!B:B=D220), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="221" spans="1:5" ht="15.75" customHeight="1">
       <c r="A221" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>26</v>
@@ -6024,14 +5949,14 @@
       <c r="D221" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E221" s="6" cm="1">
+      <c r="E221" s="6" t="str" cm="1">
         <f t="array" ref="E221">IF(C221="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C221)*(工作表2!B:B=D221), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="222" spans="1:5" ht="15.75" customHeight="1">
       <c r="A222" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>26</v>
@@ -6044,12 +5969,12 @@
       </c>
       <c r="E222" s="6" cm="1">
         <f t="array" ref="E222">IF(C222="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C222)*(工作表2!B:B=D222), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A223" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>26</v>
@@ -6062,12 +5987,12 @@
       </c>
       <c r="E223" s="6" cm="1">
         <f t="array" ref="E223">IF(C223="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C223)*(工作表2!B:B=D223), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A224" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B224" s="11" t="s">
         <v>26</v>
@@ -6078,14 +6003,14 @@
       <c r="D224" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E224" s="6" cm="1">
+      <c r="E224" s="6" t="str" cm="1">
         <f t="array" ref="E224">IF(C224="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C224)*(工作表2!B:B=D224), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="225" spans="1:5" ht="15.75" customHeight="1">
       <c r="A225" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>26</v>
@@ -6098,12 +6023,12 @@
       </c>
       <c r="E225" s="6" cm="1">
         <f t="array" ref="E225">IF(C225="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C225)*(工作表2!B:B=D225), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="15.75" customHeight="1">
       <c r="A226" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>26</v>
@@ -6114,14 +6039,14 @@
       <c r="D226" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E226" s="6" cm="1">
+      <c r="E226" s="6" t="str" cm="1">
         <f t="array" ref="E226">IF(C226="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C226)*(工作表2!B:B=D226), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="227" spans="1:5" ht="15.75" customHeight="1">
       <c r="A227" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>26</v>
@@ -6134,12 +6059,12 @@
       </c>
       <c r="E227" s="6" cm="1">
         <f t="array" ref="E227">IF(C227="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C227)*(工作表2!B:B=D227), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="15.75" customHeight="1">
       <c r="A228" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>26</v>
@@ -6150,14 +6075,14 @@
       <c r="D228" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E228" s="6" cm="1">
+      <c r="E228" s="6" t="str" cm="1">
         <f t="array" ref="E228">IF(C228="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C228)*(工作表2!B:B=D228), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="229" spans="1:5" ht="15.75" customHeight="1">
       <c r="A229" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>26</v>
@@ -6170,12 +6095,12 @@
       </c>
       <c r="E229" s="6" cm="1">
         <f t="array" ref="E229">IF(C229="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C229)*(工作表2!B:B=D229), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1">
       <c r="A230" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>26</v>
@@ -6188,12 +6113,12 @@
       </c>
       <c r="E230" s="6" cm="1">
         <f t="array" ref="E230">IF(C230="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C230)*(工作表2!B:B=D230), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1">
       <c r="A231" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>26</v>
@@ -6206,12 +6131,12 @@
       </c>
       <c r="E231" s="6" cm="1">
         <f t="array" ref="E231">IF(C231="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C231)*(工作表2!B:B=D231), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1">
       <c r="A232" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>26</v>
@@ -6222,14 +6147,14 @@
       <c r="D232" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E232" s="6" cm="1">
+      <c r="E232" s="6" t="str" cm="1">
         <f t="array" ref="E232">IF(C232="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C232)*(工作表2!B:B=D232), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="233" spans="1:5" ht="15.75" customHeight="1">
       <c r="A233" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>26</v>
@@ -6242,12 +6167,12 @@
       </c>
       <c r="E233" s="6" cm="1">
         <f t="array" ref="E233">IF(C233="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C233)*(工作表2!B:B=D233), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15.75" customHeight="1">
       <c r="A234" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>26</v>
@@ -6258,14 +6183,14 @@
       <c r="D234" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E234" s="6" cm="1">
+      <c r="E234" s="6" t="str" cm="1">
         <f t="array" ref="E234">IF(C234="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C234)*(工作表2!B:B=D234), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15.75" customHeight="1">
       <c r="A235" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>26</v>
@@ -6278,12 +6203,12 @@
       </c>
       <c r="E235" s="6" cm="1">
         <f t="array" ref="E235">IF(C235="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C235)*(工作表2!B:B=D235), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="15.75" customHeight="1">
       <c r="A236" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>26</v>
@@ -6296,12 +6221,12 @@
       </c>
       <c r="E236" s="6" cm="1">
         <f t="array" ref="E236">IF(C236="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C236)*(工作表2!B:B=D236), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="15.75" customHeight="1">
       <c r="A237" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>26</v>
@@ -6312,14 +6237,14 @@
       <c r="D237" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E237" s="6" cm="1">
+      <c r="E237" s="6" t="str" cm="1">
         <f t="array" ref="E237">IF(C237="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C237)*(工作表2!B:B=D237), 0)),""))</f>
-        <v>26</v>
+        <v/>
       </c>
     </row>
     <row r="238" spans="1:5" ht="15.75" customHeight="1">
       <c r="A238" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>26</v>
@@ -6337,7 +6262,7 @@
     </row>
     <row r="239" spans="1:5" ht="15.75" customHeight="1">
       <c r="A239" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>26</v>
@@ -6346,16 +6271,16 @@
         <v>73</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E239" s="6" cm="1">
+        <v>294</v>
+      </c>
+      <c r="E239" s="6" t="str" cm="1">
         <f t="array" ref="E239">IF(C239="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C239)*(工作表2!B:B=D239), 0)),""))</f>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="240" spans="1:5" ht="15.75" customHeight="1">
       <c r="A240" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>26</v>
@@ -6368,12 +6293,12 @@
       </c>
       <c r="E240" s="6" cm="1">
         <f t="array" ref="E240">IF(C240="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C240)*(工作表2!B:B=D240), 0)),""))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="15.75" customHeight="1">
       <c r="A241" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>26</v>
@@ -6386,12 +6311,12 @@
       </c>
       <c r="E241" s="6" cm="1">
         <f t="array" ref="E241">IF(C241="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C241)*(工作表2!B:B=D241), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="15.75" customHeight="1">
       <c r="A242" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>26</v>
@@ -6402,14 +6327,14 @@
       <c r="D242" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E242" s="6" cm="1">
+      <c r="E242" s="6" t="str" cm="1">
         <f t="array" ref="E242">IF(C242="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C242)*(工作表2!B:B=D242), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="243" spans="1:5" ht="15.75" customHeight="1">
       <c r="A243" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>26</v>
@@ -6422,12 +6347,12 @@
       </c>
       <c r="E243" s="6" cm="1">
         <f t="array" ref="E243">IF(C243="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C243)*(工作表2!B:B=D243), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="15.75" customHeight="1">
       <c r="A244" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>26</v>
@@ -6438,14 +6363,14 @@
       <c r="D244" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E244" s="6" cm="1">
+      <c r="E244" s="6" t="str" cm="1">
         <f t="array" ref="E244">IF(C244="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C244)*(工作表2!B:B=D244), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="245" spans="1:5" ht="15.75" customHeight="1">
       <c r="A245" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>26</v>
@@ -6458,12 +6383,12 @@
       </c>
       <c r="E245" s="6" cm="1">
         <f t="array" ref="E245">IF(C245="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C245)*(工作表2!B:B=D245), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="15.75" customHeight="1">
       <c r="A246" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>26</v>
@@ -6476,12 +6401,12 @@
       </c>
       <c r="E246" s="6" cm="1">
         <f t="array" ref="E246">IF(C246="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C246)*(工作表2!B:B=D246), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="15.75" customHeight="1">
       <c r="A247" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>26</v>
@@ -6492,14 +6417,14 @@
       <c r="D247" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E247" s="6" cm="1">
+      <c r="E247" s="6" t="str" cm="1">
         <f t="array" ref="E247">IF(C247="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C247)*(工作表2!B:B=D247), 0)),""))</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="248" spans="1:5" ht="15.75" customHeight="1">
       <c r="A248" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>26</v>
@@ -6512,12 +6437,12 @@
       </c>
       <c r="E248" s="6" cm="1">
         <f t="array" ref="E248">IF(C248="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C248)*(工作表2!B:B=D248), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="15.75" customHeight="1">
       <c r="A249" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>26</v>
@@ -6528,14 +6453,14 @@
       <c r="D249" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E249" s="6" cm="1">
+      <c r="E249" s="6" t="str" cm="1">
         <f t="array" ref="E249">IF(C249="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C249)*(工作表2!B:B=D249), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="250" spans="1:5" ht="15.75" customHeight="1">
       <c r="A250" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>26</v>
@@ -6548,12 +6473,12 @@
       </c>
       <c r="E250" s="6" cm="1">
         <f t="array" ref="E250">IF(C250="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C250)*(工作表2!B:B=D250), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="15.75" customHeight="1">
       <c r="A251" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>26</v>
@@ -6564,14 +6489,14 @@
       <c r="D251" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E251" s="6" cm="1">
+      <c r="E251" s="6" t="str" cm="1">
         <f t="array" ref="E251">IF(C251="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C251)*(工作表2!B:B=D251), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="252" spans="1:5" ht="15.75" customHeight="1">
       <c r="A252" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>26</v>
@@ -6584,12 +6509,12 @@
       </c>
       <c r="E252" s="6" cm="1">
         <f t="array" ref="E252">IF(C252="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C252)*(工作表2!B:B=D252), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="15.75" customHeight="1">
       <c r="A253" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>26</v>
@@ -6602,12 +6527,12 @@
       </c>
       <c r="E253" s="6" cm="1">
         <f t="array" ref="E253">IF(C253="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C253)*(工作表2!B:B=D253), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="15.75" customHeight="1">
       <c r="A254" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>26</v>
@@ -6616,16 +6541,16 @@
         <v>73</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="E254" s="6" cm="1">
+        <v>390</v>
+      </c>
+      <c r="E254" s="6" t="str" cm="1">
         <f t="array" ref="E254">IF(C254="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C254)*(工作表2!B:B=D254), 0)),""))</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="255" spans="1:5" ht="15.75" customHeight="1">
       <c r="A255" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>26</v>
@@ -6638,12 +6563,12 @@
       </c>
       <c r="E255" s="6" cm="1">
         <f t="array" ref="E255">IF(C255="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C255)*(工作表2!B:B=D255), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="15.75" customHeight="1">
       <c r="A256" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>26</v>
@@ -6656,12 +6581,12 @@
       </c>
       <c r="E256" s="6" cm="1">
         <f t="array" ref="E256">IF(C256="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C256)*(工作表2!B:B=D256), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="15.75" customHeight="1">
       <c r="A257" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>26</v>
@@ -6672,14 +6597,14 @@
       <c r="D257" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E257" s="6" cm="1">
+      <c r="E257" s="6" t="str" cm="1">
         <f t="array" ref="E257">IF(C257="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C257)*(工作表2!B:B=D257), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="258" spans="1:5" ht="15.75" customHeight="1">
       <c r="A258" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>26</v>
@@ -6688,16 +6613,16 @@
         <v>73</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="E258" s="6" cm="1">
+        <v>391</v>
+      </c>
+      <c r="E258" s="6" t="str" cm="1">
         <f t="array" ref="E258">IF(C258="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C258)*(工作表2!B:B=D258), 0)),""))</f>
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="259" spans="1:5" ht="15.75" customHeight="1">
       <c r="A259" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>26</v>
@@ -6710,12 +6635,12 @@
       </c>
       <c r="E259" s="6" cm="1">
         <f t="array" ref="E259">IF(C259="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C259)*(工作表2!B:B=D259), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="15.75" customHeight="1">
       <c r="A260" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>26</v>
@@ -6728,12 +6653,12 @@
       </c>
       <c r="E260" s="6" cm="1">
         <f t="array" ref="E260">IF(C260="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C260)*(工作表2!B:B=D260), 0)),""))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="15.75" customHeight="1">
       <c r="A261" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>26</v>
@@ -6746,12 +6671,12 @@
       </c>
       <c r="E261" s="6" cm="1">
         <f t="array" ref="E261">IF(C261="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C261)*(工作表2!B:B=D261), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="15.75" customHeight="1">
       <c r="A262" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>26</v>
@@ -6762,14 +6687,14 @@
       <c r="D262" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E262" s="6" cm="1">
+      <c r="E262" s="6" t="str" cm="1">
         <f t="array" ref="E262">IF(C262="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C262)*(工作表2!B:B=D262), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="263" spans="1:5" ht="15.75" customHeight="1">
       <c r="A263" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>26</v>
@@ -6782,12 +6707,12 @@
       </c>
       <c r="E263" s="6" cm="1">
         <f t="array" ref="E263">IF(C263="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C263)*(工作表2!B:B=D263), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="15.75" customHeight="1">
       <c r="A264" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>26</v>
@@ -6798,14 +6723,14 @@
       <c r="D264" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E264" s="6" cm="1">
+      <c r="E264" s="6" t="str" cm="1">
         <f t="array" ref="E264">IF(C264="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C264)*(工作表2!B:B=D264), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="265" spans="1:5" ht="15.75" customHeight="1">
       <c r="A265" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>26</v>
@@ -6816,14 +6741,14 @@
       <c r="D265" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E265" s="6" cm="1">
+      <c r="E265" s="6" t="str" cm="1">
         <f t="array" ref="E265">IF(C265="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C265)*(工作表2!B:B=D265), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="266" spans="1:5" ht="15.75" customHeight="1">
       <c r="A266" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>26</v>
@@ -6836,12 +6761,12 @@
       </c>
       <c r="E266" s="6" cm="1">
         <f t="array" ref="E266">IF(C266="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C266)*(工作表2!B:B=D266), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="15.75" customHeight="1">
       <c r="A267" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>26</v>
@@ -6854,12 +6779,12 @@
       </c>
       <c r="E267" s="6" cm="1">
         <f t="array" ref="E267">IF(C267="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C267)*(工作表2!B:B=D267), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15.75" customHeight="1">
       <c r="A268" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>26</v>
@@ -6872,12 +6797,12 @@
       </c>
       <c r="E268" s="6" cm="1">
         <f t="array" ref="E268">IF(C268="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C268)*(工作表2!B:B=D268), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="15.75" customHeight="1">
       <c r="A269" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>26</v>
@@ -6886,16 +6811,16 @@
         <v>73</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="E269" s="6" cm="1">
+        <v>390</v>
+      </c>
+      <c r="E269" s="6" t="str" cm="1">
         <f t="array" ref="E269">IF(C269="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C269)*(工作表2!B:B=D269), 0)),""))</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="270" spans="1:5" ht="15.75" customHeight="1">
       <c r="A270" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>26</v>
@@ -6908,12 +6833,12 @@
       </c>
       <c r="E270" s="6" cm="1">
         <f t="array" ref="E270">IF(C270="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C270)*(工作表2!B:B=D270), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="15.75" customHeight="1">
       <c r="A271" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>26</v>
@@ -6924,14 +6849,14 @@
       <c r="D271" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E271" s="6" cm="1">
+      <c r="E271" s="6" t="str" cm="1">
         <f t="array" ref="E271">IF(C271="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C271)*(工作表2!B:B=D271), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15.75" customHeight="1">
       <c r="A272" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>26</v>
@@ -6940,16 +6865,16 @@
         <v>73</v>
       </c>
       <c r="D272" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="E272" s="6" cm="1">
+        <v>385</v>
+      </c>
+      <c r="E272" s="6" t="str" cm="1">
         <f t="array" ref="E272">IF(C272="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C272)*(工作表2!B:B=D272), 0)),""))</f>
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="273" spans="1:5" ht="15.75" customHeight="1">
       <c r="A273" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>26</v>
@@ -6962,12 +6887,12 @@
       </c>
       <c r="E273" s="6" cm="1">
         <f t="array" ref="E273">IF(C273="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C273)*(工作表2!B:B=D273), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="15.75" customHeight="1">
       <c r="A274" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>26</v>
@@ -6978,14 +6903,14 @@
       <c r="D274" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E274" s="6" cm="1">
+      <c r="E274" s="6" t="str" cm="1">
         <f t="array" ref="E274">IF(C274="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C274)*(工作表2!B:B=D274), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="275" spans="1:5" ht="15.75" customHeight="1">
       <c r="A275" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>26</v>
@@ -6998,12 +6923,12 @@
       </c>
       <c r="E275" s="6" cm="1">
         <f t="array" ref="E275">IF(C275="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C275)*(工作表2!B:B=D275), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="15.75" customHeight="1">
       <c r="A276" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>26</v>
@@ -7014,14 +6939,14 @@
       <c r="D276" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E276" s="6" cm="1">
+      <c r="E276" s="6" t="str" cm="1">
         <f t="array" ref="E276">IF(C276="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C276)*(工作表2!B:B=D276), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="277" spans="1:5" ht="15.75" customHeight="1">
       <c r="A277" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>26</v>
@@ -7034,12 +6959,12 @@
       </c>
       <c r="E277" s="6" cm="1">
         <f t="array" ref="E277">IF(C277="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C277)*(工作表2!B:B=D277), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="15.75" customHeight="1">
       <c r="A278" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B278" s="5" t="s">
         <v>26</v>
@@ -7052,12 +6977,12 @@
       </c>
       <c r="E278" s="6" cm="1">
         <f t="array" ref="E278">IF(C278="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C278)*(工作表2!B:B=D278), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="15.75" customHeight="1">
       <c r="A279" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>26</v>
@@ -7070,12 +6995,12 @@
       </c>
       <c r="E279" s="6" cm="1">
         <f t="array" ref="E279">IF(C279="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C279)*(工作表2!B:B=D279), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="15.75" customHeight="1">
       <c r="A280" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>26</v>
@@ -7084,16 +7009,16 @@
         <v>73</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="E280" s="6" cm="1">
+        <v>391</v>
+      </c>
+      <c r="E280" s="6" t="str" cm="1">
         <f t="array" ref="E280">IF(C280="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C280)*(工作表2!B:B=D280), 0)),""))</f>
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="281" spans="1:5" ht="15.75" customHeight="1">
       <c r="A281" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B281" s="5" t="s">
         <v>26</v>
@@ -7104,14 +7029,14 @@
       <c r="D281" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E281" s="6" cm="1">
+      <c r="E281" s="6" t="str" cm="1">
         <f t="array" ref="E281">IF(C281="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C281)*(工作表2!B:B=D281), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="282" spans="1:5" ht="15.75" customHeight="1">
       <c r="A282" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B282" s="5" t="s">
         <v>26</v>
@@ -7124,12 +7049,12 @@
       </c>
       <c r="E282" s="6" cm="1">
         <f t="array" ref="E282">IF(C282="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C282)*(工作表2!B:B=D282), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="15.75" customHeight="1">
       <c r="A283" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>26</v>
@@ -7142,12 +7067,12 @@
       </c>
       <c r="E283" s="6" cm="1">
         <f t="array" ref="E283">IF(C283="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C283)*(工作表2!B:B=D283), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="15.75" customHeight="1">
       <c r="A284" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>26</v>
@@ -7160,12 +7085,12 @@
       </c>
       <c r="E284" s="6" cm="1">
         <f t="array" ref="E284">IF(C284="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C284)*(工作表2!B:B=D284), 0)),""))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="15.75" customHeight="1">
       <c r="A285" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B285" s="5" t="s">
         <v>26</v>
@@ -7178,12 +7103,12 @@
       </c>
       <c r="E285" s="6" cm="1">
         <f t="array" ref="E285">IF(C285="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C285)*(工作表2!B:B=D285), 0)),""))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="15.75" customHeight="1">
       <c r="A286" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>26</v>
@@ -7196,12 +7121,12 @@
       </c>
       <c r="E286" s="6" cm="1">
         <f t="array" ref="E286">IF(C286="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C286)*(工作表2!B:B=D286), 0)),""))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="15.75" customHeight="1">
       <c r="A287" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>26</v>
@@ -7219,7 +7144,7 @@
     </row>
     <row r="288" spans="1:5" ht="15.75" customHeight="1">
       <c r="A288" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>26</v>
@@ -7228,16 +7153,16 @@
         <v>73</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E288" s="6" cm="1">
+        <v>294</v>
+      </c>
+      <c r="E288" s="6" t="str" cm="1">
         <f t="array" ref="E288">IF(C288="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C288)*(工作表2!B:B=D288), 0)),""))</f>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="289" spans="1:5" ht="15.75" customHeight="1">
       <c r="A289" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>26</v>
@@ -7250,12 +7175,12 @@
       </c>
       <c r="E289" s="6" cm="1">
         <f t="array" ref="E289">IF(C289="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C289)*(工作表2!B:B=D289), 0)),""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="15.75" customHeight="1">
       <c r="A290" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>26</v>
@@ -7268,12 +7193,12 @@
       </c>
       <c r="E290" s="6" cm="1">
         <f t="array" ref="E290">IF(C290="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C290)*(工作表2!B:B=D290), 0)),""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15.75" customHeight="1">
       <c r="A291" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>26</v>
@@ -7286,12 +7211,12 @@
       </c>
       <c r="E291" s="6" cm="1">
         <f t="array" ref="E291">IF(C291="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C291)*(工作表2!B:B=D291), 0)),""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="15.75" customHeight="1">
       <c r="A292" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>26</v>
@@ -7304,12 +7229,12 @@
       </c>
       <c r="E292" s="6" cm="1">
         <f t="array" ref="E292">IF(C292="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C292)*(工作表2!B:B=D292), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="15.75" customHeight="1">
       <c r="A293" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B293" s="5" t="s">
         <v>26</v>
@@ -7318,16 +7243,16 @@
         <v>73</v>
       </c>
       <c r="D293" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="E293" s="6" cm="1">
+        <v>390</v>
+      </c>
+      <c r="E293" s="6" t="str" cm="1">
         <f t="array" ref="E293">IF(C293="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C293)*(工作表2!B:B=D293), 0)),""))</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="294" spans="1:5" ht="15.75" customHeight="1">
       <c r="A294" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B294" s="5" t="s">
         <v>26</v>
@@ -7340,12 +7265,12 @@
       </c>
       <c r="E294" s="6" cm="1">
         <f t="array" ref="E294">IF(C294="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C294)*(工作表2!B:B=D294), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="15.75" customHeight="1">
       <c r="A295" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>26</v>
@@ -7356,14 +7281,14 @@
       <c r="D295" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E295" s="6" cm="1">
+      <c r="E295" s="6" t="str" cm="1">
         <f t="array" ref="E295">IF(C295="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C295)*(工作表2!B:B=D295), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="296" spans="1:5" ht="15.75" customHeight="1">
       <c r="A296" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B296" s="5" t="s">
         <v>26</v>
@@ -7376,12 +7301,12 @@
       </c>
       <c r="E296" s="6" cm="1">
         <f t="array" ref="E296">IF(C296="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C296)*(工作表2!B:B=D296), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="15.75" customHeight="1">
       <c r="A297" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>26</v>
@@ -7392,14 +7317,14 @@
       <c r="D297" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E297" s="6" cm="1">
+      <c r="E297" s="6" t="str" cm="1">
         <f t="array" ref="E297">IF(C297="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C297)*(工作表2!B:B=D297), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15.75" customHeight="1">
       <c r="A298" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>26</v>
@@ -7412,12 +7337,12 @@
       </c>
       <c r="E298" s="6" cm="1">
         <f t="array" ref="E298">IF(C298="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C298)*(工作表2!B:B=D298), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15.75" customHeight="1">
       <c r="A299" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>26</v>
@@ -7430,12 +7355,12 @@
       </c>
       <c r="E299" s="6" cm="1">
         <f t="array" ref="E299">IF(C299="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C299)*(工作表2!B:B=D299), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15.75" customHeight="1">
       <c r="A300" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>26</v>
@@ -7448,12 +7373,12 @@
       </c>
       <c r="E300" s="6" cm="1">
         <f t="array" ref="E300">IF(C300="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C300)*(工作表2!B:B=D300), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15.75" customHeight="1">
       <c r="A301" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B301" s="5" t="s">
         <v>26</v>
@@ -7466,12 +7391,12 @@
       </c>
       <c r="E301" s="6" cm="1">
         <f t="array" ref="E301">IF(C301="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C301)*(工作表2!B:B=D301), 0)),""))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15.75" customHeight="1">
       <c r="A302" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B302" s="5" t="s">
         <v>26</v>
@@ -7484,12 +7409,12 @@
       </c>
       <c r="E302" s="6" cm="1">
         <f t="array" ref="E302">IF(C302="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C302)*(工作表2!B:B=D302), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15.75" customHeight="1">
       <c r="A303" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>26</v>
@@ -7502,12 +7427,12 @@
       </c>
       <c r="E303" s="6" cm="1">
         <f t="array" ref="E303">IF(C303="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C303)*(工作表2!B:B=D303), 0)),""))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15.75" customHeight="1">
       <c r="A304" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B304" s="5" t="s">
         <v>26</v>
@@ -7520,12 +7445,12 @@
       </c>
       <c r="E304" s="6" cm="1">
         <f t="array" ref="E304">IF(C304="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C304)*(工作表2!B:B=D304), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15.75" customHeight="1">
       <c r="A305" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B305" s="5" t="s">
         <v>26</v>
@@ -7534,16 +7459,16 @@
         <v>73</v>
       </c>
       <c r="D305" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="E305" s="6" cm="1">
+        <v>390</v>
+      </c>
+      <c r="E305" s="6" t="str" cm="1">
         <f t="array" ref="E305">IF(C305="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C305)*(工作表2!B:B=D305), 0)),""))</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15.75" customHeight="1">
       <c r="A306" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>26</v>
@@ -7556,12 +7481,12 @@
       </c>
       <c r="E306" s="6" cm="1">
         <f t="array" ref="E306">IF(C306="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C306)*(工作表2!B:B=D306), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="15.75" customHeight="1">
       <c r="A307" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>26</v>
@@ -7572,14 +7497,14 @@
       <c r="D307" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E307" s="6" cm="1">
+      <c r="E307" s="6" t="str" cm="1">
         <f t="array" ref="E307">IF(C307="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C307)*(工作表2!B:B=D307), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15.75" customHeight="1">
       <c r="A308" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>26</v>
@@ -7588,16 +7513,16 @@
         <v>73</v>
       </c>
       <c r="D308" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="E308" s="6" cm="1">
+        <v>391</v>
+      </c>
+      <c r="E308" s="6" t="str" cm="1">
         <f t="array" ref="E308">IF(C308="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C308)*(工作表2!B:B=D308), 0)),""))</f>
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="309" spans="1:5" ht="15.75" customHeight="1">
       <c r="A309" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>26</v>
@@ -7608,14 +7533,14 @@
       <c r="D309" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E309" s="6" cm="1">
+      <c r="E309" s="6" t="str" cm="1">
         <f t="array" ref="E309">IF(C309="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C309)*(工作表2!B:B=D309), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="310" spans="1:5" ht="15.75" customHeight="1">
       <c r="A310" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B310" s="5" t="s">
         <v>26</v>
@@ -7628,12 +7553,12 @@
       </c>
       <c r="E310" s="6" cm="1">
         <f t="array" ref="E310">IF(C310="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C310)*(工作表2!B:B=D310), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="15.75" customHeight="1">
       <c r="A311" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B311" s="5" t="s">
         <v>26</v>
@@ -7646,12 +7571,12 @@
       </c>
       <c r="E311" s="6" cm="1">
         <f t="array" ref="E311">IF(C311="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C311)*(工作表2!B:B=D311), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="15.75" customHeight="1">
       <c r="A312" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B312" s="5" t="s">
         <v>26</v>
@@ -7664,12 +7589,12 @@
       </c>
       <c r="E312" s="6" cm="1">
         <f t="array" ref="E312">IF(C312="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C312)*(工作表2!B:B=D312), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="15.75" customHeight="1">
       <c r="A313" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>26</v>
@@ -7682,12 +7607,12 @@
       </c>
       <c r="E313" s="6" cm="1">
         <f t="array" ref="E313">IF(C313="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C313)*(工作表2!B:B=D313), 0)),""))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="15.75" customHeight="1">
       <c r="A314" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B314" s="5" t="s">
         <v>26</v>
@@ -7700,12 +7625,12 @@
       </c>
       <c r="E314" s="6" cm="1">
         <f t="array" ref="E314">IF(C314="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C314)*(工作表2!B:B=D314), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15.75" customHeight="1">
       <c r="A315" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>26</v>
@@ -7716,14 +7641,14 @@
       <c r="D315" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E315" s="6" cm="1">
+      <c r="E315" s="6" t="str" cm="1">
         <f t="array" ref="E315">IF(C315="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C315)*(工作表2!B:B=D315), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15.75" customHeight="1">
       <c r="A316" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B316" s="5" t="s">
         <v>26</v>
@@ -7736,12 +7661,12 @@
       </c>
       <c r="E316" s="6" cm="1">
         <f t="array" ref="E316">IF(C316="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C316)*(工作表2!B:B=D316), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="15.75" customHeight="1">
       <c r="A317" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B317" s="5" t="s">
         <v>26</v>
@@ -7752,14 +7677,14 @@
       <c r="D317" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E317" s="6" cm="1">
+      <c r="E317" s="6" t="str" cm="1">
         <f t="array" ref="E317">IF(C317="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C317)*(工作表2!B:B=D317), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="318" spans="1:5" ht="15.75" customHeight="1">
       <c r="A318" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>26</v>
@@ -7770,14 +7695,14 @@
       <c r="D318" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E318" s="6" cm="1">
+      <c r="E318" s="6" t="str" cm="1">
         <f t="array" ref="E318">IF(C318="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C318)*(工作表2!B:B=D318), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="319" spans="1:5" ht="15.75" customHeight="1">
       <c r="A319" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B319" s="5" t="s">
         <v>26</v>
@@ -7790,12 +7715,12 @@
       </c>
       <c r="E319" s="6" cm="1">
         <f t="array" ref="E319">IF(C319="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C319)*(工作表2!B:B=D319), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="15.75" customHeight="1">
       <c r="A320" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B320" s="5" t="s">
         <v>26</v>
@@ -7808,12 +7733,12 @@
       </c>
       <c r="E320" s="6" cm="1">
         <f t="array" ref="E320">IF(C320="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C320)*(工作表2!B:B=D320), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="15.75" customHeight="1">
       <c r="A321" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B321" s="5" t="s">
         <v>26</v>
@@ -7826,12 +7751,12 @@
       </c>
       <c r="E321" s="6" cm="1">
         <f t="array" ref="E321">IF(C321="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C321)*(工作表2!B:B=D321), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="15.75" customHeight="1">
       <c r="A322" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B322" s="5" t="s">
         <v>26</v>
@@ -7844,12 +7769,12 @@
       </c>
       <c r="E322" s="6" cm="1">
         <f t="array" ref="E322">IF(C322="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C322)*(工作表2!B:B=D322), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15.75" customHeight="1">
       <c r="A323" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>26</v>
@@ -7862,12 +7787,12 @@
       </c>
       <c r="E323" s="6" cm="1">
         <f t="array" ref="E323">IF(C323="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C323)*(工作表2!B:B=D323), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15.75" customHeight="1">
       <c r="A324" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B324" s="5" t="s">
         <v>26</v>
@@ -7880,12 +7805,12 @@
       </c>
       <c r="E324" s="6" cm="1">
         <f t="array" ref="E324">IF(C324="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C324)*(工作表2!B:B=D324), 0)),""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="15.75" customHeight="1">
       <c r="A325" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B325" s="5" t="s">
         <v>26</v>
@@ -7898,12 +7823,12 @@
       </c>
       <c r="E325" s="6" cm="1">
         <f t="array" ref="E325">IF(C325="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C325)*(工作表2!B:B=D325), 0)),""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15.75" customHeight="1">
       <c r="A326" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>26</v>
@@ -7914,14 +7839,14 @@
       <c r="D326" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E326" s="6" cm="1">
+      <c r="E326" s="6" t="str" cm="1">
         <f t="array" ref="E326">IF(C326="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C326)*(工作表2!B:B=D326), 0)),""))</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15.75" customHeight="1">
       <c r="A327" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B327" s="5" t="s">
         <v>26</v>
@@ -7934,12 +7859,12 @@
       </c>
       <c r="E327" s="6" cm="1">
         <f t="array" ref="E327">IF(C327="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C327)*(工作表2!B:B=D327), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.75" customHeight="1">
       <c r="A328" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B328" s="5" t="s">
         <v>26</v>
@@ -7952,12 +7877,12 @@
       </c>
       <c r="E328" s="6" cm="1">
         <f t="array" ref="E328">IF(C328="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C328)*(工作表2!B:B=D328), 0)),""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="15.75" customHeight="1">
       <c r="A329" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B329" s="5" t="s">
         <v>26</v>
@@ -7970,12 +7895,12 @@
       </c>
       <c r="E329" s="6" cm="1">
         <f t="array" ref="E329">IF(C329="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C329)*(工作表2!B:B=D329), 0)),""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="15.75" customHeight="1">
       <c r="A330" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B330" s="5" t="s">
         <v>26</v>
@@ -7986,14 +7911,14 @@
       <c r="D330" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E330" s="6" cm="1">
+      <c r="E330" s="6" t="str" cm="1">
         <f t="array" ref="E330">IF(C330="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C330)*(工作表2!B:B=D330), 0)),""))</f>
-        <v>10</v>
+        <v/>
       </c>
     </row>
     <row r="331" spans="1:5" ht="15.75" customHeight="1">
       <c r="A331" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B331" s="5" t="s">
         <v>26</v>
@@ -8002,16 +7927,16 @@
         <v>73</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E331" s="6" cm="1">
+        <v>386</v>
+      </c>
+      <c r="E331" s="6" t="str" cm="1">
         <f t="array" ref="E331">IF(C331="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C331)*(工作表2!B:B=D331), 0)),""))</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" customHeight="1">
       <c r="A332" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B332" s="5" t="s">
         <v>26</v>
@@ -8024,12 +7949,12 @@
       </c>
       <c r="E332" s="6" cm="1">
         <f t="array" ref="E332">IF(C332="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C332)*(工作表2!B:B=D332), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="15.75" customHeight="1">
       <c r="A333" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B333" s="5" t="s">
         <v>26</v>
@@ -8042,12 +7967,12 @@
       </c>
       <c r="E333" s="6" cm="1">
         <f t="array" ref="E333">IF(C333="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C333)*(工作表2!B:B=D333), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="15.75" customHeight="1">
       <c r="A334" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B334" s="5" t="s">
         <v>26</v>
@@ -8058,14 +7983,14 @@
       <c r="D334" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E334" s="6" cm="1">
+      <c r="E334" s="6" t="str" cm="1">
         <f t="array" ref="E334">IF(C334="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C334)*(工作表2!B:B=D334), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="335" spans="1:5" ht="15.75" customHeight="1">
       <c r="A335" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B335" s="5" t="s">
         <v>26</v>
@@ -8074,16 +7999,16 @@
         <v>73</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E335" s="6" cm="1">
+        <v>384</v>
+      </c>
+      <c r="E335" s="6" t="str" cm="1">
         <f t="array" ref="E335">IF(C335="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C335)*(工作表2!B:B=D335), 0)),""))</f>
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="336" spans="1:5" ht="15.75" customHeight="1">
       <c r="A336" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>26</v>
@@ -8096,12 +8021,12 @@
       </c>
       <c r="E336" s="6" cm="1">
         <f t="array" ref="E336">IF(C336="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C336)*(工作表2!B:B=D336), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="15.75" customHeight="1">
       <c r="A337" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B337" s="5" t="s">
         <v>26</v>
@@ -8110,16 +8035,16 @@
         <v>73</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E337" s="6" cm="1">
+        <v>386</v>
+      </c>
+      <c r="E337" s="6" t="str" cm="1">
         <f t="array" ref="E337">IF(C337="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C337)*(工作表2!B:B=D337), 0)),""))</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="338" spans="1:5" ht="15.75" customHeight="1">
       <c r="A338" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B338" s="5" t="s">
         <v>26</v>
@@ -8132,12 +8057,12 @@
       </c>
       <c r="E338" s="6" cm="1">
         <f t="array" ref="E338">IF(C338="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C338)*(工作表2!B:B=D338), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="15.75" customHeight="1">
       <c r="A339" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B339" s="5" t="s">
         <v>26</v>
@@ -8148,14 +8073,14 @@
       <c r="D339" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E339" s="6" cm="1">
+      <c r="E339" s="6" t="str" cm="1">
         <f t="array" ref="E339">IF(C339="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C339)*(工作表2!B:B=D339), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="340" spans="1:5" ht="15.75" customHeight="1">
       <c r="A340" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B340" s="5" t="s">
         <v>26</v>
@@ -8164,16 +8089,16 @@
         <v>73</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E340" s="6" cm="1">
+        <v>384</v>
+      </c>
+      <c r="E340" s="6" t="str" cm="1">
         <f t="array" ref="E340">IF(C340="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C340)*(工作表2!B:B=D340), 0)),""))</f>
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="341" spans="1:5" ht="15.75" customHeight="1">
       <c r="A341" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B341" s="5" t="s">
         <v>26</v>
@@ -8186,12 +8111,12 @@
       </c>
       <c r="E341" s="6" cm="1">
         <f t="array" ref="E341">IF(C341="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C341)*(工作表2!B:B=D341), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="15.75" customHeight="1">
       <c r="A342" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B342" s="5" t="s">
         <v>26</v>
@@ -8202,14 +8127,14 @@
       <c r="D342" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E342" s="6" cm="1">
+      <c r="E342" s="6" t="str" cm="1">
         <f t="array" ref="E342">IF(C342="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C342)*(工作表2!B:B=D342), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="343" spans="1:5" ht="15.75" customHeight="1">
       <c r="A343" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B343" s="5" t="s">
         <v>26</v>
@@ -8222,12 +8147,12 @@
       </c>
       <c r="E343" s="6" cm="1">
         <f t="array" ref="E343">IF(C343="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C343)*(工作表2!B:B=D343), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="15.75" customHeight="1">
       <c r="A344" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B344" s="5" t="s">
         <v>26</v>
@@ -8238,14 +8163,14 @@
       <c r="D344" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E344" s="6" cm="1">
+      <c r="E344" s="6" t="str" cm="1">
         <f t="array" ref="E344">IF(C344="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C344)*(工作表2!B:B=D344), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="345" spans="1:5" ht="15.75" customHeight="1">
       <c r="A345" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B345" s="5" t="s">
         <v>26</v>
@@ -8258,12 +8183,12 @@
       </c>
       <c r="E345" s="6" cm="1">
         <f t="array" ref="E345">IF(C345="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C345)*(工作表2!B:B=D345), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="15.75" customHeight="1">
       <c r="A346" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B346" s="5" t="s">
         <v>26</v>
@@ -8276,12 +8201,12 @@
       </c>
       <c r="E346" s="6" cm="1">
         <f t="array" ref="E346">IF(C346="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C346)*(工作表2!B:B=D346), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="15.75" customHeight="1">
       <c r="A347" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B347" s="5" t="s">
         <v>26</v>
@@ -8294,12 +8219,12 @@
       </c>
       <c r="E347" s="6" cm="1">
         <f t="array" ref="E347">IF(C347="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C347)*(工作表2!B:B=D347), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="15.75" customHeight="1">
       <c r="A348" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B348" s="5" t="s">
         <v>26</v>
@@ -8310,14 +8235,14 @@
       <c r="D348" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E348" s="6" cm="1">
+      <c r="E348" s="6" t="str" cm="1">
         <f t="array" ref="E348">IF(C348="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C348)*(工作表2!B:B=D348), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="349" spans="1:5" ht="15.75" customHeight="1">
       <c r="A349" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B349" s="5" t="s">
         <v>26</v>
@@ -8330,12 +8255,12 @@
       </c>
       <c r="E349" s="6" cm="1">
         <f t="array" ref="E349">IF(C349="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C349)*(工作表2!B:B=D349), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="15.75" customHeight="1">
       <c r="A350" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B350" s="5" t="s">
         <v>26</v>
@@ -8346,14 +8271,14 @@
       <c r="D350" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E350" s="6" cm="1">
+      <c r="E350" s="6" t="str" cm="1">
         <f t="array" ref="E350">IF(C350="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C350)*(工作表2!B:B=D350), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="351" spans="1:5" ht="15.75" customHeight="1">
       <c r="A351" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B351" s="5" t="s">
         <v>26</v>
@@ -8364,14 +8289,14 @@
       <c r="D351" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E351" s="6" cm="1">
+      <c r="E351" s="6" t="str" cm="1">
         <f t="array" ref="E351">IF(C351="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C351)*(工作表2!B:B=D351), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="352" spans="1:5" ht="15.75" customHeight="1">
       <c r="A352" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B352" s="5" t="s">
         <v>26</v>
@@ -8384,12 +8309,12 @@
       </c>
       <c r="E352" s="6" cm="1">
         <f t="array" ref="E352">IF(C352="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C352)*(工作表2!B:B=D352), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="15.75" customHeight="1">
       <c r="A353" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B353" s="5" t="s">
         <v>26</v>
@@ -8400,14 +8325,14 @@
       <c r="D353" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E353" s="6" cm="1">
+      <c r="E353" s="6" t="str" cm="1">
         <f t="array" ref="E353">IF(C353="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C353)*(工作表2!B:B=D353), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="354" spans="1:5" ht="15.75" customHeight="1">
       <c r="A354" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B354" s="5" t="s">
         <v>26</v>
@@ -8420,12 +8345,12 @@
       </c>
       <c r="E354" s="6" cm="1">
         <f t="array" ref="E354">IF(C354="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C354)*(工作表2!B:B=D354), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="15.75" customHeight="1">
       <c r="A355" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B355" s="5" t="s">
         <v>26</v>
@@ -8436,14 +8361,14 @@
       <c r="D355" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E355" s="6" cm="1">
+      <c r="E355" s="6" t="str" cm="1">
         <f t="array" ref="E355">IF(C355="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C355)*(工作表2!B:B=D355), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="356" spans="1:5" ht="15.75" customHeight="1">
       <c r="A356" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B356" s="5" t="s">
         <v>26</v>
@@ -8456,12 +8381,12 @@
       </c>
       <c r="E356" s="6" cm="1">
         <f t="array" ref="E356">IF(C356="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C356)*(工作表2!B:B=D356), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="15.75" customHeight="1">
       <c r="A357" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B357" s="5" t="s">
         <v>26</v>
@@ -8472,14 +8397,14 @@
       <c r="D357" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E357" s="6" cm="1">
+      <c r="E357" s="6" t="str" cm="1">
         <f t="array" ref="E357">IF(C357="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C357)*(工作表2!B:B=D357), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="358" spans="1:5" ht="15.75" customHeight="1">
       <c r="A358" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B358" s="5" t="s">
         <v>26</v>
@@ -8492,12 +8417,12 @@
       </c>
       <c r="E358" s="6" cm="1">
         <f t="array" ref="E358">IF(C358="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C358)*(工作表2!B:B=D358), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="15.75" customHeight="1">
       <c r="A359" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B359" s="5" t="s">
         <v>26</v>
@@ -8510,12 +8435,12 @@
       </c>
       <c r="E359" s="6" cm="1">
         <f t="array" ref="E359">IF(C359="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C359)*(工作表2!B:B=D359), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="15.75" customHeight="1">
       <c r="A360" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B360" s="5" t="s">
         <v>26</v>
@@ -8528,12 +8453,12 @@
       </c>
       <c r="E360" s="6" cm="1">
         <f t="array" ref="E360">IF(C360="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C360)*(工作表2!B:B=D360), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="15.75" customHeight="1">
       <c r="A361" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B361" s="5" t="s">
         <v>26</v>
@@ -8544,14 +8469,14 @@
       <c r="D361" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E361" s="6" cm="1">
+      <c r="E361" s="6" t="str" cm="1">
         <f t="array" ref="E361">IF(C361="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C361)*(工作表2!B:B=D361), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="362" spans="1:5" ht="15.75" customHeight="1">
       <c r="A362" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B362" s="5" t="s">
         <v>26</v>
@@ -8564,12 +8489,12 @@
       </c>
       <c r="E362" s="6" cm="1">
         <f t="array" ref="E362">IF(C362="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C362)*(工作表2!B:B=D362), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="15.75" customHeight="1">
       <c r="A363" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B363" s="5" t="s">
         <v>26</v>
@@ -8580,14 +8505,14 @@
       <c r="D363" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E363" s="6" cm="1">
+      <c r="E363" s="6" t="str" cm="1">
         <f t="array" ref="E363">IF(C363="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C363)*(工作表2!B:B=D363), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="364" spans="1:5" ht="15.75" customHeight="1">
       <c r="A364" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B364" s="5" t="s">
         <v>26</v>
@@ -8600,12 +8525,12 @@
       </c>
       <c r="E364" s="6" cm="1">
         <f t="array" ref="E364">IF(C364="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C364)*(工作表2!B:B=D364), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="15.75" customHeight="1">
       <c r="A365" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B365" s="5" t="s">
         <v>26</v>
@@ -8618,12 +8543,12 @@
       </c>
       <c r="E365" s="6" cm="1">
         <f t="array" ref="E365">IF(C365="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C365)*(工作表2!B:B=D365), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="15.75" customHeight="1">
       <c r="A366" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B366" s="5" t="s">
         <v>26</v>
@@ -8636,12 +8561,12 @@
       </c>
       <c r="E366" s="6" cm="1">
         <f t="array" ref="E366">IF(C366="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C366)*(工作表2!B:B=D366), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="15.75" customHeight="1">
       <c r="A367" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B367" s="5" t="s">
         <v>26</v>
@@ -8652,14 +8577,14 @@
       <c r="D367" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E367" s="6" cm="1">
+      <c r="E367" s="6" t="str" cm="1">
         <f t="array" ref="E367">IF(C367="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C367)*(工作表2!B:B=D367), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="368" spans="1:5" ht="15.75" customHeight="1">
       <c r="A368" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B368" s="5" t="s">
         <v>26</v>
@@ -8672,12 +8597,12 @@
       </c>
       <c r="E368" s="6" cm="1">
         <f t="array" ref="E368">IF(C368="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C368)*(工作表2!B:B=D368), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="15.75" customHeight="1">
       <c r="A369" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B369" s="5" t="s">
         <v>26</v>
@@ -8688,14 +8613,14 @@
       <c r="D369" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E369" s="6" cm="1">
+      <c r="E369" s="6" t="str" cm="1">
         <f t="array" ref="E369">IF(C369="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C369)*(工作表2!B:B=D369), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="370" spans="1:5" ht="15.75" customHeight="1">
       <c r="A370" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B370" s="5" t="s">
         <v>26</v>
@@ -8708,12 +8633,12 @@
       </c>
       <c r="E370" s="6" cm="1">
         <f t="array" ref="E370">IF(C370="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C370)*(工作表2!B:B=D370), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="15.75" customHeight="1">
       <c r="A371" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B371" s="5" t="s">
         <v>26</v>
@@ -8726,12 +8651,12 @@
       </c>
       <c r="E371" s="6" cm="1">
         <f t="array" ref="E371">IF(C371="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C371)*(工作表2!B:B=D371), 0)),""))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="15.75" customHeight="1">
       <c r="A372" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B372" s="5" t="s">
         <v>26</v>
@@ -8744,12 +8669,12 @@
       </c>
       <c r="E372" s="6" cm="1">
         <f t="array" ref="E372">IF(C372="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C372)*(工作表2!B:B=D372), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="15.75" customHeight="1">
       <c r="A373" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B373" s="5" t="s">
         <v>26</v>
@@ -8760,14 +8685,14 @@
       <c r="D373" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E373" s="6" cm="1">
+      <c r="E373" s="6" t="str" cm="1">
         <f t="array" ref="E373">IF(C373="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C373)*(工作表2!B:B=D373), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="374" spans="1:5" ht="15.75" customHeight="1">
       <c r="A374" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B374" s="5" t="s">
         <v>26</v>
@@ -8780,12 +8705,12 @@
       </c>
       <c r="E374" s="6" cm="1">
         <f t="array" ref="E374">IF(C374="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C374)*(工作表2!B:B=D374), 0)),""))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="15.75" customHeight="1">
       <c r="A375" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B375" s="5" t="s">
         <v>26</v>
@@ -8803,7 +8728,7 @@
     </row>
     <row r="376" spans="1:5" ht="15.75" customHeight="1">
       <c r="A376" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B376" s="5" t="s">
         <v>26</v>
@@ -8812,16 +8737,16 @@
         <v>73</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E376" s="6" cm="1">
+        <v>294</v>
+      </c>
+      <c r="E376" s="6" t="str" cm="1">
         <f t="array" ref="E376">IF(C376="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C376)*(工作表2!B:B=D376), 0)),""))</f>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="377" spans="1:5" ht="15.75" customHeight="1">
       <c r="A377" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B377" s="5" t="s">
         <v>26</v>
@@ -8830,16 +8755,16 @@
         <v>73</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E377" s="6" cm="1">
+        <v>384</v>
+      </c>
+      <c r="E377" s="6" t="str" cm="1">
         <f t="array" ref="E377">IF(C377="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C377)*(工作表2!B:B=D377), 0)),""))</f>
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="378" spans="1:5" ht="15.75" customHeight="1">
       <c r="A378" s="9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B378" s="5" t="s">
         <v>26</v>
@@ -8848,16 +8773,16 @@
         <v>73</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E378" s="6" cm="1">
+        <v>384</v>
+      </c>
+      <c r="E378" s="6" t="str" cm="1">
         <f t="array" ref="E378">IF(C378="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C378)*(工作表2!B:B=D378), 0)),""))</f>
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="379" spans="1:5" ht="15.75" customHeight="1">
       <c r="A379" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B379" s="5" t="s">
         <v>26</v>
@@ -8866,16 +8791,16 @@
         <v>73</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E379" s="6" cm="1">
+        <v>384</v>
+      </c>
+      <c r="E379" s="6" t="str" cm="1">
         <f t="array" ref="E379">IF(C379="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C379)*(工作表2!B:B=D379), 0)),""))</f>
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="380" spans="1:5" ht="15.75" customHeight="1">
       <c r="A380" s="9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B380" s="5" t="s">
         <v>26</v>
@@ -8884,16 +8809,16 @@
         <v>73</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E380" s="6" cm="1">
+        <v>384</v>
+      </c>
+      <c r="E380" s="6" t="str" cm="1">
         <f t="array" ref="E380">IF(C380="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C380)*(工作表2!B:B=D380), 0)),""))</f>
-        <v>18</v>
+        <v/>
       </c>
     </row>
     <row r="381" spans="1:5" ht="15.75" customHeight="1">
       <c r="A381" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B381" s="5" t="s">
         <v>26</v>
@@ -8906,12 +8831,12 @@
       </c>
       <c r="E381" s="6" cm="1">
         <f t="array" ref="E381">IF(C381="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C381)*(工作表2!B:B=D381), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="15.75" customHeight="1">
       <c r="A382" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B382" s="5" t="s">
         <v>26</v>
@@ -8924,12 +8849,12 @@
       </c>
       <c r="E382" s="6" cm="1">
         <f t="array" ref="E382">IF(C382="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C382)*(工作表2!B:B=D382), 0)),""))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="15.75" customHeight="1">
       <c r="A383" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B383" s="5" t="s">
         <v>26</v>
@@ -8940,14 +8865,14 @@
       <c r="D383" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E383" s="6" cm="1">
+      <c r="E383" s="6" t="str" cm="1">
         <f t="array" ref="E383">IF(C383="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C383)*(工作表2!B:B=D383), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="384" spans="1:5" ht="15.75" customHeight="1">
       <c r="A384" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B384" s="5" t="s">
         <v>26</v>
@@ -8958,14 +8883,14 @@
       <c r="D384" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E384" s="6" cm="1">
+      <c r="E384" s="6" t="str" cm="1">
         <f t="array" ref="E384">IF(C384="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C384)*(工作表2!B:B=D384), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="385" spans="1:5" ht="15.75" customHeight="1">
       <c r="A385" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B385" s="5" t="s">
         <v>26</v>
@@ -8978,12 +8903,12 @@
       </c>
       <c r="E385" s="6" cm="1">
         <f t="array" ref="E385">IF(C385="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C385)*(工作表2!B:B=D385), 0)),""))</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="15.75" customHeight="1">
       <c r="A386" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B386" s="5" t="s">
         <v>26</v>
@@ -8996,12 +8921,12 @@
       </c>
       <c r="E386" s="6" cm="1">
         <f t="array" ref="E386">IF(C386="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C386)*(工作表2!B:B=D386), 0)),""))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" customHeight="1">
       <c r="A387" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B387" s="5" t="s">
         <v>26</v>
@@ -9014,12 +8939,12 @@
       </c>
       <c r="E387" s="6" cm="1">
         <f t="array" ref="E387">IF(C387="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C387)*(工作表2!B:B=D387), 0)),""))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="15.75" customHeight="1">
       <c r="A388" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B388" s="5" t="s">
         <v>26</v>
@@ -9028,16 +8953,16 @@
         <v>73</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E388" s="6" cm="1">
+        <v>386</v>
+      </c>
+      <c r="E388" s="6" t="str" cm="1">
         <f t="array" ref="E388">IF(C388="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C388)*(工作表2!B:B=D388), 0)),""))</f>
-        <v>12</v>
+        <v/>
       </c>
     </row>
     <row r="389" spans="1:5" ht="15.75" customHeight="1">
       <c r="A389" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B389" s="5" t="s">
         <v>26</v>
@@ -9048,14 +8973,14 @@
       <c r="D389" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E389" s="6" cm="1">
+      <c r="E389" s="6" t="str" cm="1">
         <f t="array" ref="E389">IF(C389="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C389)*(工作表2!B:B=D389), 0)),""))</f>
-        <v>20</v>
+        <v/>
       </c>
     </row>
     <row r="390" spans="1:5" ht="15.75" customHeight="1">
       <c r="A390" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B390" s="5" t="s">
         <v>26</v>
@@ -9066,14 +8991,14 @@
       <c r="D390" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E390" s="6" cm="1">
+      <c r="E390" s="6" t="str" cm="1">
         <f t="array" ref="E390">IF(C390="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C390)*(工作表2!B:B=D390), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="391" spans="1:5" ht="15.75" customHeight="1">
       <c r="A391" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B391" s="5" t="s">
         <v>26</v>
@@ -9084,14 +9009,14 @@
       <c r="D391" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E391" s="6" cm="1">
+      <c r="E391" s="6" t="str" cm="1">
         <f t="array" ref="E391">IF(C391="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C391)*(工作表2!B:B=D391), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="392" spans="1:5" ht="15.75" customHeight="1">
       <c r="A392" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B392" s="5" t="s">
         <v>26</v>
@@ -9102,14 +9027,14 @@
       <c r="D392" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E392" s="6" cm="1">
+      <c r="E392" s="6" t="str" cm="1">
         <f t="array" ref="E392">IF(C392="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C392)*(工作表2!B:B=D392), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="393" spans="1:5" ht="15.75" customHeight="1">
       <c r="A393" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B393" s="5" t="s">
         <v>26</v>
@@ -9120,14 +9045,14 @@
       <c r="D393" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E393" s="6" cm="1">
+      <c r="E393" s="6" t="str" cm="1">
         <f t="array" ref="E393">IF(C393="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C393)*(工作表2!B:B=D393), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="394" spans="1:5" ht="15.75" customHeight="1">
       <c r="A394" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B394" s="5" t="s">
         <v>26</v>
@@ -9138,14 +9063,14 @@
       <c r="D394" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E394" s="6" cm="1">
+      <c r="E394" s="6" t="str" cm="1">
         <f t="array" ref="E394">IF(C394="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C394)*(工作表2!B:B=D394), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="395" spans="1:5" ht="15.75" customHeight="1">
       <c r="A395" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B395" s="5" t="s">
         <v>26</v>
@@ -9156,14 +9081,14 @@
       <c r="D395" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E395" s="6" cm="1">
+      <c r="E395" s="6" t="str" cm="1">
         <f t="array" ref="E395">IF(C395="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C395)*(工作表2!B:B=D395), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="396" spans="1:5" ht="15.75" customHeight="1">
       <c r="A396" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B396" s="5" t="s">
         <v>26</v>
@@ -9174,14 +9099,14 @@
       <c r="D396" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E396" s="6" cm="1">
+      <c r="E396" s="6" t="str" cm="1">
         <f t="array" ref="E396">IF(C396="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C396)*(工作表2!B:B=D396), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="397" spans="1:5" ht="15.75" customHeight="1">
       <c r="A397" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B397" s="5" t="s">
         <v>26</v>
@@ -9192,14 +9117,14 @@
       <c r="D397" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E397" s="6" cm="1">
+      <c r="E397" s="6" t="str" cm="1">
         <f t="array" ref="E397">IF(C397="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C397)*(工作表2!B:B=D397), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="398" spans="1:5" ht="15.75" customHeight="1">
       <c r="A398" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B398" s="5" t="s">
         <v>26</v>
@@ -9210,14 +9135,14 @@
       <c r="D398" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E398" s="6" cm="1">
+      <c r="E398" s="6" t="str" cm="1">
         <f t="array" ref="E398">IF(C398="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C398)*(工作表2!B:B=D398), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="399" spans="1:5" ht="15.75" customHeight="1">
       <c r="A399" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B399" s="5" t="s">
         <v>26</v>
@@ -9228,14 +9153,14 @@
       <c r="D399" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E399" s="6" cm="1">
+      <c r="E399" s="6" t="str" cm="1">
         <f t="array" ref="E399">IF(C399="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C399)*(工作表2!B:B=D399), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="400" spans="1:5" ht="15.75" customHeight="1">
       <c r="A400" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B400" s="5" t="s">
         <v>26</v>
@@ -9246,14 +9171,14 @@
       <c r="D400" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E400" s="6" cm="1">
+      <c r="E400" s="6" t="str" cm="1">
         <f t="array" ref="E400">IF(C400="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C400)*(工作表2!B:B=D400), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="401" spans="1:5" ht="15.75" customHeight="1">
       <c r="A401" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B401" s="5" t="s">
         <v>26</v>
@@ -9271,7 +9196,7 @@
     </row>
     <row r="402" spans="1:5" ht="15.75" customHeight="1">
       <c r="A402" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B402" s="5" t="s">
         <v>26</v>
@@ -9284,12 +9209,12 @@
       </c>
       <c r="E402" s="6" cm="1">
         <f t="array" ref="E402">IF(C402="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C402)*(工作表2!B:B=D402), 0)),""))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="15.75" customHeight="1">
       <c r="A403" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B403" s="5" t="s">
         <v>26</v>
@@ -9307,7 +9232,7 @@
     </row>
     <row r="404" spans="1:5" ht="15.75" customHeight="1">
       <c r="A404" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B404" s="5" t="s">
         <v>26</v>
@@ -9318,14 +9243,14 @@
       <c r="D404" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E404" s="6" cm="1">
+      <c r="E404" s="6" t="str" cm="1">
         <f t="array" ref="E404">IF(C404="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C404)*(工作表2!B:B=D404), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="405" spans="1:5" ht="15.75" customHeight="1">
       <c r="A405" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B405" s="5" t="s">
         <v>26</v>
@@ -9336,14 +9261,14 @@
       <c r="D405" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E405" s="6" cm="1">
+      <c r="E405" s="6" t="str" cm="1">
         <f t="array" ref="E405">IF(C405="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C405)*(工作表2!B:B=D405), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="406" spans="1:5" ht="15.75" customHeight="1">
       <c r="A406" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B406" s="5" t="s">
         <v>26</v>
@@ -9354,14 +9279,14 @@
       <c r="D406" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E406" s="6" cm="1">
+      <c r="E406" s="6" t="str" cm="1">
         <f t="array" ref="E406">IF(C406="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C406)*(工作表2!B:B=D406), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="407" spans="1:5" ht="15.75" customHeight="1">
       <c r="A407" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B407" s="5" t="s">
         <v>26</v>
@@ -9372,14 +9297,14 @@
       <c r="D407" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E407" s="6" cm="1">
+      <c r="E407" s="6" t="str" cm="1">
         <f t="array" ref="E407">IF(C407="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C407)*(工作表2!B:B=D407), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="408" spans="1:5" ht="15.75" customHeight="1">
       <c r="A408" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B408" s="5" t="s">
         <v>26</v>
@@ -9390,14 +9315,14 @@
       <c r="D408" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E408" s="6" cm="1">
+      <c r="E408" s="6" t="str" cm="1">
         <f t="array" ref="E408">IF(C408="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C408)*(工作表2!B:B=D408), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="409" spans="1:5" ht="15.75" customHeight="1">
       <c r="A409" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B409" s="5" t="s">
         <v>26</v>
@@ -9408,14 +9333,14 @@
       <c r="D409" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E409" s="6" cm="1">
+      <c r="E409" s="6" t="str" cm="1">
         <f t="array" ref="E409">IF(C409="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C409)*(工作表2!B:B=D409), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="410" spans="1:5" ht="15.75" customHeight="1">
       <c r="A410" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B410" s="5" t="s">
         <v>26</v>
@@ -9426,14 +9351,14 @@
       <c r="D410" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E410" s="6" cm="1">
+      <c r="E410" s="6" t="str" cm="1">
         <f t="array" ref="E410">IF(C410="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C410)*(工作表2!B:B=D410), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="411" spans="1:5" ht="15.75" customHeight="1">
       <c r="A411" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B411" s="5" t="s">
         <v>26</v>
@@ -9444,14 +9369,14 @@
       <c r="D411" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E411" s="6" cm="1">
+      <c r="E411" s="6" t="str" cm="1">
         <f t="array" ref="E411">IF(C411="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C411)*(工作表2!B:B=D411), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="412" spans="1:5" ht="15.75" customHeight="1">
       <c r="A412" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B412" s="5" t="s">
         <v>26</v>
@@ -9462,14 +9387,14 @@
       <c r="D412" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E412" s="6" cm="1">
+      <c r="E412" s="6" t="str" cm="1">
         <f t="array" ref="E412">IF(C412="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C412)*(工作表2!B:B=D412), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="413" spans="1:5" ht="15.75" customHeight="1">
       <c r="A413" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B413" s="5" t="s">
         <v>26</v>
@@ -9480,14 +9405,14 @@
       <c r="D413" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E413" s="6" cm="1">
+      <c r="E413" s="6" t="str" cm="1">
         <f t="array" ref="E413">IF(C413="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C413)*(工作表2!B:B=D413), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="414" spans="1:5" ht="15.75" customHeight="1">
       <c r="A414" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B414" s="5" t="s">
         <v>26</v>
@@ -9498,14 +9423,14 @@
       <c r="D414" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E414" s="6" cm="1">
+      <c r="E414" s="6" t="str" cm="1">
         <f t="array" ref="E414">IF(C414="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C414)*(工作表2!B:B=D414), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="415" spans="1:5" ht="15.75" customHeight="1">
       <c r="A415" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B415" s="5" t="s">
         <v>26</v>
@@ -9516,14 +9441,14 @@
       <c r="D415" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E415" s="6" cm="1">
+      <c r="E415" s="6" t="str" cm="1">
         <f t="array" ref="E415">IF(C415="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C415)*(工作表2!B:B=D415), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="416" spans="1:5" ht="15.75" customHeight="1">
       <c r="A416" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B416" s="5" t="s">
         <v>26</v>
@@ -9534,14 +9459,14 @@
       <c r="D416" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E416" s="6" cm="1">
+      <c r="E416" s="6" t="str" cm="1">
         <f t="array" ref="E416">IF(C416="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C416)*(工作表2!B:B=D416), 0)),""))</f>
-        <v>22</v>
+        <v/>
       </c>
     </row>
     <row r="417" spans="1:5" ht="15.75" customHeight="1">
       <c r="A417" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B417" s="5" t="s">
         <v>26</v>
@@ -9552,14 +9477,14 @@
       <c r="D417" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E417" s="6" cm="1">
+      <c r="E417" s="6" t="str" cm="1">
         <f t="array" ref="E417">IF(C417="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C417)*(工作表2!B:B=D417), 0)),""))</f>
-        <v>23</v>
+        <v/>
       </c>
     </row>
     <row r="418" spans="1:5" ht="15.75" customHeight="1">
       <c r="A418" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B418" s="5" t="s">
         <v>26</v>
@@ -9577,7 +9502,7 @@
     </row>
     <row r="419" spans="1:5" ht="15.75" customHeight="1">
       <c r="A419" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B419" s="5" t="s">
         <v>26</v>
@@ -9586,11 +9511,11 @@
         <v>73</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E419" s="6" cm="1">
+        <v>476</v>
+      </c>
+      <c r="E419" s="6" t="str" cm="1">
         <f t="array" ref="E419">IF(C419="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C419)*(工作表2!B:B=D419), 0)),""))</f>
-        <v>5</v>
+        <v/>
       </c>
     </row>
     <row r="420" spans="1:5" ht="15.75" customHeight="1">
@@ -15157,15 +15082,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8C8A2-9E36-4713-9962-51737FEB24B2}">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75:C98"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="135" workbookViewId="0">
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="20.90625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -16008,8 +15933,8 @@
       <c r="A77" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="17" t="s">
-        <v>480</v>
+      <c r="B77" t="s">
+        <v>477</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -16019,8 +15944,8 @@
       <c r="A78" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>296</v>
+      <c r="B78" t="s">
+        <v>38</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -16031,7 +15956,7 @@
         <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C79">
         <v>7</v>
@@ -16063,8 +15988,8 @@
       <c r="A82" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>100</v>
+      <c r="B82" t="s">
+        <v>13</v>
       </c>
       <c r="C82">
         <v>10</v>
@@ -16075,7 +16000,7 @@
         <v>48</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C83">
         <v>11</v>
@@ -16085,8 +16010,8 @@
       <c r="A84" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B84" s="17" t="s">
-        <v>386</v>
+      <c r="B84" t="s">
+        <v>42</v>
       </c>
       <c r="C84">
         <v>12</v>
@@ -16097,7 +16022,7 @@
         <v>48</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C85">
         <v>13</v>
@@ -16108,7 +16033,7 @@
         <v>48</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C86">
         <v>14</v>
@@ -16118,8 +16043,8 @@
       <c r="A87" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="17" t="s">
-        <v>387</v>
+      <c r="B87" t="s">
+        <v>45</v>
       </c>
       <c r="C87">
         <v>15</v>
@@ -16129,8 +16054,8 @@
       <c r="A88" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B88" t="s">
-        <v>43</v>
+      <c r="B88" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C88">
         <v>16</v>
@@ -16140,8 +16065,8 @@
       <c r="A89" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B89" t="s">
-        <v>44</v>
+      <c r="B89" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C89">
         <v>17</v>
@@ -16151,8 +16076,8 @@
       <c r="A90" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>389</v>
+      <c r="B90" s="8" t="s">
+        <v>478</v>
       </c>
       <c r="C90">
         <v>18</v>
@@ -16162,8 +16087,8 @@
       <c r="A91" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B91" t="s">
-        <v>45</v>
+      <c r="B91" s="8" t="s">
+        <v>479</v>
       </c>
       <c r="C91">
         <v>19</v>
@@ -16173,77 +16098,66 @@
       <c r="A92" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>80</v>
+      <c r="B92" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="C92">
         <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13">
-      <c r="A93" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C93">
-        <v>21</v>
+      <c r="A93" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13">
-      <c r="A94" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C94">
-        <v>22</v>
+      <c r="A94" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13">
-      <c r="A95" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C95">
-        <v>23</v>
+      <c r="A95" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13">
-      <c r="A96" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96">
-        <v>24</v>
+      <c r="A96" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C96" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13">
-      <c r="A97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C97">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="13">
-      <c r="A98" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C98">
-        <v>26</v>
+      <c r="A97" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C97" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/訓練資料集(上衣).xlsx
+++ b/訓練資料集(上衣).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4726ECF6-838F-8743-89B0-F9C87F4AC3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B92272-3771-0C42-A963-D9574BFBB3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6989" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7178" uniqueCount="1765">
   <si>
     <t>URL</t>
   </si>
@@ -6962,12 +6962,93 @@
       <t>上身</t>
     </r>
   </si>
+  <si>
+    <t>雙面外套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>情境平拍背面</t>
+  </si>
+  <si>
+    <t>男女模特正面</t>
+  </si>
+  <si>
+    <t>男女模特背面</t>
+  </si>
+  <si>
+    <t>模特內層</t>
+  </si>
+  <si>
+    <t>_Fin_Model_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>內層</t>
+  </si>
+  <si>
+    <t>_Fin_Torso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>三合一外套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>情境模特正面</t>
+  </si>
+  <si>
+    <t>情境模特側面</t>
+  </si>
+  <si>
+    <t>情境模特背面</t>
+  </si>
+  <si>
+    <t>套裝上身正面</t>
+  </si>
+  <si>
+    <t>_Ftp_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝上身背面</t>
+  </si>
+  <si>
+    <t>_Fbp_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝下身正面</t>
+  </si>
+  <si>
+    <t>_Btp_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝下身背面</t>
+  </si>
+  <si>
+    <t>_Bbp_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套裝上身特寫</t>
+  </si>
+  <si>
+    <t>套裝下身特寫</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7098,8 +7179,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7136,6 +7224,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F290"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CCDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2FFE9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -7150,7 +7262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7188,6 +7300,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -7409,7 +7526,7 @@
   </sheetPr>
   <dimension ref="A1:E1659"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1620" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1579" sqref="G1579"/>
     </sheetView>
@@ -37666,10 +37783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8C8A2-9E36-4713-9962-51737FEB24B2}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="135" workbookViewId="0">
-      <selection activeCell="I108" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="135" workbookViewId="0">
+      <selection activeCell="J75" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -39166,7 +39283,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="16">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -39177,7 +39294,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="16">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B114" s="4" t="s">
@@ -39188,7 +39305,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="16">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -39199,7 +39316,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="16">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -39210,7 +39327,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="16">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -39221,7 +39338,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="16">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B118" s="4" t="s">
@@ -39232,7 +39349,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="16">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -39243,7 +39360,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="16">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B120" s="4" t="s">
@@ -39254,7 +39371,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="16">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B121" s="4" t="s">
@@ -39268,7 +39385,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="16">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B122" s="4" t="s">
@@ -39282,7 +39399,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="16">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -39296,7 +39413,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="16">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -39310,7 +39427,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="16">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -39324,7 +39441,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="16">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -39338,7 +39455,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="16">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -39352,7 +39469,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="16">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -39368,8 +39485,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16">
-      <c r="A129" s="2" t="s">
+    <row r="129" spans="1:5" ht="16">
+      <c r="A129" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -39385,8 +39502,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16">
-      <c r="A130" s="2" t="s">
+    <row r="130" spans="1:5" ht="16">
+      <c r="A130" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -39402,8 +39519,8 @@
         <v>458</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16">
-      <c r="A131" s="2" t="s">
+    <row r="131" spans="1:5" ht="16">
+      <c r="A131" s="23" t="s">
         <v>470</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -39412,23 +39529,945 @@
       <c r="C131">
         <v>19</v>
       </c>
-      <c r="D131" t="s">
+    </row>
+    <row r="132" spans="1:5" ht="16">
+      <c r="A132" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="C132">
+        <v>20</v>
+      </c>
+      <c r="D132" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="16">
+      <c r="A133" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C133">
+        <v>21</v>
+      </c>
+      <c r="D133" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="16">
+      <c r="A134" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="16">
+      <c r="A135" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="16">
+      <c r="A136" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="16">
+      <c r="A137" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="16">
+      <c r="A138" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16">
+      <c r="A139" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="16">
+      <c r="A140" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="16">
+      <c r="A141" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="16">
+      <c r="A142" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="16">
+      <c r="A143" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="16">
+      <c r="A144" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C144">
+        <v>11</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="16">
+      <c r="A145" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145">
+        <v>12</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="16">
+      <c r="A146" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C146">
+        <v>13</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="16">
+      <c r="A147" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="16">
+      <c r="A148" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="16">
+      <c r="A149" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C149">
+        <v>16</v>
+      </c>
+      <c r="D149" s="25" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="16">
+      <c r="A150" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C150">
+        <v>17</v>
+      </c>
+      <c r="D150" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="16">
+      <c r="A151" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C151">
+        <v>18</v>
+      </c>
+      <c r="D151" t="s">
         <v>451</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E151" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="16">
+      <c r="A152" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C152">
+        <v>19</v>
+      </c>
+      <c r="D152" t="s">
         <v>452</v>
       </c>
-      <c r="F131" t="s">
+      <c r="E152" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="16">
+      <c r="A153" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C153">
+        <v>20</v>
+      </c>
+      <c r="D153" t="s">
         <v>453</v>
       </c>
-      <c r="G131" t="s">
+      <c r="E153" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="16">
+      <c r="A154" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="16">
+      <c r="A155" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C155">
+        <v>22</v>
+      </c>
+      <c r="D155" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="16">
+      <c r="A156" s="24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156">
+        <v>23</v>
+      </c>
+      <c r="D156" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="16">
+      <c r="A157" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="16">
+      <c r="A158" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="16">
+      <c r="A159" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="16">
+      <c r="A160" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="16">
+      <c r="A161" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="16">
+      <c r="A162" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="16">
+      <c r="A163" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="16">
+      <c r="A164" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="16">
+      <c r="A165" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="16">
+      <c r="A166" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="16">
+      <c r="A167" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C167">
+        <v>11</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="16">
+      <c r="A168" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="16">
+      <c r="A169" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C169">
+        <v>13</v>
+      </c>
+      <c r="D169" s="25" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="16">
+      <c r="A170" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C170">
+        <v>14</v>
+      </c>
+      <c r="D170" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="16">
+      <c r="A171" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="16">
+      <c r="A172" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C172">
+        <v>16</v>
+      </c>
+      <c r="D172" s="25" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="16">
+      <c r="A173" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C173">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="16">
+      <c r="A174" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C174">
+        <v>18</v>
+      </c>
+      <c r="D174" t="s">
+        <v>451</v>
+      </c>
+      <c r="E174" t="s">
         <v>454</v>
       </c>
-      <c r="H131" t="s">
+    </row>
+    <row r="175" spans="1:5" ht="16">
+      <c r="A175" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C175">
+        <v>19</v>
+      </c>
+      <c r="D175" t="s">
+        <v>452</v>
+      </c>
+      <c r="E175" t="s">
         <v>455</v>
       </c>
-      <c r="I131" t="s">
+    </row>
+    <row r="176" spans="1:5" ht="16">
+      <c r="A176" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C176">
+        <v>20</v>
+      </c>
+      <c r="D176" t="s">
+        <v>453</v>
+      </c>
+      <c r="E176" t="s">
         <v>458</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="16">
+      <c r="A177" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="16">
+      <c r="A178" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C178">
+        <v>22</v>
+      </c>
+      <c r="D178" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="16">
+      <c r="A179" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C179">
+        <v>23</v>
+      </c>
+      <c r="D179" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="16">
+      <c r="A180" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16">
+      <c r="A181" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="16">
+      <c r="A182" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16">
+      <c r="A183" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="16">
+      <c r="A184" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="16">
+      <c r="A185" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C185">
+        <v>6</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16">
+      <c r="A186" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C186">
+        <v>7</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="16">
+      <c r="A187" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C187">
+        <v>8</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16">
+      <c r="A188" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C188">
+        <v>9</v>
+      </c>
+      <c r="D188" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="16">
+      <c r="A189" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C189">
+        <v>10</v>
+      </c>
+      <c r="D189" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16">
+      <c r="A190" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C190">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="16">
+      <c r="A191" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C191">
+        <v>12</v>
+      </c>
+      <c r="D191" s="25" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16">
+      <c r="A192" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C192">
+        <v>13</v>
+      </c>
+      <c r="D192" s="25" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="16">
+      <c r="A193" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C193">
+        <v>14</v>
+      </c>
+      <c r="D193" s="25" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="16">
+      <c r="A194" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C194">
+        <v>15</v>
+      </c>
+      <c r="D194" s="25" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="16">
+      <c r="A195" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C195">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>451</v>
+      </c>
+      <c r="E195" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="16">
+      <c r="A196" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C196">
+        <v>17</v>
+      </c>
+      <c r="D196" t="s">
+        <v>452</v>
+      </c>
+      <c r="E196" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="16">
+      <c r="A197" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C197">
+        <v>18</v>
+      </c>
+      <c r="D197" t="s">
+        <v>453</v>
+      </c>
+      <c r="E197" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="16">
+      <c r="A198" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="16">
+      <c r="A199" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C199">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="16">
+      <c r="A200" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C200">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="16">
+      <c r="A201" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="C201">
+        <v>22</v>
+      </c>
+      <c r="D201" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="16">
+      <c r="A202" s="27" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C202">
+        <v>23</v>
+      </c>
+      <c r="D202" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
